--- a/data/flat_prices.xlsx
+++ b/data/flat_prices.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="Ten_skoroszyt"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A60124-1BA8-48C8-A32E-E199B6455064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD320304-C20A-4C63-885E-548149F466D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis danych (data description)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="WYNIK1">OFFSET('[1]DANE DLA DSF_oblicz'!$W$70,0,0,COUNT('[1]DANE DLA DSF_oblicz'!$W$69:$W$119),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -717,7 +716,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="155">
   <si>
     <t>Białystok</t>
   </si>
@@ -1588,6 +1587,15 @@
   <si>
     <t>I 2023</t>
   </si>
+  <si>
+    <t>II 2023</t>
+  </si>
+  <si>
+    <t>Gdynia*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Wobec dużych wahań liczby transakcji mieszkań sprzedanych na rynku pierwotnym w poszczególnych dzielnicach Gdyni od III kwartału 2021 r. wprowadzono system średniej ceny w zł/mkw. ważonej liczbą ludności w wyszczególnionych segmentach rynku. </t>
+  </si>
 </sst>
 </file>
 
@@ -2185,21 +2193,27 @@
     <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2210,13 +2224,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5750,8 +5758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RP_Oferty" displayName="RP_Oferty" ref="A7:V74" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139" tableBorderDxfId="138">
-  <autoFilter ref="A7:V74" xr:uid="{00000000-0009-0000-0100-000024000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RP_Oferty" displayName="RP_Oferty" ref="A7:V75" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139" tableBorderDxfId="138">
+  <autoFilter ref="A7:V75" xr:uid="{00000000-0009-0000-0100-000024000000}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kwartał" dataDxfId="137" dataCellStyle="Normalny 2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Białystok" dataDxfId="136"/>
@@ -5781,13 +5789,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="RP_Transakcje" displayName="RP_Transakcje" ref="Y7:AS74" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114" tableBorderDxfId="113">
-  <autoFilter ref="Y7:AS74" xr:uid="{00000000-0009-0000-0100-000025000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="RP_Transakcje" displayName="RP_Transakcje" ref="Y7:AS75" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114" tableBorderDxfId="113">
+  <autoFilter ref="Y7:AS75" xr:uid="{00000000-0009-0000-0100-000025000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Białystok" dataDxfId="112"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Bydgoszcz" dataDxfId="111"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Gdańsk" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Gdynia" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Gdynia*" dataDxfId="109"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Katowice" dataDxfId="108"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Kielce" dataDxfId="107"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Kraków" dataDxfId="106"/>
@@ -5811,8 +5819,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="RW_Oferty" displayName="RW_Oferty" ref="A7:V74" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
-  <autoFilter ref="A7:V74" xr:uid="{00000000-0009-0000-0100-000026000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="RW_Oferty" displayName="RW_Oferty" ref="A7:V75" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+  <autoFilter ref="A7:V75" xr:uid="{00000000-0009-0000-0100-000026000000}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Kwartał" dataDxfId="89" dataCellStyle="Normalny 2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Białystok" dataDxfId="88"/>
@@ -5842,8 +5850,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="RW_Transakcje" displayName="RW_Transakcje" ref="Y7:AS74" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="Y7:AS74" xr:uid="{00000000-0009-0000-0100-000027000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="RW_Transakcje" displayName="RW_Transakcje" ref="Y7:AS75" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="Y7:AS75" xr:uid="{00000000-0009-0000-0100-000027000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Białystok" dataDxfId="65"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Bydgoszcz" dataDxfId="64"/>
@@ -5872,8 +5880,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="RW_Hedoniczny_Q" displayName="RW_Hedoniczny_Q" ref="AV7:BP74" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="AV7:BP74" xr:uid="{00000000-0009-0000-0100-000028000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="RW_Hedoniczny_Q" displayName="RW_Hedoniczny_Q" ref="AV7:BP75" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="AV7:BP75" xr:uid="{00000000-0009-0000-0100-000028000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Białystok" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Bydgoszcz" dataDxfId="41"/>
@@ -5902,8 +5910,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="RW_Hedoniczny_Y" displayName="RW_Hedoniczny_Y" ref="BR7:CK74" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="BR7:CK74" xr:uid="{00000000-0009-0000-0100-000029000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="RW_Hedoniczny_Y" displayName="RW_Hedoniczny_Y" ref="BR7:CK75" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="BR7:CK75" xr:uid="{00000000-0009-0000-0100-000029000000}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Białystok" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Bydgoszcz" dataDxfId="18"/>
@@ -6202,13 +6210,13 @@
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="119" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:256" s="121" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A1" s="121" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:256" ht="32.450000000000003" customHeight="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="123" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="117"/>
@@ -6223,8 +6231,8 @@
       <c r="K2" s="117"/>
       <c r="L2" s="117"/>
     </row>
-    <row r="3" spans="1:256" s="120" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="120" t="s">
+    <row r="3" spans="1:256" s="122" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="122" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6334,20 +6342,20 @@
       <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:256" ht="14.45" customHeight="1">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:256" ht="9.75" customHeight="1">
       <c r="A12" s="32"/>
@@ -6369,1321 +6377,1321 @@
       <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="1:256" s="76" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="116"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="116"/>
-      <c r="AJ13" s="116"/>
-      <c r="AK13" s="115"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="116"/>
-      <c r="AN13" s="116"/>
-      <c r="AO13" s="116"/>
-      <c r="AP13" s="116"/>
-      <c r="AQ13" s="116"/>
-      <c r="AR13" s="116"/>
-      <c r="AS13" s="116"/>
-      <c r="AT13" s="116"/>
-      <c r="AU13" s="116"/>
-      <c r="AV13" s="116"/>
-      <c r="AW13" s="115"/>
-      <c r="AX13" s="116"/>
-      <c r="AY13" s="116"/>
-      <c r="AZ13" s="116"/>
-      <c r="BA13" s="116"/>
-      <c r="BB13" s="116"/>
-      <c r="BC13" s="116"/>
-      <c r="BD13" s="116"/>
-      <c r="BE13" s="116"/>
-      <c r="BF13" s="116"/>
-      <c r="BG13" s="116"/>
-      <c r="BH13" s="116"/>
-      <c r="BI13" s="115"/>
-      <c r="BJ13" s="116"/>
-      <c r="BK13" s="116"/>
-      <c r="BL13" s="116"/>
-      <c r="BM13" s="116"/>
-      <c r="BN13" s="116"/>
-      <c r="BO13" s="116"/>
-      <c r="BP13" s="116"/>
-      <c r="BQ13" s="116"/>
-      <c r="BR13" s="116"/>
-      <c r="BS13" s="116"/>
-      <c r="BT13" s="116"/>
-      <c r="BU13" s="115"/>
-      <c r="BV13" s="116"/>
-      <c r="BW13" s="116"/>
-      <c r="BX13" s="116"/>
-      <c r="BY13" s="116"/>
-      <c r="BZ13" s="116"/>
-      <c r="CA13" s="116"/>
-      <c r="CB13" s="116"/>
-      <c r="CC13" s="116"/>
-      <c r="CD13" s="116"/>
-      <c r="CE13" s="116"/>
-      <c r="CF13" s="116"/>
-      <c r="CG13" s="115"/>
-      <c r="CH13" s="116"/>
-      <c r="CI13" s="116"/>
-      <c r="CJ13" s="116"/>
-      <c r="CK13" s="116"/>
-      <c r="CL13" s="116"/>
-      <c r="CM13" s="116"/>
-      <c r="CN13" s="116"/>
-      <c r="CO13" s="116"/>
-      <c r="CP13" s="116"/>
-      <c r="CQ13" s="116"/>
-      <c r="CR13" s="116"/>
-      <c r="CS13" s="115"/>
-      <c r="CT13" s="116"/>
-      <c r="CU13" s="116"/>
-      <c r="CV13" s="116"/>
-      <c r="CW13" s="116"/>
-      <c r="CX13" s="116"/>
-      <c r="CY13" s="116"/>
-      <c r="CZ13" s="116"/>
-      <c r="DA13" s="116"/>
-      <c r="DB13" s="116"/>
-      <c r="DC13" s="116"/>
-      <c r="DD13" s="116"/>
-      <c r="DE13" s="115"/>
-      <c r="DF13" s="116"/>
-      <c r="DG13" s="116"/>
-      <c r="DH13" s="116"/>
-      <c r="DI13" s="116"/>
-      <c r="DJ13" s="116"/>
-      <c r="DK13" s="116"/>
-      <c r="DL13" s="116"/>
-      <c r="DM13" s="116"/>
-      <c r="DN13" s="116"/>
-      <c r="DO13" s="116"/>
-      <c r="DP13" s="116"/>
-      <c r="DQ13" s="115"/>
-      <c r="DR13" s="116"/>
-      <c r="DS13" s="116"/>
-      <c r="DT13" s="116"/>
-      <c r="DU13" s="116"/>
-      <c r="DV13" s="116"/>
-      <c r="DW13" s="116"/>
-      <c r="DX13" s="116"/>
-      <c r="DY13" s="116"/>
-      <c r="DZ13" s="116"/>
-      <c r="EA13" s="116"/>
-      <c r="EB13" s="116"/>
-      <c r="EC13" s="115"/>
-      <c r="ED13" s="116"/>
-      <c r="EE13" s="116"/>
-      <c r="EF13" s="116"/>
-      <c r="EG13" s="116"/>
-      <c r="EH13" s="116"/>
-      <c r="EI13" s="116"/>
-      <c r="EJ13" s="116"/>
-      <c r="EK13" s="116"/>
-      <c r="EL13" s="116"/>
-      <c r="EM13" s="116"/>
-      <c r="EN13" s="116"/>
-      <c r="EO13" s="115"/>
-      <c r="EP13" s="116"/>
-      <c r="EQ13" s="116"/>
-      <c r="ER13" s="116"/>
-      <c r="ES13" s="116"/>
-      <c r="ET13" s="116"/>
-      <c r="EU13" s="116"/>
-      <c r="EV13" s="116"/>
-      <c r="EW13" s="116"/>
-      <c r="EX13" s="116"/>
-      <c r="EY13" s="116"/>
-      <c r="EZ13" s="116"/>
-      <c r="FA13" s="115"/>
-      <c r="FB13" s="116"/>
-      <c r="FC13" s="116"/>
-      <c r="FD13" s="116"/>
-      <c r="FE13" s="116"/>
-      <c r="FF13" s="116"/>
-      <c r="FG13" s="116"/>
-      <c r="FH13" s="116"/>
-      <c r="FI13" s="116"/>
-      <c r="FJ13" s="116"/>
-      <c r="FK13" s="116"/>
-      <c r="FL13" s="116"/>
-      <c r="FM13" s="115"/>
-      <c r="FN13" s="116"/>
-      <c r="FO13" s="116"/>
-      <c r="FP13" s="116"/>
-      <c r="FQ13" s="116"/>
-      <c r="FR13" s="116"/>
-      <c r="FS13" s="116"/>
-      <c r="FT13" s="116"/>
-      <c r="FU13" s="116"/>
-      <c r="FV13" s="116"/>
-      <c r="FW13" s="116"/>
-      <c r="FX13" s="116"/>
-      <c r="FY13" s="115"/>
-      <c r="FZ13" s="116"/>
-      <c r="GA13" s="116"/>
-      <c r="GB13" s="116"/>
-      <c r="GC13" s="116"/>
-      <c r="GD13" s="116"/>
-      <c r="GE13" s="116"/>
-      <c r="GF13" s="116"/>
-      <c r="GG13" s="116"/>
-      <c r="GH13" s="116"/>
-      <c r="GI13" s="116"/>
-      <c r="GJ13" s="116"/>
-      <c r="GK13" s="115"/>
-      <c r="GL13" s="116"/>
-      <c r="GM13" s="116"/>
-      <c r="GN13" s="116"/>
-      <c r="GO13" s="116"/>
-      <c r="GP13" s="116"/>
-      <c r="GQ13" s="116"/>
-      <c r="GR13" s="116"/>
-      <c r="GS13" s="116"/>
-      <c r="GT13" s="116"/>
-      <c r="GU13" s="116"/>
-      <c r="GV13" s="116"/>
-      <c r="GW13" s="115"/>
-      <c r="GX13" s="116"/>
-      <c r="GY13" s="116"/>
-      <c r="GZ13" s="116"/>
-      <c r="HA13" s="116"/>
-      <c r="HB13" s="116"/>
-      <c r="HC13" s="116"/>
-      <c r="HD13" s="116"/>
-      <c r="HE13" s="116"/>
-      <c r="HF13" s="116"/>
-      <c r="HG13" s="116"/>
-      <c r="HH13" s="116"/>
-      <c r="HI13" s="115"/>
-      <c r="HJ13" s="116"/>
-      <c r="HK13" s="116"/>
-      <c r="HL13" s="116"/>
-      <c r="HM13" s="116"/>
-      <c r="HN13" s="116"/>
-      <c r="HO13" s="116"/>
-      <c r="HP13" s="116"/>
-      <c r="HQ13" s="116"/>
-      <c r="HR13" s="116"/>
-      <c r="HS13" s="116"/>
-      <c r="HT13" s="116"/>
-      <c r="HU13" s="115"/>
-      <c r="HV13" s="116"/>
-      <c r="HW13" s="116"/>
-      <c r="HX13" s="116"/>
-      <c r="HY13" s="116"/>
-      <c r="HZ13" s="116"/>
-      <c r="IA13" s="116"/>
-      <c r="IB13" s="116"/>
-      <c r="IC13" s="116"/>
-      <c r="ID13" s="116"/>
-      <c r="IE13" s="116"/>
-      <c r="IF13" s="116"/>
-      <c r="IG13" s="115"/>
-      <c r="IH13" s="116"/>
-      <c r="II13" s="116"/>
-      <c r="IJ13" s="116"/>
-      <c r="IK13" s="116"/>
-      <c r="IL13" s="116"/>
-      <c r="IM13" s="116"/>
-      <c r="IN13" s="116"/>
-      <c r="IO13" s="116"/>
-      <c r="IP13" s="116"/>
-      <c r="IQ13" s="116"/>
-      <c r="IR13" s="116"/>
-      <c r="IS13" s="115"/>
-      <c r="IT13" s="116"/>
-      <c r="IU13" s="116"/>
-      <c r="IV13" s="116"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="115"/>
+      <c r="AE13" s="115"/>
+      <c r="AF13" s="115"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="115"/>
+      <c r="AI13" s="115"/>
+      <c r="AJ13" s="115"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="115"/>
+      <c r="AM13" s="115"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="115"/>
+      <c r="AR13" s="115"/>
+      <c r="AS13" s="115"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="115"/>
+      <c r="AV13" s="115"/>
+      <c r="AW13" s="120"/>
+      <c r="AX13" s="115"/>
+      <c r="AY13" s="115"/>
+      <c r="AZ13" s="115"/>
+      <c r="BA13" s="115"/>
+      <c r="BB13" s="115"/>
+      <c r="BC13" s="115"/>
+      <c r="BD13" s="115"/>
+      <c r="BE13" s="115"/>
+      <c r="BF13" s="115"/>
+      <c r="BG13" s="115"/>
+      <c r="BH13" s="115"/>
+      <c r="BI13" s="120"/>
+      <c r="BJ13" s="115"/>
+      <c r="BK13" s="115"/>
+      <c r="BL13" s="115"/>
+      <c r="BM13" s="115"/>
+      <c r="BN13" s="115"/>
+      <c r="BO13" s="115"/>
+      <c r="BP13" s="115"/>
+      <c r="BQ13" s="115"/>
+      <c r="BR13" s="115"/>
+      <c r="BS13" s="115"/>
+      <c r="BT13" s="115"/>
+      <c r="BU13" s="120"/>
+      <c r="BV13" s="115"/>
+      <c r="BW13" s="115"/>
+      <c r="BX13" s="115"/>
+      <c r="BY13" s="115"/>
+      <c r="BZ13" s="115"/>
+      <c r="CA13" s="115"/>
+      <c r="CB13" s="115"/>
+      <c r="CC13" s="115"/>
+      <c r="CD13" s="115"/>
+      <c r="CE13" s="115"/>
+      <c r="CF13" s="115"/>
+      <c r="CG13" s="120"/>
+      <c r="CH13" s="115"/>
+      <c r="CI13" s="115"/>
+      <c r="CJ13" s="115"/>
+      <c r="CK13" s="115"/>
+      <c r="CL13" s="115"/>
+      <c r="CM13" s="115"/>
+      <c r="CN13" s="115"/>
+      <c r="CO13" s="115"/>
+      <c r="CP13" s="115"/>
+      <c r="CQ13" s="115"/>
+      <c r="CR13" s="115"/>
+      <c r="CS13" s="120"/>
+      <c r="CT13" s="115"/>
+      <c r="CU13" s="115"/>
+      <c r="CV13" s="115"/>
+      <c r="CW13" s="115"/>
+      <c r="CX13" s="115"/>
+      <c r="CY13" s="115"/>
+      <c r="CZ13" s="115"/>
+      <c r="DA13" s="115"/>
+      <c r="DB13" s="115"/>
+      <c r="DC13" s="115"/>
+      <c r="DD13" s="115"/>
+      <c r="DE13" s="120"/>
+      <c r="DF13" s="115"/>
+      <c r="DG13" s="115"/>
+      <c r="DH13" s="115"/>
+      <c r="DI13" s="115"/>
+      <c r="DJ13" s="115"/>
+      <c r="DK13" s="115"/>
+      <c r="DL13" s="115"/>
+      <c r="DM13" s="115"/>
+      <c r="DN13" s="115"/>
+      <c r="DO13" s="115"/>
+      <c r="DP13" s="115"/>
+      <c r="DQ13" s="120"/>
+      <c r="DR13" s="115"/>
+      <c r="DS13" s="115"/>
+      <c r="DT13" s="115"/>
+      <c r="DU13" s="115"/>
+      <c r="DV13" s="115"/>
+      <c r="DW13" s="115"/>
+      <c r="DX13" s="115"/>
+      <c r="DY13" s="115"/>
+      <c r="DZ13" s="115"/>
+      <c r="EA13" s="115"/>
+      <c r="EB13" s="115"/>
+      <c r="EC13" s="120"/>
+      <c r="ED13" s="115"/>
+      <c r="EE13" s="115"/>
+      <c r="EF13" s="115"/>
+      <c r="EG13" s="115"/>
+      <c r="EH13" s="115"/>
+      <c r="EI13" s="115"/>
+      <c r="EJ13" s="115"/>
+      <c r="EK13" s="115"/>
+      <c r="EL13" s="115"/>
+      <c r="EM13" s="115"/>
+      <c r="EN13" s="115"/>
+      <c r="EO13" s="120"/>
+      <c r="EP13" s="115"/>
+      <c r="EQ13" s="115"/>
+      <c r="ER13" s="115"/>
+      <c r="ES13" s="115"/>
+      <c r="ET13" s="115"/>
+      <c r="EU13" s="115"/>
+      <c r="EV13" s="115"/>
+      <c r="EW13" s="115"/>
+      <c r="EX13" s="115"/>
+      <c r="EY13" s="115"/>
+      <c r="EZ13" s="115"/>
+      <c r="FA13" s="120"/>
+      <c r="FB13" s="115"/>
+      <c r="FC13" s="115"/>
+      <c r="FD13" s="115"/>
+      <c r="FE13" s="115"/>
+      <c r="FF13" s="115"/>
+      <c r="FG13" s="115"/>
+      <c r="FH13" s="115"/>
+      <c r="FI13" s="115"/>
+      <c r="FJ13" s="115"/>
+      <c r="FK13" s="115"/>
+      <c r="FL13" s="115"/>
+      <c r="FM13" s="120"/>
+      <c r="FN13" s="115"/>
+      <c r="FO13" s="115"/>
+      <c r="FP13" s="115"/>
+      <c r="FQ13" s="115"/>
+      <c r="FR13" s="115"/>
+      <c r="FS13" s="115"/>
+      <c r="FT13" s="115"/>
+      <c r="FU13" s="115"/>
+      <c r="FV13" s="115"/>
+      <c r="FW13" s="115"/>
+      <c r="FX13" s="115"/>
+      <c r="FY13" s="120"/>
+      <c r="FZ13" s="115"/>
+      <c r="GA13" s="115"/>
+      <c r="GB13" s="115"/>
+      <c r="GC13" s="115"/>
+      <c r="GD13" s="115"/>
+      <c r="GE13" s="115"/>
+      <c r="GF13" s="115"/>
+      <c r="GG13" s="115"/>
+      <c r="GH13" s="115"/>
+      <c r="GI13" s="115"/>
+      <c r="GJ13" s="115"/>
+      <c r="GK13" s="120"/>
+      <c r="GL13" s="115"/>
+      <c r="GM13" s="115"/>
+      <c r="GN13" s="115"/>
+      <c r="GO13" s="115"/>
+      <c r="GP13" s="115"/>
+      <c r="GQ13" s="115"/>
+      <c r="GR13" s="115"/>
+      <c r="GS13" s="115"/>
+      <c r="GT13" s="115"/>
+      <c r="GU13" s="115"/>
+      <c r="GV13" s="115"/>
+      <c r="GW13" s="120"/>
+      <c r="GX13" s="115"/>
+      <c r="GY13" s="115"/>
+      <c r="GZ13" s="115"/>
+      <c r="HA13" s="115"/>
+      <c r="HB13" s="115"/>
+      <c r="HC13" s="115"/>
+      <c r="HD13" s="115"/>
+      <c r="HE13" s="115"/>
+      <c r="HF13" s="115"/>
+      <c r="HG13" s="115"/>
+      <c r="HH13" s="115"/>
+      <c r="HI13" s="120"/>
+      <c r="HJ13" s="115"/>
+      <c r="HK13" s="115"/>
+      <c r="HL13" s="115"/>
+      <c r="HM13" s="115"/>
+      <c r="HN13" s="115"/>
+      <c r="HO13" s="115"/>
+      <c r="HP13" s="115"/>
+      <c r="HQ13" s="115"/>
+      <c r="HR13" s="115"/>
+      <c r="HS13" s="115"/>
+      <c r="HT13" s="115"/>
+      <c r="HU13" s="120"/>
+      <c r="HV13" s="115"/>
+      <c r="HW13" s="115"/>
+      <c r="HX13" s="115"/>
+      <c r="HY13" s="115"/>
+      <c r="HZ13" s="115"/>
+      <c r="IA13" s="115"/>
+      <c r="IB13" s="115"/>
+      <c r="IC13" s="115"/>
+      <c r="ID13" s="115"/>
+      <c r="IE13" s="115"/>
+      <c r="IF13" s="115"/>
+      <c r="IG13" s="120"/>
+      <c r="IH13" s="115"/>
+      <c r="II13" s="115"/>
+      <c r="IJ13" s="115"/>
+      <c r="IK13" s="115"/>
+      <c r="IL13" s="115"/>
+      <c r="IM13" s="115"/>
+      <c r="IN13" s="115"/>
+      <c r="IO13" s="115"/>
+      <c r="IP13" s="115"/>
+      <c r="IQ13" s="115"/>
+      <c r="IR13" s="115"/>
+      <c r="IS13" s="120"/>
+      <c r="IT13" s="115"/>
+      <c r="IU13" s="115"/>
+      <c r="IV13" s="115"/>
     </row>
     <row r="14" spans="1:256" s="76" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="115"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="116"/>
-      <c r="AO14" s="116"/>
-      <c r="AP14" s="116"/>
-      <c r="AQ14" s="116"/>
-      <c r="AR14" s="116"/>
-      <c r="AS14" s="116"/>
-      <c r="AT14" s="116"/>
-      <c r="AU14" s="116"/>
-      <c r="AV14" s="116"/>
-      <c r="AW14" s="115"/>
-      <c r="AX14" s="116"/>
-      <c r="AY14" s="116"/>
-      <c r="AZ14" s="116"/>
-      <c r="BA14" s="116"/>
-      <c r="BB14" s="116"/>
-      <c r="BC14" s="116"/>
-      <c r="BD14" s="116"/>
-      <c r="BE14" s="116"/>
-      <c r="BF14" s="116"/>
-      <c r="BG14" s="116"/>
-      <c r="BH14" s="116"/>
-      <c r="BI14" s="115"/>
-      <c r="BJ14" s="116"/>
-      <c r="BK14" s="116"/>
-      <c r="BL14" s="116"/>
-      <c r="BM14" s="116"/>
-      <c r="BN14" s="116"/>
-      <c r="BO14" s="116"/>
-      <c r="BP14" s="116"/>
-      <c r="BQ14" s="116"/>
-      <c r="BR14" s="116"/>
-      <c r="BS14" s="116"/>
-      <c r="BT14" s="116"/>
-      <c r="BU14" s="115"/>
-      <c r="BV14" s="116"/>
-      <c r="BW14" s="116"/>
-      <c r="BX14" s="116"/>
-      <c r="BY14" s="116"/>
-      <c r="BZ14" s="116"/>
-      <c r="CA14" s="116"/>
-      <c r="CB14" s="116"/>
-      <c r="CC14" s="116"/>
-      <c r="CD14" s="116"/>
-      <c r="CE14" s="116"/>
-      <c r="CF14" s="116"/>
-      <c r="CG14" s="115"/>
-      <c r="CH14" s="116"/>
-      <c r="CI14" s="116"/>
-      <c r="CJ14" s="116"/>
-      <c r="CK14" s="116"/>
-      <c r="CL14" s="116"/>
-      <c r="CM14" s="116"/>
-      <c r="CN14" s="116"/>
-      <c r="CO14" s="116"/>
-      <c r="CP14" s="116"/>
-      <c r="CQ14" s="116"/>
-      <c r="CR14" s="116"/>
-      <c r="CS14" s="115"/>
-      <c r="CT14" s="116"/>
-      <c r="CU14" s="116"/>
-      <c r="CV14" s="116"/>
-      <c r="CW14" s="116"/>
-      <c r="CX14" s="116"/>
-      <c r="CY14" s="116"/>
-      <c r="CZ14" s="116"/>
-      <c r="DA14" s="116"/>
-      <c r="DB14" s="116"/>
-      <c r="DC14" s="116"/>
-      <c r="DD14" s="116"/>
-      <c r="DE14" s="115"/>
-      <c r="DF14" s="116"/>
-      <c r="DG14" s="116"/>
-      <c r="DH14" s="116"/>
-      <c r="DI14" s="116"/>
-      <c r="DJ14" s="116"/>
-      <c r="DK14" s="116"/>
-      <c r="DL14" s="116"/>
-      <c r="DM14" s="116"/>
-      <c r="DN14" s="116"/>
-      <c r="DO14" s="116"/>
-      <c r="DP14" s="116"/>
-      <c r="DQ14" s="115"/>
-      <c r="DR14" s="116"/>
-      <c r="DS14" s="116"/>
-      <c r="DT14" s="116"/>
-      <c r="DU14" s="116"/>
-      <c r="DV14" s="116"/>
-      <c r="DW14" s="116"/>
-      <c r="DX14" s="116"/>
-      <c r="DY14" s="116"/>
-      <c r="DZ14" s="116"/>
-      <c r="EA14" s="116"/>
-      <c r="EB14" s="116"/>
-      <c r="EC14" s="115"/>
-      <c r="ED14" s="116"/>
-      <c r="EE14" s="116"/>
-      <c r="EF14" s="116"/>
-      <c r="EG14" s="116"/>
-      <c r="EH14" s="116"/>
-      <c r="EI14" s="116"/>
-      <c r="EJ14" s="116"/>
-      <c r="EK14" s="116"/>
-      <c r="EL14" s="116"/>
-      <c r="EM14" s="116"/>
-      <c r="EN14" s="116"/>
-      <c r="EO14" s="115"/>
-      <c r="EP14" s="116"/>
-      <c r="EQ14" s="116"/>
-      <c r="ER14" s="116"/>
-      <c r="ES14" s="116"/>
-      <c r="ET14" s="116"/>
-      <c r="EU14" s="116"/>
-      <c r="EV14" s="116"/>
-      <c r="EW14" s="116"/>
-      <c r="EX14" s="116"/>
-      <c r="EY14" s="116"/>
-      <c r="EZ14" s="116"/>
-      <c r="FA14" s="115"/>
-      <c r="FB14" s="116"/>
-      <c r="FC14" s="116"/>
-      <c r="FD14" s="116"/>
-      <c r="FE14" s="116"/>
-      <c r="FF14" s="116"/>
-      <c r="FG14" s="116"/>
-      <c r="FH14" s="116"/>
-      <c r="FI14" s="116"/>
-      <c r="FJ14" s="116"/>
-      <c r="FK14" s="116"/>
-      <c r="FL14" s="116"/>
-      <c r="FM14" s="115"/>
-      <c r="FN14" s="116"/>
-      <c r="FO14" s="116"/>
-      <c r="FP14" s="116"/>
-      <c r="FQ14" s="116"/>
-      <c r="FR14" s="116"/>
-      <c r="FS14" s="116"/>
-      <c r="FT14" s="116"/>
-      <c r="FU14" s="116"/>
-      <c r="FV14" s="116"/>
-      <c r="FW14" s="116"/>
-      <c r="FX14" s="116"/>
-      <c r="FY14" s="115"/>
-      <c r="FZ14" s="116"/>
-      <c r="GA14" s="116"/>
-      <c r="GB14" s="116"/>
-      <c r="GC14" s="116"/>
-      <c r="GD14" s="116"/>
-      <c r="GE14" s="116"/>
-      <c r="GF14" s="116"/>
-      <c r="GG14" s="116"/>
-      <c r="GH14" s="116"/>
-      <c r="GI14" s="116"/>
-      <c r="GJ14" s="116"/>
-      <c r="GK14" s="115"/>
-      <c r="GL14" s="116"/>
-      <c r="GM14" s="116"/>
-      <c r="GN14" s="116"/>
-      <c r="GO14" s="116"/>
-      <c r="GP14" s="116"/>
-      <c r="GQ14" s="116"/>
-      <c r="GR14" s="116"/>
-      <c r="GS14" s="116"/>
-      <c r="GT14" s="116"/>
-      <c r="GU14" s="116"/>
-      <c r="GV14" s="116"/>
-      <c r="GW14" s="115"/>
-      <c r="GX14" s="116"/>
-      <c r="GY14" s="116"/>
-      <c r="GZ14" s="116"/>
-      <c r="HA14" s="116"/>
-      <c r="HB14" s="116"/>
-      <c r="HC14" s="116"/>
-      <c r="HD14" s="116"/>
-      <c r="HE14" s="116"/>
-      <c r="HF14" s="116"/>
-      <c r="HG14" s="116"/>
-      <c r="HH14" s="116"/>
-      <c r="HI14" s="115"/>
-      <c r="HJ14" s="116"/>
-      <c r="HK14" s="116"/>
-      <c r="HL14" s="116"/>
-      <c r="HM14" s="116"/>
-      <c r="HN14" s="116"/>
-      <c r="HO14" s="116"/>
-      <c r="HP14" s="116"/>
-      <c r="HQ14" s="116"/>
-      <c r="HR14" s="116"/>
-      <c r="HS14" s="116"/>
-      <c r="HT14" s="116"/>
-      <c r="HU14" s="115"/>
-      <c r="HV14" s="116"/>
-      <c r="HW14" s="116"/>
-      <c r="HX14" s="116"/>
-      <c r="HY14" s="116"/>
-      <c r="HZ14" s="116"/>
-      <c r="IA14" s="116"/>
-      <c r="IB14" s="116"/>
-      <c r="IC14" s="116"/>
-      <c r="ID14" s="116"/>
-      <c r="IE14" s="116"/>
-      <c r="IF14" s="116"/>
-      <c r="IG14" s="115"/>
-      <c r="IH14" s="116"/>
-      <c r="II14" s="116"/>
-      <c r="IJ14" s="116"/>
-      <c r="IK14" s="116"/>
-      <c r="IL14" s="116"/>
-      <c r="IM14" s="116"/>
-      <c r="IN14" s="116"/>
-      <c r="IO14" s="116"/>
-      <c r="IP14" s="116"/>
-      <c r="IQ14" s="116"/>
-      <c r="IR14" s="116"/>
-      <c r="IS14" s="115"/>
-      <c r="IT14" s="116"/>
-      <c r="IU14" s="116"/>
-      <c r="IV14" s="116"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="120"/>
+      <c r="AX14" s="115"/>
+      <c r="AY14" s="115"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="115"/>
+      <c r="BE14" s="115"/>
+      <c r="BF14" s="115"/>
+      <c r="BG14" s="115"/>
+      <c r="BH14" s="115"/>
+      <c r="BI14" s="120"/>
+      <c r="BJ14" s="115"/>
+      <c r="BK14" s="115"/>
+      <c r="BL14" s="115"/>
+      <c r="BM14" s="115"/>
+      <c r="BN14" s="115"/>
+      <c r="BO14" s="115"/>
+      <c r="BP14" s="115"/>
+      <c r="BQ14" s="115"/>
+      <c r="BR14" s="115"/>
+      <c r="BS14" s="115"/>
+      <c r="BT14" s="115"/>
+      <c r="BU14" s="120"/>
+      <c r="BV14" s="115"/>
+      <c r="BW14" s="115"/>
+      <c r="BX14" s="115"/>
+      <c r="BY14" s="115"/>
+      <c r="BZ14" s="115"/>
+      <c r="CA14" s="115"/>
+      <c r="CB14" s="115"/>
+      <c r="CC14" s="115"/>
+      <c r="CD14" s="115"/>
+      <c r="CE14" s="115"/>
+      <c r="CF14" s="115"/>
+      <c r="CG14" s="120"/>
+      <c r="CH14" s="115"/>
+      <c r="CI14" s="115"/>
+      <c r="CJ14" s="115"/>
+      <c r="CK14" s="115"/>
+      <c r="CL14" s="115"/>
+      <c r="CM14" s="115"/>
+      <c r="CN14" s="115"/>
+      <c r="CO14" s="115"/>
+      <c r="CP14" s="115"/>
+      <c r="CQ14" s="115"/>
+      <c r="CR14" s="115"/>
+      <c r="CS14" s="120"/>
+      <c r="CT14" s="115"/>
+      <c r="CU14" s="115"/>
+      <c r="CV14" s="115"/>
+      <c r="CW14" s="115"/>
+      <c r="CX14" s="115"/>
+      <c r="CY14" s="115"/>
+      <c r="CZ14" s="115"/>
+      <c r="DA14" s="115"/>
+      <c r="DB14" s="115"/>
+      <c r="DC14" s="115"/>
+      <c r="DD14" s="115"/>
+      <c r="DE14" s="120"/>
+      <c r="DF14" s="115"/>
+      <c r="DG14" s="115"/>
+      <c r="DH14" s="115"/>
+      <c r="DI14" s="115"/>
+      <c r="DJ14" s="115"/>
+      <c r="DK14" s="115"/>
+      <c r="DL14" s="115"/>
+      <c r="DM14" s="115"/>
+      <c r="DN14" s="115"/>
+      <c r="DO14" s="115"/>
+      <c r="DP14" s="115"/>
+      <c r="DQ14" s="120"/>
+      <c r="DR14" s="115"/>
+      <c r="DS14" s="115"/>
+      <c r="DT14" s="115"/>
+      <c r="DU14" s="115"/>
+      <c r="DV14" s="115"/>
+      <c r="DW14" s="115"/>
+      <c r="DX14" s="115"/>
+      <c r="DY14" s="115"/>
+      <c r="DZ14" s="115"/>
+      <c r="EA14" s="115"/>
+      <c r="EB14" s="115"/>
+      <c r="EC14" s="120"/>
+      <c r="ED14" s="115"/>
+      <c r="EE14" s="115"/>
+      <c r="EF14" s="115"/>
+      <c r="EG14" s="115"/>
+      <c r="EH14" s="115"/>
+      <c r="EI14" s="115"/>
+      <c r="EJ14" s="115"/>
+      <c r="EK14" s="115"/>
+      <c r="EL14" s="115"/>
+      <c r="EM14" s="115"/>
+      <c r="EN14" s="115"/>
+      <c r="EO14" s="120"/>
+      <c r="EP14" s="115"/>
+      <c r="EQ14" s="115"/>
+      <c r="ER14" s="115"/>
+      <c r="ES14" s="115"/>
+      <c r="ET14" s="115"/>
+      <c r="EU14" s="115"/>
+      <c r="EV14" s="115"/>
+      <c r="EW14" s="115"/>
+      <c r="EX14" s="115"/>
+      <c r="EY14" s="115"/>
+      <c r="EZ14" s="115"/>
+      <c r="FA14" s="120"/>
+      <c r="FB14" s="115"/>
+      <c r="FC14" s="115"/>
+      <c r="FD14" s="115"/>
+      <c r="FE14" s="115"/>
+      <c r="FF14" s="115"/>
+      <c r="FG14" s="115"/>
+      <c r="FH14" s="115"/>
+      <c r="FI14" s="115"/>
+      <c r="FJ14" s="115"/>
+      <c r="FK14" s="115"/>
+      <c r="FL14" s="115"/>
+      <c r="FM14" s="120"/>
+      <c r="FN14" s="115"/>
+      <c r="FO14" s="115"/>
+      <c r="FP14" s="115"/>
+      <c r="FQ14" s="115"/>
+      <c r="FR14" s="115"/>
+      <c r="FS14" s="115"/>
+      <c r="FT14" s="115"/>
+      <c r="FU14" s="115"/>
+      <c r="FV14" s="115"/>
+      <c r="FW14" s="115"/>
+      <c r="FX14" s="115"/>
+      <c r="FY14" s="120"/>
+      <c r="FZ14" s="115"/>
+      <c r="GA14" s="115"/>
+      <c r="GB14" s="115"/>
+      <c r="GC14" s="115"/>
+      <c r="GD14" s="115"/>
+      <c r="GE14" s="115"/>
+      <c r="GF14" s="115"/>
+      <c r="GG14" s="115"/>
+      <c r="GH14" s="115"/>
+      <c r="GI14" s="115"/>
+      <c r="GJ14" s="115"/>
+      <c r="GK14" s="120"/>
+      <c r="GL14" s="115"/>
+      <c r="GM14" s="115"/>
+      <c r="GN14" s="115"/>
+      <c r="GO14" s="115"/>
+      <c r="GP14" s="115"/>
+      <c r="GQ14" s="115"/>
+      <c r="GR14" s="115"/>
+      <c r="GS14" s="115"/>
+      <c r="GT14" s="115"/>
+      <c r="GU14" s="115"/>
+      <c r="GV14" s="115"/>
+      <c r="GW14" s="120"/>
+      <c r="GX14" s="115"/>
+      <c r="GY14" s="115"/>
+      <c r="GZ14" s="115"/>
+      <c r="HA14" s="115"/>
+      <c r="HB14" s="115"/>
+      <c r="HC14" s="115"/>
+      <c r="HD14" s="115"/>
+      <c r="HE14" s="115"/>
+      <c r="HF14" s="115"/>
+      <c r="HG14" s="115"/>
+      <c r="HH14" s="115"/>
+      <c r="HI14" s="120"/>
+      <c r="HJ14" s="115"/>
+      <c r="HK14" s="115"/>
+      <c r="HL14" s="115"/>
+      <c r="HM14" s="115"/>
+      <c r="HN14" s="115"/>
+      <c r="HO14" s="115"/>
+      <c r="HP14" s="115"/>
+      <c r="HQ14" s="115"/>
+      <c r="HR14" s="115"/>
+      <c r="HS14" s="115"/>
+      <c r="HT14" s="115"/>
+      <c r="HU14" s="120"/>
+      <c r="HV14" s="115"/>
+      <c r="HW14" s="115"/>
+      <c r="HX14" s="115"/>
+      <c r="HY14" s="115"/>
+      <c r="HZ14" s="115"/>
+      <c r="IA14" s="115"/>
+      <c r="IB14" s="115"/>
+      <c r="IC14" s="115"/>
+      <c r="ID14" s="115"/>
+      <c r="IE14" s="115"/>
+      <c r="IF14" s="115"/>
+      <c r="IG14" s="120"/>
+      <c r="IH14" s="115"/>
+      <c r="II14" s="115"/>
+      <c r="IJ14" s="115"/>
+      <c r="IK14" s="115"/>
+      <c r="IL14" s="115"/>
+      <c r="IM14" s="115"/>
+      <c r="IN14" s="115"/>
+      <c r="IO14" s="115"/>
+      <c r="IP14" s="115"/>
+      <c r="IQ14" s="115"/>
+      <c r="IR14" s="115"/>
+      <c r="IS14" s="120"/>
+      <c r="IT14" s="115"/>
+      <c r="IU14" s="115"/>
+      <c r="IV14" s="115"/>
     </row>
     <row r="15" spans="1:256" s="76" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="115"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="116"/>
-      <c r="AB15" s="116"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="116"/>
-      <c r="AE15" s="116"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="115"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="116"/>
-      <c r="AN15" s="116"/>
-      <c r="AO15" s="116"/>
-      <c r="AP15" s="116"/>
-      <c r="AQ15" s="116"/>
-      <c r="AR15" s="116"/>
-      <c r="AS15" s="116"/>
-      <c r="AT15" s="116"/>
-      <c r="AU15" s="116"/>
-      <c r="AV15" s="116"/>
-      <c r="AW15" s="115"/>
-      <c r="AX15" s="116"/>
-      <c r="AY15" s="116"/>
-      <c r="AZ15" s="116"/>
-      <c r="BA15" s="116"/>
-      <c r="BB15" s="116"/>
-      <c r="BC15" s="116"/>
-      <c r="BD15" s="116"/>
-      <c r="BE15" s="116"/>
-      <c r="BF15" s="116"/>
-      <c r="BG15" s="116"/>
-      <c r="BH15" s="116"/>
-      <c r="BI15" s="115"/>
-      <c r="BJ15" s="116"/>
-      <c r="BK15" s="116"/>
-      <c r="BL15" s="116"/>
-      <c r="BM15" s="116"/>
-      <c r="BN15" s="116"/>
-      <c r="BO15" s="116"/>
-      <c r="BP15" s="116"/>
-      <c r="BQ15" s="116"/>
-      <c r="BR15" s="116"/>
-      <c r="BS15" s="116"/>
-      <c r="BT15" s="116"/>
-      <c r="BU15" s="115"/>
-      <c r="BV15" s="116"/>
-      <c r="BW15" s="116"/>
-      <c r="BX15" s="116"/>
-      <c r="BY15" s="116"/>
-      <c r="BZ15" s="116"/>
-      <c r="CA15" s="116"/>
-      <c r="CB15" s="116"/>
-      <c r="CC15" s="116"/>
-      <c r="CD15" s="116"/>
-      <c r="CE15" s="116"/>
-      <c r="CF15" s="116"/>
-      <c r="CG15" s="115"/>
-      <c r="CH15" s="116"/>
-      <c r="CI15" s="116"/>
-      <c r="CJ15" s="116"/>
-      <c r="CK15" s="116"/>
-      <c r="CL15" s="116"/>
-      <c r="CM15" s="116"/>
-      <c r="CN15" s="116"/>
-      <c r="CO15" s="116"/>
-      <c r="CP15" s="116"/>
-      <c r="CQ15" s="116"/>
-      <c r="CR15" s="116"/>
-      <c r="CS15" s="115"/>
-      <c r="CT15" s="116"/>
-      <c r="CU15" s="116"/>
-      <c r="CV15" s="116"/>
-      <c r="CW15" s="116"/>
-      <c r="CX15" s="116"/>
-      <c r="CY15" s="116"/>
-      <c r="CZ15" s="116"/>
-      <c r="DA15" s="116"/>
-      <c r="DB15" s="116"/>
-      <c r="DC15" s="116"/>
-      <c r="DD15" s="116"/>
-      <c r="DE15" s="115"/>
-      <c r="DF15" s="116"/>
-      <c r="DG15" s="116"/>
-      <c r="DH15" s="116"/>
-      <c r="DI15" s="116"/>
-      <c r="DJ15" s="116"/>
-      <c r="DK15" s="116"/>
-      <c r="DL15" s="116"/>
-      <c r="DM15" s="116"/>
-      <c r="DN15" s="116"/>
-      <c r="DO15" s="116"/>
-      <c r="DP15" s="116"/>
-      <c r="DQ15" s="115"/>
-      <c r="DR15" s="116"/>
-      <c r="DS15" s="116"/>
-      <c r="DT15" s="116"/>
-      <c r="DU15" s="116"/>
-      <c r="DV15" s="116"/>
-      <c r="DW15" s="116"/>
-      <c r="DX15" s="116"/>
-      <c r="DY15" s="116"/>
-      <c r="DZ15" s="116"/>
-      <c r="EA15" s="116"/>
-      <c r="EB15" s="116"/>
-      <c r="EC15" s="115"/>
-      <c r="ED15" s="116"/>
-      <c r="EE15" s="116"/>
-      <c r="EF15" s="116"/>
-      <c r="EG15" s="116"/>
-      <c r="EH15" s="116"/>
-      <c r="EI15" s="116"/>
-      <c r="EJ15" s="116"/>
-      <c r="EK15" s="116"/>
-      <c r="EL15" s="116"/>
-      <c r="EM15" s="116"/>
-      <c r="EN15" s="116"/>
-      <c r="EO15" s="115"/>
-      <c r="EP15" s="116"/>
-      <c r="EQ15" s="116"/>
-      <c r="ER15" s="116"/>
-      <c r="ES15" s="116"/>
-      <c r="ET15" s="116"/>
-      <c r="EU15" s="116"/>
-      <c r="EV15" s="116"/>
-      <c r="EW15" s="116"/>
-      <c r="EX15" s="116"/>
-      <c r="EY15" s="116"/>
-      <c r="EZ15" s="116"/>
-      <c r="FA15" s="115"/>
-      <c r="FB15" s="116"/>
-      <c r="FC15" s="116"/>
-      <c r="FD15" s="116"/>
-      <c r="FE15" s="116"/>
-      <c r="FF15" s="116"/>
-      <c r="FG15" s="116"/>
-      <c r="FH15" s="116"/>
-      <c r="FI15" s="116"/>
-      <c r="FJ15" s="116"/>
-      <c r="FK15" s="116"/>
-      <c r="FL15" s="116"/>
-      <c r="FM15" s="115"/>
-      <c r="FN15" s="116"/>
-      <c r="FO15" s="116"/>
-      <c r="FP15" s="116"/>
-      <c r="FQ15" s="116"/>
-      <c r="FR15" s="116"/>
-      <c r="FS15" s="116"/>
-      <c r="FT15" s="116"/>
-      <c r="FU15" s="116"/>
-      <c r="FV15" s="116"/>
-      <c r="FW15" s="116"/>
-      <c r="FX15" s="116"/>
-      <c r="FY15" s="115"/>
-      <c r="FZ15" s="116"/>
-      <c r="GA15" s="116"/>
-      <c r="GB15" s="116"/>
-      <c r="GC15" s="116"/>
-      <c r="GD15" s="116"/>
-      <c r="GE15" s="116"/>
-      <c r="GF15" s="116"/>
-      <c r="GG15" s="116"/>
-      <c r="GH15" s="116"/>
-      <c r="GI15" s="116"/>
-      <c r="GJ15" s="116"/>
-      <c r="GK15" s="115"/>
-      <c r="GL15" s="116"/>
-      <c r="GM15" s="116"/>
-      <c r="GN15" s="116"/>
-      <c r="GO15" s="116"/>
-      <c r="GP15" s="116"/>
-      <c r="GQ15" s="116"/>
-      <c r="GR15" s="116"/>
-      <c r="GS15" s="116"/>
-      <c r="GT15" s="116"/>
-      <c r="GU15" s="116"/>
-      <c r="GV15" s="116"/>
-      <c r="GW15" s="115"/>
-      <c r="GX15" s="116"/>
-      <c r="GY15" s="116"/>
-      <c r="GZ15" s="116"/>
-      <c r="HA15" s="116"/>
-      <c r="HB15" s="116"/>
-      <c r="HC15" s="116"/>
-      <c r="HD15" s="116"/>
-      <c r="HE15" s="116"/>
-      <c r="HF15" s="116"/>
-      <c r="HG15" s="116"/>
-      <c r="HH15" s="116"/>
-      <c r="HI15" s="115"/>
-      <c r="HJ15" s="116"/>
-      <c r="HK15" s="116"/>
-      <c r="HL15" s="116"/>
-      <c r="HM15" s="116"/>
-      <c r="HN15" s="116"/>
-      <c r="HO15" s="116"/>
-      <c r="HP15" s="116"/>
-      <c r="HQ15" s="116"/>
-      <c r="HR15" s="116"/>
-      <c r="HS15" s="116"/>
-      <c r="HT15" s="116"/>
-      <c r="HU15" s="115"/>
-      <c r="HV15" s="116"/>
-      <c r="HW15" s="116"/>
-      <c r="HX15" s="116"/>
-      <c r="HY15" s="116"/>
-      <c r="HZ15" s="116"/>
-      <c r="IA15" s="116"/>
-      <c r="IB15" s="116"/>
-      <c r="IC15" s="116"/>
-      <c r="ID15" s="116"/>
-      <c r="IE15" s="116"/>
-      <c r="IF15" s="116"/>
-      <c r="IG15" s="115"/>
-      <c r="IH15" s="116"/>
-      <c r="II15" s="116"/>
-      <c r="IJ15" s="116"/>
-      <c r="IK15" s="116"/>
-      <c r="IL15" s="116"/>
-      <c r="IM15" s="116"/>
-      <c r="IN15" s="116"/>
-      <c r="IO15" s="116"/>
-      <c r="IP15" s="116"/>
-      <c r="IQ15" s="116"/>
-      <c r="IR15" s="116"/>
-      <c r="IS15" s="115"/>
-      <c r="IT15" s="116"/>
-      <c r="IU15" s="116"/>
-      <c r="IV15" s="116"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="115"/>
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="115"/>
+      <c r="AH15" s="115"/>
+      <c r="AI15" s="115"/>
+      <c r="AJ15" s="115"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="115"/>
+      <c r="AM15" s="115"/>
+      <c r="AN15" s="115"/>
+      <c r="AO15" s="115"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="115"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="115"/>
+      <c r="AV15" s="115"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="115"/>
+      <c r="AY15" s="115"/>
+      <c r="AZ15" s="115"/>
+      <c r="BA15" s="115"/>
+      <c r="BB15" s="115"/>
+      <c r="BC15" s="115"/>
+      <c r="BD15" s="115"/>
+      <c r="BE15" s="115"/>
+      <c r="BF15" s="115"/>
+      <c r="BG15" s="115"/>
+      <c r="BH15" s="115"/>
+      <c r="BI15" s="120"/>
+      <c r="BJ15" s="115"/>
+      <c r="BK15" s="115"/>
+      <c r="BL15" s="115"/>
+      <c r="BM15" s="115"/>
+      <c r="BN15" s="115"/>
+      <c r="BO15" s="115"/>
+      <c r="BP15" s="115"/>
+      <c r="BQ15" s="115"/>
+      <c r="BR15" s="115"/>
+      <c r="BS15" s="115"/>
+      <c r="BT15" s="115"/>
+      <c r="BU15" s="120"/>
+      <c r="BV15" s="115"/>
+      <c r="BW15" s="115"/>
+      <c r="BX15" s="115"/>
+      <c r="BY15" s="115"/>
+      <c r="BZ15" s="115"/>
+      <c r="CA15" s="115"/>
+      <c r="CB15" s="115"/>
+      <c r="CC15" s="115"/>
+      <c r="CD15" s="115"/>
+      <c r="CE15" s="115"/>
+      <c r="CF15" s="115"/>
+      <c r="CG15" s="120"/>
+      <c r="CH15" s="115"/>
+      <c r="CI15" s="115"/>
+      <c r="CJ15" s="115"/>
+      <c r="CK15" s="115"/>
+      <c r="CL15" s="115"/>
+      <c r="CM15" s="115"/>
+      <c r="CN15" s="115"/>
+      <c r="CO15" s="115"/>
+      <c r="CP15" s="115"/>
+      <c r="CQ15" s="115"/>
+      <c r="CR15" s="115"/>
+      <c r="CS15" s="120"/>
+      <c r="CT15" s="115"/>
+      <c r="CU15" s="115"/>
+      <c r="CV15" s="115"/>
+      <c r="CW15" s="115"/>
+      <c r="CX15" s="115"/>
+      <c r="CY15" s="115"/>
+      <c r="CZ15" s="115"/>
+      <c r="DA15" s="115"/>
+      <c r="DB15" s="115"/>
+      <c r="DC15" s="115"/>
+      <c r="DD15" s="115"/>
+      <c r="DE15" s="120"/>
+      <c r="DF15" s="115"/>
+      <c r="DG15" s="115"/>
+      <c r="DH15" s="115"/>
+      <c r="DI15" s="115"/>
+      <c r="DJ15" s="115"/>
+      <c r="DK15" s="115"/>
+      <c r="DL15" s="115"/>
+      <c r="DM15" s="115"/>
+      <c r="DN15" s="115"/>
+      <c r="DO15" s="115"/>
+      <c r="DP15" s="115"/>
+      <c r="DQ15" s="120"/>
+      <c r="DR15" s="115"/>
+      <c r="DS15" s="115"/>
+      <c r="DT15" s="115"/>
+      <c r="DU15" s="115"/>
+      <c r="DV15" s="115"/>
+      <c r="DW15" s="115"/>
+      <c r="DX15" s="115"/>
+      <c r="DY15" s="115"/>
+      <c r="DZ15" s="115"/>
+      <c r="EA15" s="115"/>
+      <c r="EB15" s="115"/>
+      <c r="EC15" s="120"/>
+      <c r="ED15" s="115"/>
+      <c r="EE15" s="115"/>
+      <c r="EF15" s="115"/>
+      <c r="EG15" s="115"/>
+      <c r="EH15" s="115"/>
+      <c r="EI15" s="115"/>
+      <c r="EJ15" s="115"/>
+      <c r="EK15" s="115"/>
+      <c r="EL15" s="115"/>
+      <c r="EM15" s="115"/>
+      <c r="EN15" s="115"/>
+      <c r="EO15" s="120"/>
+      <c r="EP15" s="115"/>
+      <c r="EQ15" s="115"/>
+      <c r="ER15" s="115"/>
+      <c r="ES15" s="115"/>
+      <c r="ET15" s="115"/>
+      <c r="EU15" s="115"/>
+      <c r="EV15" s="115"/>
+      <c r="EW15" s="115"/>
+      <c r="EX15" s="115"/>
+      <c r="EY15" s="115"/>
+      <c r="EZ15" s="115"/>
+      <c r="FA15" s="120"/>
+      <c r="FB15" s="115"/>
+      <c r="FC15" s="115"/>
+      <c r="FD15" s="115"/>
+      <c r="FE15" s="115"/>
+      <c r="FF15" s="115"/>
+      <c r="FG15" s="115"/>
+      <c r="FH15" s="115"/>
+      <c r="FI15" s="115"/>
+      <c r="FJ15" s="115"/>
+      <c r="FK15" s="115"/>
+      <c r="FL15" s="115"/>
+      <c r="FM15" s="120"/>
+      <c r="FN15" s="115"/>
+      <c r="FO15" s="115"/>
+      <c r="FP15" s="115"/>
+      <c r="FQ15" s="115"/>
+      <c r="FR15" s="115"/>
+      <c r="FS15" s="115"/>
+      <c r="FT15" s="115"/>
+      <c r="FU15" s="115"/>
+      <c r="FV15" s="115"/>
+      <c r="FW15" s="115"/>
+      <c r="FX15" s="115"/>
+      <c r="FY15" s="120"/>
+      <c r="FZ15" s="115"/>
+      <c r="GA15" s="115"/>
+      <c r="GB15" s="115"/>
+      <c r="GC15" s="115"/>
+      <c r="GD15" s="115"/>
+      <c r="GE15" s="115"/>
+      <c r="GF15" s="115"/>
+      <c r="GG15" s="115"/>
+      <c r="GH15" s="115"/>
+      <c r="GI15" s="115"/>
+      <c r="GJ15" s="115"/>
+      <c r="GK15" s="120"/>
+      <c r="GL15" s="115"/>
+      <c r="GM15" s="115"/>
+      <c r="GN15" s="115"/>
+      <c r="GO15" s="115"/>
+      <c r="GP15" s="115"/>
+      <c r="GQ15" s="115"/>
+      <c r="GR15" s="115"/>
+      <c r="GS15" s="115"/>
+      <c r="GT15" s="115"/>
+      <c r="GU15" s="115"/>
+      <c r="GV15" s="115"/>
+      <c r="GW15" s="120"/>
+      <c r="GX15" s="115"/>
+      <c r="GY15" s="115"/>
+      <c r="GZ15" s="115"/>
+      <c r="HA15" s="115"/>
+      <c r="HB15" s="115"/>
+      <c r="HC15" s="115"/>
+      <c r="HD15" s="115"/>
+      <c r="HE15" s="115"/>
+      <c r="HF15" s="115"/>
+      <c r="HG15" s="115"/>
+      <c r="HH15" s="115"/>
+      <c r="HI15" s="120"/>
+      <c r="HJ15" s="115"/>
+      <c r="HK15" s="115"/>
+      <c r="HL15" s="115"/>
+      <c r="HM15" s="115"/>
+      <c r="HN15" s="115"/>
+      <c r="HO15" s="115"/>
+      <c r="HP15" s="115"/>
+      <c r="HQ15" s="115"/>
+      <c r="HR15" s="115"/>
+      <c r="HS15" s="115"/>
+      <c r="HT15" s="115"/>
+      <c r="HU15" s="120"/>
+      <c r="HV15" s="115"/>
+      <c r="HW15" s="115"/>
+      <c r="HX15" s="115"/>
+      <c r="HY15" s="115"/>
+      <c r="HZ15" s="115"/>
+      <c r="IA15" s="115"/>
+      <c r="IB15" s="115"/>
+      <c r="IC15" s="115"/>
+      <c r="ID15" s="115"/>
+      <c r="IE15" s="115"/>
+      <c r="IF15" s="115"/>
+      <c r="IG15" s="120"/>
+      <c r="IH15" s="115"/>
+      <c r="II15" s="115"/>
+      <c r="IJ15" s="115"/>
+      <c r="IK15" s="115"/>
+      <c r="IL15" s="115"/>
+      <c r="IM15" s="115"/>
+      <c r="IN15" s="115"/>
+      <c r="IO15" s="115"/>
+      <c r="IP15" s="115"/>
+      <c r="IQ15" s="115"/>
+      <c r="IR15" s="115"/>
+      <c r="IS15" s="120"/>
+      <c r="IT15" s="115"/>
+      <c r="IU15" s="115"/>
+      <c r="IV15" s="115"/>
     </row>
     <row r="16" spans="1:256" s="76" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="115"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="116"/>
-      <c r="AS16" s="116"/>
-      <c r="AT16" s="116"/>
-      <c r="AU16" s="116"/>
-      <c r="AV16" s="116"/>
-      <c r="AW16" s="115"/>
-      <c r="AX16" s="116"/>
-      <c r="AY16" s="116"/>
-      <c r="AZ16" s="116"/>
-      <c r="BA16" s="116"/>
-      <c r="BB16" s="116"/>
-      <c r="BC16" s="116"/>
-      <c r="BD16" s="116"/>
-      <c r="BE16" s="116"/>
-      <c r="BF16" s="116"/>
-      <c r="BG16" s="116"/>
-      <c r="BH16" s="116"/>
-      <c r="BI16" s="115"/>
-      <c r="BJ16" s="116"/>
-      <c r="BK16" s="116"/>
-      <c r="BL16" s="116"/>
-      <c r="BM16" s="116"/>
-      <c r="BN16" s="116"/>
-      <c r="BO16" s="116"/>
-      <c r="BP16" s="116"/>
-      <c r="BQ16" s="116"/>
-      <c r="BR16" s="116"/>
-      <c r="BS16" s="116"/>
-      <c r="BT16" s="116"/>
-      <c r="BU16" s="115"/>
-      <c r="BV16" s="116"/>
-      <c r="BW16" s="116"/>
-      <c r="BX16" s="116"/>
-      <c r="BY16" s="116"/>
-      <c r="BZ16" s="116"/>
-      <c r="CA16" s="116"/>
-      <c r="CB16" s="116"/>
-      <c r="CC16" s="116"/>
-      <c r="CD16" s="116"/>
-      <c r="CE16" s="116"/>
-      <c r="CF16" s="116"/>
-      <c r="CG16" s="115"/>
-      <c r="CH16" s="116"/>
-      <c r="CI16" s="116"/>
-      <c r="CJ16" s="116"/>
-      <c r="CK16" s="116"/>
-      <c r="CL16" s="116"/>
-      <c r="CM16" s="116"/>
-      <c r="CN16" s="116"/>
-      <c r="CO16" s="116"/>
-      <c r="CP16" s="116"/>
-      <c r="CQ16" s="116"/>
-      <c r="CR16" s="116"/>
-      <c r="CS16" s="115"/>
-      <c r="CT16" s="116"/>
-      <c r="CU16" s="116"/>
-      <c r="CV16" s="116"/>
-      <c r="CW16" s="116"/>
-      <c r="CX16" s="116"/>
-      <c r="CY16" s="116"/>
-      <c r="CZ16" s="116"/>
-      <c r="DA16" s="116"/>
-      <c r="DB16" s="116"/>
-      <c r="DC16" s="116"/>
-      <c r="DD16" s="116"/>
-      <c r="DE16" s="115"/>
-      <c r="DF16" s="116"/>
-      <c r="DG16" s="116"/>
-      <c r="DH16" s="116"/>
-      <c r="DI16" s="116"/>
-      <c r="DJ16" s="116"/>
-      <c r="DK16" s="116"/>
-      <c r="DL16" s="116"/>
-      <c r="DM16" s="116"/>
-      <c r="DN16" s="116"/>
-      <c r="DO16" s="116"/>
-      <c r="DP16" s="116"/>
-      <c r="DQ16" s="115"/>
-      <c r="DR16" s="116"/>
-      <c r="DS16" s="116"/>
-      <c r="DT16" s="116"/>
-      <c r="DU16" s="116"/>
-      <c r="DV16" s="116"/>
-      <c r="DW16" s="116"/>
-      <c r="DX16" s="116"/>
-      <c r="DY16" s="116"/>
-      <c r="DZ16" s="116"/>
-      <c r="EA16" s="116"/>
-      <c r="EB16" s="116"/>
-      <c r="EC16" s="115"/>
-      <c r="ED16" s="116"/>
-      <c r="EE16" s="116"/>
-      <c r="EF16" s="116"/>
-      <c r="EG16" s="116"/>
-      <c r="EH16" s="116"/>
-      <c r="EI16" s="116"/>
-      <c r="EJ16" s="116"/>
-      <c r="EK16" s="116"/>
-      <c r="EL16" s="116"/>
-      <c r="EM16" s="116"/>
-      <c r="EN16" s="116"/>
-      <c r="EO16" s="115"/>
-      <c r="EP16" s="116"/>
-      <c r="EQ16" s="116"/>
-      <c r="ER16" s="116"/>
-      <c r="ES16" s="116"/>
-      <c r="ET16" s="116"/>
-      <c r="EU16" s="116"/>
-      <c r="EV16" s="116"/>
-      <c r="EW16" s="116"/>
-      <c r="EX16" s="116"/>
-      <c r="EY16" s="116"/>
-      <c r="EZ16" s="116"/>
-      <c r="FA16" s="115"/>
-      <c r="FB16" s="116"/>
-      <c r="FC16" s="116"/>
-      <c r="FD16" s="116"/>
-      <c r="FE16" s="116"/>
-      <c r="FF16" s="116"/>
-      <c r="FG16" s="116"/>
-      <c r="FH16" s="116"/>
-      <c r="FI16" s="116"/>
-      <c r="FJ16" s="116"/>
-      <c r="FK16" s="116"/>
-      <c r="FL16" s="116"/>
-      <c r="FM16" s="115"/>
-      <c r="FN16" s="116"/>
-      <c r="FO16" s="116"/>
-      <c r="FP16" s="116"/>
-      <c r="FQ16" s="116"/>
-      <c r="FR16" s="116"/>
-      <c r="FS16" s="116"/>
-      <c r="FT16" s="116"/>
-      <c r="FU16" s="116"/>
-      <c r="FV16" s="116"/>
-      <c r="FW16" s="116"/>
-      <c r="FX16" s="116"/>
-      <c r="FY16" s="115"/>
-      <c r="FZ16" s="116"/>
-      <c r="GA16" s="116"/>
-      <c r="GB16" s="116"/>
-      <c r="GC16" s="116"/>
-      <c r="GD16" s="116"/>
-      <c r="GE16" s="116"/>
-      <c r="GF16" s="116"/>
-      <c r="GG16" s="116"/>
-      <c r="GH16" s="116"/>
-      <c r="GI16" s="116"/>
-      <c r="GJ16" s="116"/>
-      <c r="GK16" s="115"/>
-      <c r="GL16" s="116"/>
-      <c r="GM16" s="116"/>
-      <c r="GN16" s="116"/>
-      <c r="GO16" s="116"/>
-      <c r="GP16" s="116"/>
-      <c r="GQ16" s="116"/>
-      <c r="GR16" s="116"/>
-      <c r="GS16" s="116"/>
-      <c r="GT16" s="116"/>
-      <c r="GU16" s="116"/>
-      <c r="GV16" s="116"/>
-      <c r="GW16" s="115"/>
-      <c r="GX16" s="116"/>
-      <c r="GY16" s="116"/>
-      <c r="GZ16" s="116"/>
-      <c r="HA16" s="116"/>
-      <c r="HB16" s="116"/>
-      <c r="HC16" s="116"/>
-      <c r="HD16" s="116"/>
-      <c r="HE16" s="116"/>
-      <c r="HF16" s="116"/>
-      <c r="HG16" s="116"/>
-      <c r="HH16" s="116"/>
-      <c r="HI16" s="115"/>
-      <c r="HJ16" s="116"/>
-      <c r="HK16" s="116"/>
-      <c r="HL16" s="116"/>
-      <c r="HM16" s="116"/>
-      <c r="HN16" s="116"/>
-      <c r="HO16" s="116"/>
-      <c r="HP16" s="116"/>
-      <c r="HQ16" s="116"/>
-      <c r="HR16" s="116"/>
-      <c r="HS16" s="116"/>
-      <c r="HT16" s="116"/>
-      <c r="HU16" s="115"/>
-      <c r="HV16" s="116"/>
-      <c r="HW16" s="116"/>
-      <c r="HX16" s="116"/>
-      <c r="HY16" s="116"/>
-      <c r="HZ16" s="116"/>
-      <c r="IA16" s="116"/>
-      <c r="IB16" s="116"/>
-      <c r="IC16" s="116"/>
-      <c r="ID16" s="116"/>
-      <c r="IE16" s="116"/>
-      <c r="IF16" s="116"/>
-      <c r="IG16" s="115"/>
-      <c r="IH16" s="116"/>
-      <c r="II16" s="116"/>
-      <c r="IJ16" s="116"/>
-      <c r="IK16" s="116"/>
-      <c r="IL16" s="116"/>
-      <c r="IM16" s="116"/>
-      <c r="IN16" s="116"/>
-      <c r="IO16" s="116"/>
-      <c r="IP16" s="116"/>
-      <c r="IQ16" s="116"/>
-      <c r="IR16" s="116"/>
-      <c r="IS16" s="115"/>
-      <c r="IT16" s="116"/>
-      <c r="IU16" s="116"/>
-      <c r="IV16" s="116"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="115"/>
+      <c r="AA16" s="115"/>
+      <c r="AB16" s="115"/>
+      <c r="AC16" s="115"/>
+      <c r="AD16" s="115"/>
+      <c r="AE16" s="115"/>
+      <c r="AF16" s="115"/>
+      <c r="AG16" s="115"/>
+      <c r="AH16" s="115"/>
+      <c r="AI16" s="115"/>
+      <c r="AJ16" s="115"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="115"/>
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="115"/>
+      <c r="AY16" s="115"/>
+      <c r="AZ16" s="115"/>
+      <c r="BA16" s="115"/>
+      <c r="BB16" s="115"/>
+      <c r="BC16" s="115"/>
+      <c r="BD16" s="115"/>
+      <c r="BE16" s="115"/>
+      <c r="BF16" s="115"/>
+      <c r="BG16" s="115"/>
+      <c r="BH16" s="115"/>
+      <c r="BI16" s="120"/>
+      <c r="BJ16" s="115"/>
+      <c r="BK16" s="115"/>
+      <c r="BL16" s="115"/>
+      <c r="BM16" s="115"/>
+      <c r="BN16" s="115"/>
+      <c r="BO16" s="115"/>
+      <c r="BP16" s="115"/>
+      <c r="BQ16" s="115"/>
+      <c r="BR16" s="115"/>
+      <c r="BS16" s="115"/>
+      <c r="BT16" s="115"/>
+      <c r="BU16" s="120"/>
+      <c r="BV16" s="115"/>
+      <c r="BW16" s="115"/>
+      <c r="BX16" s="115"/>
+      <c r="BY16" s="115"/>
+      <c r="BZ16" s="115"/>
+      <c r="CA16" s="115"/>
+      <c r="CB16" s="115"/>
+      <c r="CC16" s="115"/>
+      <c r="CD16" s="115"/>
+      <c r="CE16" s="115"/>
+      <c r="CF16" s="115"/>
+      <c r="CG16" s="120"/>
+      <c r="CH16" s="115"/>
+      <c r="CI16" s="115"/>
+      <c r="CJ16" s="115"/>
+      <c r="CK16" s="115"/>
+      <c r="CL16" s="115"/>
+      <c r="CM16" s="115"/>
+      <c r="CN16" s="115"/>
+      <c r="CO16" s="115"/>
+      <c r="CP16" s="115"/>
+      <c r="CQ16" s="115"/>
+      <c r="CR16" s="115"/>
+      <c r="CS16" s="120"/>
+      <c r="CT16" s="115"/>
+      <c r="CU16" s="115"/>
+      <c r="CV16" s="115"/>
+      <c r="CW16" s="115"/>
+      <c r="CX16" s="115"/>
+      <c r="CY16" s="115"/>
+      <c r="CZ16" s="115"/>
+      <c r="DA16" s="115"/>
+      <c r="DB16" s="115"/>
+      <c r="DC16" s="115"/>
+      <c r="DD16" s="115"/>
+      <c r="DE16" s="120"/>
+      <c r="DF16" s="115"/>
+      <c r="DG16" s="115"/>
+      <c r="DH16" s="115"/>
+      <c r="DI16" s="115"/>
+      <c r="DJ16" s="115"/>
+      <c r="DK16" s="115"/>
+      <c r="DL16" s="115"/>
+      <c r="DM16" s="115"/>
+      <c r="DN16" s="115"/>
+      <c r="DO16" s="115"/>
+      <c r="DP16" s="115"/>
+      <c r="DQ16" s="120"/>
+      <c r="DR16" s="115"/>
+      <c r="DS16" s="115"/>
+      <c r="DT16" s="115"/>
+      <c r="DU16" s="115"/>
+      <c r="DV16" s="115"/>
+      <c r="DW16" s="115"/>
+      <c r="DX16" s="115"/>
+      <c r="DY16" s="115"/>
+      <c r="DZ16" s="115"/>
+      <c r="EA16" s="115"/>
+      <c r="EB16" s="115"/>
+      <c r="EC16" s="120"/>
+      <c r="ED16" s="115"/>
+      <c r="EE16" s="115"/>
+      <c r="EF16" s="115"/>
+      <c r="EG16" s="115"/>
+      <c r="EH16" s="115"/>
+      <c r="EI16" s="115"/>
+      <c r="EJ16" s="115"/>
+      <c r="EK16" s="115"/>
+      <c r="EL16" s="115"/>
+      <c r="EM16" s="115"/>
+      <c r="EN16" s="115"/>
+      <c r="EO16" s="120"/>
+      <c r="EP16" s="115"/>
+      <c r="EQ16" s="115"/>
+      <c r="ER16" s="115"/>
+      <c r="ES16" s="115"/>
+      <c r="ET16" s="115"/>
+      <c r="EU16" s="115"/>
+      <c r="EV16" s="115"/>
+      <c r="EW16" s="115"/>
+      <c r="EX16" s="115"/>
+      <c r="EY16" s="115"/>
+      <c r="EZ16" s="115"/>
+      <c r="FA16" s="120"/>
+      <c r="FB16" s="115"/>
+      <c r="FC16" s="115"/>
+      <c r="FD16" s="115"/>
+      <c r="FE16" s="115"/>
+      <c r="FF16" s="115"/>
+      <c r="FG16" s="115"/>
+      <c r="FH16" s="115"/>
+      <c r="FI16" s="115"/>
+      <c r="FJ16" s="115"/>
+      <c r="FK16" s="115"/>
+      <c r="FL16" s="115"/>
+      <c r="FM16" s="120"/>
+      <c r="FN16" s="115"/>
+      <c r="FO16" s="115"/>
+      <c r="FP16" s="115"/>
+      <c r="FQ16" s="115"/>
+      <c r="FR16" s="115"/>
+      <c r="FS16" s="115"/>
+      <c r="FT16" s="115"/>
+      <c r="FU16" s="115"/>
+      <c r="FV16" s="115"/>
+      <c r="FW16" s="115"/>
+      <c r="FX16" s="115"/>
+      <c r="FY16" s="120"/>
+      <c r="FZ16" s="115"/>
+      <c r="GA16" s="115"/>
+      <c r="GB16" s="115"/>
+      <c r="GC16" s="115"/>
+      <c r="GD16" s="115"/>
+      <c r="GE16" s="115"/>
+      <c r="GF16" s="115"/>
+      <c r="GG16" s="115"/>
+      <c r="GH16" s="115"/>
+      <c r="GI16" s="115"/>
+      <c r="GJ16" s="115"/>
+      <c r="GK16" s="120"/>
+      <c r="GL16" s="115"/>
+      <c r="GM16" s="115"/>
+      <c r="GN16" s="115"/>
+      <c r="GO16" s="115"/>
+      <c r="GP16" s="115"/>
+      <c r="GQ16" s="115"/>
+      <c r="GR16" s="115"/>
+      <c r="GS16" s="115"/>
+      <c r="GT16" s="115"/>
+      <c r="GU16" s="115"/>
+      <c r="GV16" s="115"/>
+      <c r="GW16" s="120"/>
+      <c r="GX16" s="115"/>
+      <c r="GY16" s="115"/>
+      <c r="GZ16" s="115"/>
+      <c r="HA16" s="115"/>
+      <c r="HB16" s="115"/>
+      <c r="HC16" s="115"/>
+      <c r="HD16" s="115"/>
+      <c r="HE16" s="115"/>
+      <c r="HF16" s="115"/>
+      <c r="HG16" s="115"/>
+      <c r="HH16" s="115"/>
+      <c r="HI16" s="120"/>
+      <c r="HJ16" s="115"/>
+      <c r="HK16" s="115"/>
+      <c r="HL16" s="115"/>
+      <c r="HM16" s="115"/>
+      <c r="HN16" s="115"/>
+      <c r="HO16" s="115"/>
+      <c r="HP16" s="115"/>
+      <c r="HQ16" s="115"/>
+      <c r="HR16" s="115"/>
+      <c r="HS16" s="115"/>
+      <c r="HT16" s="115"/>
+      <c r="HU16" s="120"/>
+      <c r="HV16" s="115"/>
+      <c r="HW16" s="115"/>
+      <c r="HX16" s="115"/>
+      <c r="HY16" s="115"/>
+      <c r="HZ16" s="115"/>
+      <c r="IA16" s="115"/>
+      <c r="IB16" s="115"/>
+      <c r="IC16" s="115"/>
+      <c r="ID16" s="115"/>
+      <c r="IE16" s="115"/>
+      <c r="IF16" s="115"/>
+      <c r="IG16" s="120"/>
+      <c r="IH16" s="115"/>
+      <c r="II16" s="115"/>
+      <c r="IJ16" s="115"/>
+      <c r="IK16" s="115"/>
+      <c r="IL16" s="115"/>
+      <c r="IM16" s="115"/>
+      <c r="IN16" s="115"/>
+      <c r="IO16" s="115"/>
+      <c r="IP16" s="115"/>
+      <c r="IQ16" s="115"/>
+      <c r="IR16" s="115"/>
+      <c r="IS16" s="120"/>
+      <c r="IT16" s="115"/>
+      <c r="IU16" s="115"/>
+      <c r="IV16" s="115"/>
     </row>
     <row r="17" spans="1:256" s="76" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="116"/>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="116"/>
-      <c r="AD17" s="116"/>
-      <c r="AE17" s="116"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="116"/>
-      <c r="AJ17" s="116"/>
-      <c r="AK17" s="115"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="116"/>
-      <c r="AN17" s="116"/>
-      <c r="AO17" s="116"/>
-      <c r="AP17" s="116"/>
-      <c r="AQ17" s="116"/>
-      <c r="AR17" s="116"/>
-      <c r="AS17" s="116"/>
-      <c r="AT17" s="116"/>
-      <c r="AU17" s="116"/>
-      <c r="AV17" s="116"/>
-      <c r="AW17" s="115"/>
-      <c r="AX17" s="116"/>
-      <c r="AY17" s="116"/>
-      <c r="AZ17" s="116"/>
-      <c r="BA17" s="116"/>
-      <c r="BB17" s="116"/>
-      <c r="BC17" s="116"/>
-      <c r="BD17" s="116"/>
-      <c r="BE17" s="116"/>
-      <c r="BF17" s="116"/>
-      <c r="BG17" s="116"/>
-      <c r="BH17" s="116"/>
-      <c r="BI17" s="115"/>
-      <c r="BJ17" s="116"/>
-      <c r="BK17" s="116"/>
-      <c r="BL17" s="116"/>
-      <c r="BM17" s="116"/>
-      <c r="BN17" s="116"/>
-      <c r="BO17" s="116"/>
-      <c r="BP17" s="116"/>
-      <c r="BQ17" s="116"/>
-      <c r="BR17" s="116"/>
-      <c r="BS17" s="116"/>
-      <c r="BT17" s="116"/>
-      <c r="BU17" s="115"/>
-      <c r="BV17" s="116"/>
-      <c r="BW17" s="116"/>
-      <c r="BX17" s="116"/>
-      <c r="BY17" s="116"/>
-      <c r="BZ17" s="116"/>
-      <c r="CA17" s="116"/>
-      <c r="CB17" s="116"/>
-      <c r="CC17" s="116"/>
-      <c r="CD17" s="116"/>
-      <c r="CE17" s="116"/>
-      <c r="CF17" s="116"/>
-      <c r="CG17" s="115"/>
-      <c r="CH17" s="116"/>
-      <c r="CI17" s="116"/>
-      <c r="CJ17" s="116"/>
-      <c r="CK17" s="116"/>
-      <c r="CL17" s="116"/>
-      <c r="CM17" s="116"/>
-      <c r="CN17" s="116"/>
-      <c r="CO17" s="116"/>
-      <c r="CP17" s="116"/>
-      <c r="CQ17" s="116"/>
-      <c r="CR17" s="116"/>
-      <c r="CS17" s="115"/>
-      <c r="CT17" s="116"/>
-      <c r="CU17" s="116"/>
-      <c r="CV17" s="116"/>
-      <c r="CW17" s="116"/>
-      <c r="CX17" s="116"/>
-      <c r="CY17" s="116"/>
-      <c r="CZ17" s="116"/>
-      <c r="DA17" s="116"/>
-      <c r="DB17" s="116"/>
-      <c r="DC17" s="116"/>
-      <c r="DD17" s="116"/>
-      <c r="DE17" s="115"/>
-      <c r="DF17" s="116"/>
-      <c r="DG17" s="116"/>
-      <c r="DH17" s="116"/>
-      <c r="DI17" s="116"/>
-      <c r="DJ17" s="116"/>
-      <c r="DK17" s="116"/>
-      <c r="DL17" s="116"/>
-      <c r="DM17" s="116"/>
-      <c r="DN17" s="116"/>
-      <c r="DO17" s="116"/>
-      <c r="DP17" s="116"/>
-      <c r="DQ17" s="115"/>
-      <c r="DR17" s="116"/>
-      <c r="DS17" s="116"/>
-      <c r="DT17" s="116"/>
-      <c r="DU17" s="116"/>
-      <c r="DV17" s="116"/>
-      <c r="DW17" s="116"/>
-      <c r="DX17" s="116"/>
-      <c r="DY17" s="116"/>
-      <c r="DZ17" s="116"/>
-      <c r="EA17" s="116"/>
-      <c r="EB17" s="116"/>
-      <c r="EC17" s="115"/>
-      <c r="ED17" s="116"/>
-      <c r="EE17" s="116"/>
-      <c r="EF17" s="116"/>
-      <c r="EG17" s="116"/>
-      <c r="EH17" s="116"/>
-      <c r="EI17" s="116"/>
-      <c r="EJ17" s="116"/>
-      <c r="EK17" s="116"/>
-      <c r="EL17" s="116"/>
-      <c r="EM17" s="116"/>
-      <c r="EN17" s="116"/>
-      <c r="EO17" s="115"/>
-      <c r="EP17" s="116"/>
-      <c r="EQ17" s="116"/>
-      <c r="ER17" s="116"/>
-      <c r="ES17" s="116"/>
-      <c r="ET17" s="116"/>
-      <c r="EU17" s="116"/>
-      <c r="EV17" s="116"/>
-      <c r="EW17" s="116"/>
-      <c r="EX17" s="116"/>
-      <c r="EY17" s="116"/>
-      <c r="EZ17" s="116"/>
-      <c r="FA17" s="115"/>
-      <c r="FB17" s="116"/>
-      <c r="FC17" s="116"/>
-      <c r="FD17" s="116"/>
-      <c r="FE17" s="116"/>
-      <c r="FF17" s="116"/>
-      <c r="FG17" s="116"/>
-      <c r="FH17" s="116"/>
-      <c r="FI17" s="116"/>
-      <c r="FJ17" s="116"/>
-      <c r="FK17" s="116"/>
-      <c r="FL17" s="116"/>
-      <c r="FM17" s="115"/>
-      <c r="FN17" s="116"/>
-      <c r="FO17" s="116"/>
-      <c r="FP17" s="116"/>
-      <c r="FQ17" s="116"/>
-      <c r="FR17" s="116"/>
-      <c r="FS17" s="116"/>
-      <c r="FT17" s="116"/>
-      <c r="FU17" s="116"/>
-      <c r="FV17" s="116"/>
-      <c r="FW17" s="116"/>
-      <c r="FX17" s="116"/>
-      <c r="FY17" s="115"/>
-      <c r="FZ17" s="116"/>
-      <c r="GA17" s="116"/>
-      <c r="GB17" s="116"/>
-      <c r="GC17" s="116"/>
-      <c r="GD17" s="116"/>
-      <c r="GE17" s="116"/>
-      <c r="GF17" s="116"/>
-      <c r="GG17" s="116"/>
-      <c r="GH17" s="116"/>
-      <c r="GI17" s="116"/>
-      <c r="GJ17" s="116"/>
-      <c r="GK17" s="115"/>
-      <c r="GL17" s="116"/>
-      <c r="GM17" s="116"/>
-      <c r="GN17" s="116"/>
-      <c r="GO17" s="116"/>
-      <c r="GP17" s="116"/>
-      <c r="GQ17" s="116"/>
-      <c r="GR17" s="116"/>
-      <c r="GS17" s="116"/>
-      <c r="GT17" s="116"/>
-      <c r="GU17" s="116"/>
-      <c r="GV17" s="116"/>
-      <c r="GW17" s="115"/>
-      <c r="GX17" s="116"/>
-      <c r="GY17" s="116"/>
-      <c r="GZ17" s="116"/>
-      <c r="HA17" s="116"/>
-      <c r="HB17" s="116"/>
-      <c r="HC17" s="116"/>
-      <c r="HD17" s="116"/>
-      <c r="HE17" s="116"/>
-      <c r="HF17" s="116"/>
-      <c r="HG17" s="116"/>
-      <c r="HH17" s="116"/>
-      <c r="HI17" s="115"/>
-      <c r="HJ17" s="116"/>
-      <c r="HK17" s="116"/>
-      <c r="HL17" s="116"/>
-      <c r="HM17" s="116"/>
-      <c r="HN17" s="116"/>
-      <c r="HO17" s="116"/>
-      <c r="HP17" s="116"/>
-      <c r="HQ17" s="116"/>
-      <c r="HR17" s="116"/>
-      <c r="HS17" s="116"/>
-      <c r="HT17" s="116"/>
-      <c r="HU17" s="115"/>
-      <c r="HV17" s="116"/>
-      <c r="HW17" s="116"/>
-      <c r="HX17" s="116"/>
-      <c r="HY17" s="116"/>
-      <c r="HZ17" s="116"/>
-      <c r="IA17" s="116"/>
-      <c r="IB17" s="116"/>
-      <c r="IC17" s="116"/>
-      <c r="ID17" s="116"/>
-      <c r="IE17" s="116"/>
-      <c r="IF17" s="116"/>
-      <c r="IG17" s="115"/>
-      <c r="IH17" s="116"/>
-      <c r="II17" s="116"/>
-      <c r="IJ17" s="116"/>
-      <c r="IK17" s="116"/>
-      <c r="IL17" s="116"/>
-      <c r="IM17" s="116"/>
-      <c r="IN17" s="116"/>
-      <c r="IO17" s="116"/>
-      <c r="IP17" s="116"/>
-      <c r="IQ17" s="116"/>
-      <c r="IR17" s="116"/>
-      <c r="IS17" s="115"/>
-      <c r="IT17" s="116"/>
-      <c r="IU17" s="116"/>
-      <c r="IV17" s="116"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="115"/>
+      <c r="AB17" s="115"/>
+      <c r="AC17" s="115"/>
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="115"/>
+      <c r="AF17" s="115"/>
+      <c r="AG17" s="115"/>
+      <c r="AH17" s="115"/>
+      <c r="AI17" s="115"/>
+      <c r="AJ17" s="115"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="115"/>
+      <c r="AM17" s="115"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="115"/>
+      <c r="AP17" s="115"/>
+      <c r="AQ17" s="115"/>
+      <c r="AR17" s="115"/>
+      <c r="AS17" s="115"/>
+      <c r="AT17" s="115"/>
+      <c r="AU17" s="115"/>
+      <c r="AV17" s="115"/>
+      <c r="AW17" s="120"/>
+      <c r="AX17" s="115"/>
+      <c r="AY17" s="115"/>
+      <c r="AZ17" s="115"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="115"/>
+      <c r="BC17" s="115"/>
+      <c r="BD17" s="115"/>
+      <c r="BE17" s="115"/>
+      <c r="BF17" s="115"/>
+      <c r="BG17" s="115"/>
+      <c r="BH17" s="115"/>
+      <c r="BI17" s="120"/>
+      <c r="BJ17" s="115"/>
+      <c r="BK17" s="115"/>
+      <c r="BL17" s="115"/>
+      <c r="BM17" s="115"/>
+      <c r="BN17" s="115"/>
+      <c r="BO17" s="115"/>
+      <c r="BP17" s="115"/>
+      <c r="BQ17" s="115"/>
+      <c r="BR17" s="115"/>
+      <c r="BS17" s="115"/>
+      <c r="BT17" s="115"/>
+      <c r="BU17" s="120"/>
+      <c r="BV17" s="115"/>
+      <c r="BW17" s="115"/>
+      <c r="BX17" s="115"/>
+      <c r="BY17" s="115"/>
+      <c r="BZ17" s="115"/>
+      <c r="CA17" s="115"/>
+      <c r="CB17" s="115"/>
+      <c r="CC17" s="115"/>
+      <c r="CD17" s="115"/>
+      <c r="CE17" s="115"/>
+      <c r="CF17" s="115"/>
+      <c r="CG17" s="120"/>
+      <c r="CH17" s="115"/>
+      <c r="CI17" s="115"/>
+      <c r="CJ17" s="115"/>
+      <c r="CK17" s="115"/>
+      <c r="CL17" s="115"/>
+      <c r="CM17" s="115"/>
+      <c r="CN17" s="115"/>
+      <c r="CO17" s="115"/>
+      <c r="CP17" s="115"/>
+      <c r="CQ17" s="115"/>
+      <c r="CR17" s="115"/>
+      <c r="CS17" s="120"/>
+      <c r="CT17" s="115"/>
+      <c r="CU17" s="115"/>
+      <c r="CV17" s="115"/>
+      <c r="CW17" s="115"/>
+      <c r="CX17" s="115"/>
+      <c r="CY17" s="115"/>
+      <c r="CZ17" s="115"/>
+      <c r="DA17" s="115"/>
+      <c r="DB17" s="115"/>
+      <c r="DC17" s="115"/>
+      <c r="DD17" s="115"/>
+      <c r="DE17" s="120"/>
+      <c r="DF17" s="115"/>
+      <c r="DG17" s="115"/>
+      <c r="DH17" s="115"/>
+      <c r="DI17" s="115"/>
+      <c r="DJ17" s="115"/>
+      <c r="DK17" s="115"/>
+      <c r="DL17" s="115"/>
+      <c r="DM17" s="115"/>
+      <c r="DN17" s="115"/>
+      <c r="DO17" s="115"/>
+      <c r="DP17" s="115"/>
+      <c r="DQ17" s="120"/>
+      <c r="DR17" s="115"/>
+      <c r="DS17" s="115"/>
+      <c r="DT17" s="115"/>
+      <c r="DU17" s="115"/>
+      <c r="DV17" s="115"/>
+      <c r="DW17" s="115"/>
+      <c r="DX17" s="115"/>
+      <c r="DY17" s="115"/>
+      <c r="DZ17" s="115"/>
+      <c r="EA17" s="115"/>
+      <c r="EB17" s="115"/>
+      <c r="EC17" s="120"/>
+      <c r="ED17" s="115"/>
+      <c r="EE17" s="115"/>
+      <c r="EF17" s="115"/>
+      <c r="EG17" s="115"/>
+      <c r="EH17" s="115"/>
+      <c r="EI17" s="115"/>
+      <c r="EJ17" s="115"/>
+      <c r="EK17" s="115"/>
+      <c r="EL17" s="115"/>
+      <c r="EM17" s="115"/>
+      <c r="EN17" s="115"/>
+      <c r="EO17" s="120"/>
+      <c r="EP17" s="115"/>
+      <c r="EQ17" s="115"/>
+      <c r="ER17" s="115"/>
+      <c r="ES17" s="115"/>
+      <c r="ET17" s="115"/>
+      <c r="EU17" s="115"/>
+      <c r="EV17" s="115"/>
+      <c r="EW17" s="115"/>
+      <c r="EX17" s="115"/>
+      <c r="EY17" s="115"/>
+      <c r="EZ17" s="115"/>
+      <c r="FA17" s="120"/>
+      <c r="FB17" s="115"/>
+      <c r="FC17" s="115"/>
+      <c r="FD17" s="115"/>
+      <c r="FE17" s="115"/>
+      <c r="FF17" s="115"/>
+      <c r="FG17" s="115"/>
+      <c r="FH17" s="115"/>
+      <c r="FI17" s="115"/>
+      <c r="FJ17" s="115"/>
+      <c r="FK17" s="115"/>
+      <c r="FL17" s="115"/>
+      <c r="FM17" s="120"/>
+      <c r="FN17" s="115"/>
+      <c r="FO17" s="115"/>
+      <c r="FP17" s="115"/>
+      <c r="FQ17" s="115"/>
+      <c r="FR17" s="115"/>
+      <c r="FS17" s="115"/>
+      <c r="FT17" s="115"/>
+      <c r="FU17" s="115"/>
+      <c r="FV17" s="115"/>
+      <c r="FW17" s="115"/>
+      <c r="FX17" s="115"/>
+      <c r="FY17" s="120"/>
+      <c r="FZ17" s="115"/>
+      <c r="GA17" s="115"/>
+      <c r="GB17" s="115"/>
+      <c r="GC17" s="115"/>
+      <c r="GD17" s="115"/>
+      <c r="GE17" s="115"/>
+      <c r="GF17" s="115"/>
+      <c r="GG17" s="115"/>
+      <c r="GH17" s="115"/>
+      <c r="GI17" s="115"/>
+      <c r="GJ17" s="115"/>
+      <c r="GK17" s="120"/>
+      <c r="GL17" s="115"/>
+      <c r="GM17" s="115"/>
+      <c r="GN17" s="115"/>
+      <c r="GO17" s="115"/>
+      <c r="GP17" s="115"/>
+      <c r="GQ17" s="115"/>
+      <c r="GR17" s="115"/>
+      <c r="GS17" s="115"/>
+      <c r="GT17" s="115"/>
+      <c r="GU17" s="115"/>
+      <c r="GV17" s="115"/>
+      <c r="GW17" s="120"/>
+      <c r="GX17" s="115"/>
+      <c r="GY17" s="115"/>
+      <c r="GZ17" s="115"/>
+      <c r="HA17" s="115"/>
+      <c r="HB17" s="115"/>
+      <c r="HC17" s="115"/>
+      <c r="HD17" s="115"/>
+      <c r="HE17" s="115"/>
+      <c r="HF17" s="115"/>
+      <c r="HG17" s="115"/>
+      <c r="HH17" s="115"/>
+      <c r="HI17" s="120"/>
+      <c r="HJ17" s="115"/>
+      <c r="HK17" s="115"/>
+      <c r="HL17" s="115"/>
+      <c r="HM17" s="115"/>
+      <c r="HN17" s="115"/>
+      <c r="HO17" s="115"/>
+      <c r="HP17" s="115"/>
+      <c r="HQ17" s="115"/>
+      <c r="HR17" s="115"/>
+      <c r="HS17" s="115"/>
+      <c r="HT17" s="115"/>
+      <c r="HU17" s="120"/>
+      <c r="HV17" s="115"/>
+      <c r="HW17" s="115"/>
+      <c r="HX17" s="115"/>
+      <c r="HY17" s="115"/>
+      <c r="HZ17" s="115"/>
+      <c r="IA17" s="115"/>
+      <c r="IB17" s="115"/>
+      <c r="IC17" s="115"/>
+      <c r="ID17" s="115"/>
+      <c r="IE17" s="115"/>
+      <c r="IF17" s="115"/>
+      <c r="IG17" s="120"/>
+      <c r="IH17" s="115"/>
+      <c r="II17" s="115"/>
+      <c r="IJ17" s="115"/>
+      <c r="IK17" s="115"/>
+      <c r="IL17" s="115"/>
+      <c r="IM17" s="115"/>
+      <c r="IN17" s="115"/>
+      <c r="IO17" s="115"/>
+      <c r="IP17" s="115"/>
+      <c r="IQ17" s="115"/>
+      <c r="IR17" s="115"/>
+      <c r="IS17" s="120"/>
+      <c r="IT17" s="115"/>
+      <c r="IU17" s="115"/>
+      <c r="IV17" s="115"/>
     </row>
     <row r="18" spans="1:256" s="32" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="19" spans="1:256" s="77" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" spans="1:256" s="77" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="78" t="s">
@@ -7806,28 +7814,28 @@
       </c>
     </row>
     <row r="28" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
     </row>
-    <row r="29" spans="1:256" s="120" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A29" s="120" t="s">
+    <row r="29" spans="1:256" s="122" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A29" s="122" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7929,20 +7937,20 @@
       <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:256" ht="25.5" customHeight="1">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="32"/>
@@ -7966,1321 +7974,1321 @@
       <c r="Q37" s="32"/>
     </row>
     <row r="38" spans="1:256" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="115"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="116"/>
-      <c r="AB38" s="116"/>
-      <c r="AC38" s="116"/>
-      <c r="AD38" s="116"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="116"/>
-      <c r="AI38" s="116"/>
-      <c r="AJ38" s="116"/>
-      <c r="AK38" s="115"/>
-      <c r="AL38" s="116"/>
-      <c r="AM38" s="116"/>
-      <c r="AN38" s="116"/>
-      <c r="AO38" s="116"/>
-      <c r="AP38" s="116"/>
-      <c r="AQ38" s="116"/>
-      <c r="AR38" s="116"/>
-      <c r="AS38" s="116"/>
-      <c r="AT38" s="116"/>
-      <c r="AU38" s="116"/>
-      <c r="AV38" s="116"/>
-      <c r="AW38" s="115"/>
-      <c r="AX38" s="116"/>
-      <c r="AY38" s="116"/>
-      <c r="AZ38" s="116"/>
-      <c r="BA38" s="116"/>
-      <c r="BB38" s="116"/>
-      <c r="BC38" s="116"/>
-      <c r="BD38" s="116"/>
-      <c r="BE38" s="116"/>
-      <c r="BF38" s="116"/>
-      <c r="BG38" s="116"/>
-      <c r="BH38" s="116"/>
-      <c r="BI38" s="115"/>
-      <c r="BJ38" s="116"/>
-      <c r="BK38" s="116"/>
-      <c r="BL38" s="116"/>
-      <c r="BM38" s="116"/>
-      <c r="BN38" s="116"/>
-      <c r="BO38" s="116"/>
-      <c r="BP38" s="116"/>
-      <c r="BQ38" s="116"/>
-      <c r="BR38" s="116"/>
-      <c r="BS38" s="116"/>
-      <c r="BT38" s="116"/>
-      <c r="BU38" s="115"/>
-      <c r="BV38" s="116"/>
-      <c r="BW38" s="116"/>
-      <c r="BX38" s="116"/>
-      <c r="BY38" s="116"/>
-      <c r="BZ38" s="116"/>
-      <c r="CA38" s="116"/>
-      <c r="CB38" s="116"/>
-      <c r="CC38" s="116"/>
-      <c r="CD38" s="116"/>
-      <c r="CE38" s="116"/>
-      <c r="CF38" s="116"/>
-      <c r="CG38" s="115"/>
-      <c r="CH38" s="116"/>
-      <c r="CI38" s="116"/>
-      <c r="CJ38" s="116"/>
-      <c r="CK38" s="116"/>
-      <c r="CL38" s="116"/>
-      <c r="CM38" s="116"/>
-      <c r="CN38" s="116"/>
-      <c r="CO38" s="116"/>
-      <c r="CP38" s="116"/>
-      <c r="CQ38" s="116"/>
-      <c r="CR38" s="116"/>
-      <c r="CS38" s="115"/>
-      <c r="CT38" s="116"/>
-      <c r="CU38" s="116"/>
-      <c r="CV38" s="116"/>
-      <c r="CW38" s="116"/>
-      <c r="CX38" s="116"/>
-      <c r="CY38" s="116"/>
-      <c r="CZ38" s="116"/>
-      <c r="DA38" s="116"/>
-      <c r="DB38" s="116"/>
-      <c r="DC38" s="116"/>
-      <c r="DD38" s="116"/>
-      <c r="DE38" s="115"/>
-      <c r="DF38" s="116"/>
-      <c r="DG38" s="116"/>
-      <c r="DH38" s="116"/>
-      <c r="DI38" s="116"/>
-      <c r="DJ38" s="116"/>
-      <c r="DK38" s="116"/>
-      <c r="DL38" s="116"/>
-      <c r="DM38" s="116"/>
-      <c r="DN38" s="116"/>
-      <c r="DO38" s="116"/>
-      <c r="DP38" s="116"/>
-      <c r="DQ38" s="115"/>
-      <c r="DR38" s="116"/>
-      <c r="DS38" s="116"/>
-      <c r="DT38" s="116"/>
-      <c r="DU38" s="116"/>
-      <c r="DV38" s="116"/>
-      <c r="DW38" s="116"/>
-      <c r="DX38" s="116"/>
-      <c r="DY38" s="116"/>
-      <c r="DZ38" s="116"/>
-      <c r="EA38" s="116"/>
-      <c r="EB38" s="116"/>
-      <c r="EC38" s="115"/>
-      <c r="ED38" s="116"/>
-      <c r="EE38" s="116"/>
-      <c r="EF38" s="116"/>
-      <c r="EG38" s="116"/>
-      <c r="EH38" s="116"/>
-      <c r="EI38" s="116"/>
-      <c r="EJ38" s="116"/>
-      <c r="EK38" s="116"/>
-      <c r="EL38" s="116"/>
-      <c r="EM38" s="116"/>
-      <c r="EN38" s="116"/>
-      <c r="EO38" s="115"/>
-      <c r="EP38" s="116"/>
-      <c r="EQ38" s="116"/>
-      <c r="ER38" s="116"/>
-      <c r="ES38" s="116"/>
-      <c r="ET38" s="116"/>
-      <c r="EU38" s="116"/>
-      <c r="EV38" s="116"/>
-      <c r="EW38" s="116"/>
-      <c r="EX38" s="116"/>
-      <c r="EY38" s="116"/>
-      <c r="EZ38" s="116"/>
-      <c r="FA38" s="115"/>
-      <c r="FB38" s="116"/>
-      <c r="FC38" s="116"/>
-      <c r="FD38" s="116"/>
-      <c r="FE38" s="116"/>
-      <c r="FF38" s="116"/>
-      <c r="FG38" s="116"/>
-      <c r="FH38" s="116"/>
-      <c r="FI38" s="116"/>
-      <c r="FJ38" s="116"/>
-      <c r="FK38" s="116"/>
-      <c r="FL38" s="116"/>
-      <c r="FM38" s="115"/>
-      <c r="FN38" s="116"/>
-      <c r="FO38" s="116"/>
-      <c r="FP38" s="116"/>
-      <c r="FQ38" s="116"/>
-      <c r="FR38" s="116"/>
-      <c r="FS38" s="116"/>
-      <c r="FT38" s="116"/>
-      <c r="FU38" s="116"/>
-      <c r="FV38" s="116"/>
-      <c r="FW38" s="116"/>
-      <c r="FX38" s="116"/>
-      <c r="FY38" s="115"/>
-      <c r="FZ38" s="116"/>
-      <c r="GA38" s="116"/>
-      <c r="GB38" s="116"/>
-      <c r="GC38" s="116"/>
-      <c r="GD38" s="116"/>
-      <c r="GE38" s="116"/>
-      <c r="GF38" s="116"/>
-      <c r="GG38" s="116"/>
-      <c r="GH38" s="116"/>
-      <c r="GI38" s="116"/>
-      <c r="GJ38" s="116"/>
-      <c r="GK38" s="115"/>
-      <c r="GL38" s="116"/>
-      <c r="GM38" s="116"/>
-      <c r="GN38" s="116"/>
-      <c r="GO38" s="116"/>
-      <c r="GP38" s="116"/>
-      <c r="GQ38" s="116"/>
-      <c r="GR38" s="116"/>
-      <c r="GS38" s="116"/>
-      <c r="GT38" s="116"/>
-      <c r="GU38" s="116"/>
-      <c r="GV38" s="116"/>
-      <c r="GW38" s="115"/>
-      <c r="GX38" s="116"/>
-      <c r="GY38" s="116"/>
-      <c r="GZ38" s="116"/>
-      <c r="HA38" s="116"/>
-      <c r="HB38" s="116"/>
-      <c r="HC38" s="116"/>
-      <c r="HD38" s="116"/>
-      <c r="HE38" s="116"/>
-      <c r="HF38" s="116"/>
-      <c r="HG38" s="116"/>
-      <c r="HH38" s="116"/>
-      <c r="HI38" s="115"/>
-      <c r="HJ38" s="116"/>
-      <c r="HK38" s="116"/>
-      <c r="HL38" s="116"/>
-      <c r="HM38" s="116"/>
-      <c r="HN38" s="116"/>
-      <c r="HO38" s="116"/>
-      <c r="HP38" s="116"/>
-      <c r="HQ38" s="116"/>
-      <c r="HR38" s="116"/>
-      <c r="HS38" s="116"/>
-      <c r="HT38" s="116"/>
-      <c r="HU38" s="115"/>
-      <c r="HV38" s="116"/>
-      <c r="HW38" s="116"/>
-      <c r="HX38" s="116"/>
-      <c r="HY38" s="116"/>
-      <c r="HZ38" s="116"/>
-      <c r="IA38" s="116"/>
-      <c r="IB38" s="116"/>
-      <c r="IC38" s="116"/>
-      <c r="ID38" s="116"/>
-      <c r="IE38" s="116"/>
-      <c r="IF38" s="116"/>
-      <c r="IG38" s="115"/>
-      <c r="IH38" s="116"/>
-      <c r="II38" s="116"/>
-      <c r="IJ38" s="116"/>
-      <c r="IK38" s="116"/>
-      <c r="IL38" s="116"/>
-      <c r="IM38" s="116"/>
-      <c r="IN38" s="116"/>
-      <c r="IO38" s="116"/>
-      <c r="IP38" s="116"/>
-      <c r="IQ38" s="116"/>
-      <c r="IR38" s="116"/>
-      <c r="IS38" s="115"/>
-      <c r="IT38" s="116"/>
-      <c r="IU38" s="116"/>
-      <c r="IV38" s="116"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="115"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="115"/>
+      <c r="W38" s="115"/>
+      <c r="X38" s="115"/>
+      <c r="Y38" s="120"/>
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="115"/>
+      <c r="AB38" s="115"/>
+      <c r="AC38" s="115"/>
+      <c r="AD38" s="115"/>
+      <c r="AE38" s="115"/>
+      <c r="AF38" s="115"/>
+      <c r="AG38" s="115"/>
+      <c r="AH38" s="115"/>
+      <c r="AI38" s="115"/>
+      <c r="AJ38" s="115"/>
+      <c r="AK38" s="120"/>
+      <c r="AL38" s="115"/>
+      <c r="AM38" s="115"/>
+      <c r="AN38" s="115"/>
+      <c r="AO38" s="115"/>
+      <c r="AP38" s="115"/>
+      <c r="AQ38" s="115"/>
+      <c r="AR38" s="115"/>
+      <c r="AS38" s="115"/>
+      <c r="AT38" s="115"/>
+      <c r="AU38" s="115"/>
+      <c r="AV38" s="115"/>
+      <c r="AW38" s="120"/>
+      <c r="AX38" s="115"/>
+      <c r="AY38" s="115"/>
+      <c r="AZ38" s="115"/>
+      <c r="BA38" s="115"/>
+      <c r="BB38" s="115"/>
+      <c r="BC38" s="115"/>
+      <c r="BD38" s="115"/>
+      <c r="BE38" s="115"/>
+      <c r="BF38" s="115"/>
+      <c r="BG38" s="115"/>
+      <c r="BH38" s="115"/>
+      <c r="BI38" s="120"/>
+      <c r="BJ38" s="115"/>
+      <c r="BK38" s="115"/>
+      <c r="BL38" s="115"/>
+      <c r="BM38" s="115"/>
+      <c r="BN38" s="115"/>
+      <c r="BO38" s="115"/>
+      <c r="BP38" s="115"/>
+      <c r="BQ38" s="115"/>
+      <c r="BR38" s="115"/>
+      <c r="BS38" s="115"/>
+      <c r="BT38" s="115"/>
+      <c r="BU38" s="120"/>
+      <c r="BV38" s="115"/>
+      <c r="BW38" s="115"/>
+      <c r="BX38" s="115"/>
+      <c r="BY38" s="115"/>
+      <c r="BZ38" s="115"/>
+      <c r="CA38" s="115"/>
+      <c r="CB38" s="115"/>
+      <c r="CC38" s="115"/>
+      <c r="CD38" s="115"/>
+      <c r="CE38" s="115"/>
+      <c r="CF38" s="115"/>
+      <c r="CG38" s="120"/>
+      <c r="CH38" s="115"/>
+      <c r="CI38" s="115"/>
+      <c r="CJ38" s="115"/>
+      <c r="CK38" s="115"/>
+      <c r="CL38" s="115"/>
+      <c r="CM38" s="115"/>
+      <c r="CN38" s="115"/>
+      <c r="CO38" s="115"/>
+      <c r="CP38" s="115"/>
+      <c r="CQ38" s="115"/>
+      <c r="CR38" s="115"/>
+      <c r="CS38" s="120"/>
+      <c r="CT38" s="115"/>
+      <c r="CU38" s="115"/>
+      <c r="CV38" s="115"/>
+      <c r="CW38" s="115"/>
+      <c r="CX38" s="115"/>
+      <c r="CY38" s="115"/>
+      <c r="CZ38" s="115"/>
+      <c r="DA38" s="115"/>
+      <c r="DB38" s="115"/>
+      <c r="DC38" s="115"/>
+      <c r="DD38" s="115"/>
+      <c r="DE38" s="120"/>
+      <c r="DF38" s="115"/>
+      <c r="DG38" s="115"/>
+      <c r="DH38" s="115"/>
+      <c r="DI38" s="115"/>
+      <c r="DJ38" s="115"/>
+      <c r="DK38" s="115"/>
+      <c r="DL38" s="115"/>
+      <c r="DM38" s="115"/>
+      <c r="DN38" s="115"/>
+      <c r="DO38" s="115"/>
+      <c r="DP38" s="115"/>
+      <c r="DQ38" s="120"/>
+      <c r="DR38" s="115"/>
+      <c r="DS38" s="115"/>
+      <c r="DT38" s="115"/>
+      <c r="DU38" s="115"/>
+      <c r="DV38" s="115"/>
+      <c r="DW38" s="115"/>
+      <c r="DX38" s="115"/>
+      <c r="DY38" s="115"/>
+      <c r="DZ38" s="115"/>
+      <c r="EA38" s="115"/>
+      <c r="EB38" s="115"/>
+      <c r="EC38" s="120"/>
+      <c r="ED38" s="115"/>
+      <c r="EE38" s="115"/>
+      <c r="EF38" s="115"/>
+      <c r="EG38" s="115"/>
+      <c r="EH38" s="115"/>
+      <c r="EI38" s="115"/>
+      <c r="EJ38" s="115"/>
+      <c r="EK38" s="115"/>
+      <c r="EL38" s="115"/>
+      <c r="EM38" s="115"/>
+      <c r="EN38" s="115"/>
+      <c r="EO38" s="120"/>
+      <c r="EP38" s="115"/>
+      <c r="EQ38" s="115"/>
+      <c r="ER38" s="115"/>
+      <c r="ES38" s="115"/>
+      <c r="ET38" s="115"/>
+      <c r="EU38" s="115"/>
+      <c r="EV38" s="115"/>
+      <c r="EW38" s="115"/>
+      <c r="EX38" s="115"/>
+      <c r="EY38" s="115"/>
+      <c r="EZ38" s="115"/>
+      <c r="FA38" s="120"/>
+      <c r="FB38" s="115"/>
+      <c r="FC38" s="115"/>
+      <c r="FD38" s="115"/>
+      <c r="FE38" s="115"/>
+      <c r="FF38" s="115"/>
+      <c r="FG38" s="115"/>
+      <c r="FH38" s="115"/>
+      <c r="FI38" s="115"/>
+      <c r="FJ38" s="115"/>
+      <c r="FK38" s="115"/>
+      <c r="FL38" s="115"/>
+      <c r="FM38" s="120"/>
+      <c r="FN38" s="115"/>
+      <c r="FO38" s="115"/>
+      <c r="FP38" s="115"/>
+      <c r="FQ38" s="115"/>
+      <c r="FR38" s="115"/>
+      <c r="FS38" s="115"/>
+      <c r="FT38" s="115"/>
+      <c r="FU38" s="115"/>
+      <c r="FV38" s="115"/>
+      <c r="FW38" s="115"/>
+      <c r="FX38" s="115"/>
+      <c r="FY38" s="120"/>
+      <c r="FZ38" s="115"/>
+      <c r="GA38" s="115"/>
+      <c r="GB38" s="115"/>
+      <c r="GC38" s="115"/>
+      <c r="GD38" s="115"/>
+      <c r="GE38" s="115"/>
+      <c r="GF38" s="115"/>
+      <c r="GG38" s="115"/>
+      <c r="GH38" s="115"/>
+      <c r="GI38" s="115"/>
+      <c r="GJ38" s="115"/>
+      <c r="GK38" s="120"/>
+      <c r="GL38" s="115"/>
+      <c r="GM38" s="115"/>
+      <c r="GN38" s="115"/>
+      <c r="GO38" s="115"/>
+      <c r="GP38" s="115"/>
+      <c r="GQ38" s="115"/>
+      <c r="GR38" s="115"/>
+      <c r="GS38" s="115"/>
+      <c r="GT38" s="115"/>
+      <c r="GU38" s="115"/>
+      <c r="GV38" s="115"/>
+      <c r="GW38" s="120"/>
+      <c r="GX38" s="115"/>
+      <c r="GY38" s="115"/>
+      <c r="GZ38" s="115"/>
+      <c r="HA38" s="115"/>
+      <c r="HB38" s="115"/>
+      <c r="HC38" s="115"/>
+      <c r="HD38" s="115"/>
+      <c r="HE38" s="115"/>
+      <c r="HF38" s="115"/>
+      <c r="HG38" s="115"/>
+      <c r="HH38" s="115"/>
+      <c r="HI38" s="120"/>
+      <c r="HJ38" s="115"/>
+      <c r="HK38" s="115"/>
+      <c r="HL38" s="115"/>
+      <c r="HM38" s="115"/>
+      <c r="HN38" s="115"/>
+      <c r="HO38" s="115"/>
+      <c r="HP38" s="115"/>
+      <c r="HQ38" s="115"/>
+      <c r="HR38" s="115"/>
+      <c r="HS38" s="115"/>
+      <c r="HT38" s="115"/>
+      <c r="HU38" s="120"/>
+      <c r="HV38" s="115"/>
+      <c r="HW38" s="115"/>
+      <c r="HX38" s="115"/>
+      <c r="HY38" s="115"/>
+      <c r="HZ38" s="115"/>
+      <c r="IA38" s="115"/>
+      <c r="IB38" s="115"/>
+      <c r="IC38" s="115"/>
+      <c r="ID38" s="115"/>
+      <c r="IE38" s="115"/>
+      <c r="IF38" s="115"/>
+      <c r="IG38" s="120"/>
+      <c r="IH38" s="115"/>
+      <c r="II38" s="115"/>
+      <c r="IJ38" s="115"/>
+      <c r="IK38" s="115"/>
+      <c r="IL38" s="115"/>
+      <c r="IM38" s="115"/>
+      <c r="IN38" s="115"/>
+      <c r="IO38" s="115"/>
+      <c r="IP38" s="115"/>
+      <c r="IQ38" s="115"/>
+      <c r="IR38" s="115"/>
+      <c r="IS38" s="120"/>
+      <c r="IT38" s="115"/>
+      <c r="IU38" s="115"/>
+      <c r="IV38" s="115"/>
     </row>
     <row r="39" spans="1:256" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="115" t="s">
+      <c r="A39" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="116"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="115"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="116"/>
-      <c r="AB39" s="116"/>
-      <c r="AC39" s="116"/>
-      <c r="AD39" s="116"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="116"/>
-      <c r="AG39" s="116"/>
-      <c r="AH39" s="116"/>
-      <c r="AI39" s="116"/>
-      <c r="AJ39" s="116"/>
-      <c r="AK39" s="115"/>
-      <c r="AL39" s="116"/>
-      <c r="AM39" s="116"/>
-      <c r="AN39" s="116"/>
-      <c r="AO39" s="116"/>
-      <c r="AP39" s="116"/>
-      <c r="AQ39" s="116"/>
-      <c r="AR39" s="116"/>
-      <c r="AS39" s="116"/>
-      <c r="AT39" s="116"/>
-      <c r="AU39" s="116"/>
-      <c r="AV39" s="116"/>
-      <c r="AW39" s="115"/>
-      <c r="AX39" s="116"/>
-      <c r="AY39" s="116"/>
-      <c r="AZ39" s="116"/>
-      <c r="BA39" s="116"/>
-      <c r="BB39" s="116"/>
-      <c r="BC39" s="116"/>
-      <c r="BD39" s="116"/>
-      <c r="BE39" s="116"/>
-      <c r="BF39" s="116"/>
-      <c r="BG39" s="116"/>
-      <c r="BH39" s="116"/>
-      <c r="BI39" s="115"/>
-      <c r="BJ39" s="116"/>
-      <c r="BK39" s="116"/>
-      <c r="BL39" s="116"/>
-      <c r="BM39" s="116"/>
-      <c r="BN39" s="116"/>
-      <c r="BO39" s="116"/>
-      <c r="BP39" s="116"/>
-      <c r="BQ39" s="116"/>
-      <c r="BR39" s="116"/>
-      <c r="BS39" s="116"/>
-      <c r="BT39" s="116"/>
-      <c r="BU39" s="115"/>
-      <c r="BV39" s="116"/>
-      <c r="BW39" s="116"/>
-      <c r="BX39" s="116"/>
-      <c r="BY39" s="116"/>
-      <c r="BZ39" s="116"/>
-      <c r="CA39" s="116"/>
-      <c r="CB39" s="116"/>
-      <c r="CC39" s="116"/>
-      <c r="CD39" s="116"/>
-      <c r="CE39" s="116"/>
-      <c r="CF39" s="116"/>
-      <c r="CG39" s="115"/>
-      <c r="CH39" s="116"/>
-      <c r="CI39" s="116"/>
-      <c r="CJ39" s="116"/>
-      <c r="CK39" s="116"/>
-      <c r="CL39" s="116"/>
-      <c r="CM39" s="116"/>
-      <c r="CN39" s="116"/>
-      <c r="CO39" s="116"/>
-      <c r="CP39" s="116"/>
-      <c r="CQ39" s="116"/>
-      <c r="CR39" s="116"/>
-      <c r="CS39" s="115"/>
-      <c r="CT39" s="116"/>
-      <c r="CU39" s="116"/>
-      <c r="CV39" s="116"/>
-      <c r="CW39" s="116"/>
-      <c r="CX39" s="116"/>
-      <c r="CY39" s="116"/>
-      <c r="CZ39" s="116"/>
-      <c r="DA39" s="116"/>
-      <c r="DB39" s="116"/>
-      <c r="DC39" s="116"/>
-      <c r="DD39" s="116"/>
-      <c r="DE39" s="115"/>
-      <c r="DF39" s="116"/>
-      <c r="DG39" s="116"/>
-      <c r="DH39" s="116"/>
-      <c r="DI39" s="116"/>
-      <c r="DJ39" s="116"/>
-      <c r="DK39" s="116"/>
-      <c r="DL39" s="116"/>
-      <c r="DM39" s="116"/>
-      <c r="DN39" s="116"/>
-      <c r="DO39" s="116"/>
-      <c r="DP39" s="116"/>
-      <c r="DQ39" s="115"/>
-      <c r="DR39" s="116"/>
-      <c r="DS39" s="116"/>
-      <c r="DT39" s="116"/>
-      <c r="DU39" s="116"/>
-      <c r="DV39" s="116"/>
-      <c r="DW39" s="116"/>
-      <c r="DX39" s="116"/>
-      <c r="DY39" s="116"/>
-      <c r="DZ39" s="116"/>
-      <c r="EA39" s="116"/>
-      <c r="EB39" s="116"/>
-      <c r="EC39" s="115"/>
-      <c r="ED39" s="116"/>
-      <c r="EE39" s="116"/>
-      <c r="EF39" s="116"/>
-      <c r="EG39" s="116"/>
-      <c r="EH39" s="116"/>
-      <c r="EI39" s="116"/>
-      <c r="EJ39" s="116"/>
-      <c r="EK39" s="116"/>
-      <c r="EL39" s="116"/>
-      <c r="EM39" s="116"/>
-      <c r="EN39" s="116"/>
-      <c r="EO39" s="115"/>
-      <c r="EP39" s="116"/>
-      <c r="EQ39" s="116"/>
-      <c r="ER39" s="116"/>
-      <c r="ES39" s="116"/>
-      <c r="ET39" s="116"/>
-      <c r="EU39" s="116"/>
-      <c r="EV39" s="116"/>
-      <c r="EW39" s="116"/>
-      <c r="EX39" s="116"/>
-      <c r="EY39" s="116"/>
-      <c r="EZ39" s="116"/>
-      <c r="FA39" s="115"/>
-      <c r="FB39" s="116"/>
-      <c r="FC39" s="116"/>
-      <c r="FD39" s="116"/>
-      <c r="FE39" s="116"/>
-      <c r="FF39" s="116"/>
-      <c r="FG39" s="116"/>
-      <c r="FH39" s="116"/>
-      <c r="FI39" s="116"/>
-      <c r="FJ39" s="116"/>
-      <c r="FK39" s="116"/>
-      <c r="FL39" s="116"/>
-      <c r="FM39" s="115"/>
-      <c r="FN39" s="116"/>
-      <c r="FO39" s="116"/>
-      <c r="FP39" s="116"/>
-      <c r="FQ39" s="116"/>
-      <c r="FR39" s="116"/>
-      <c r="FS39" s="116"/>
-      <c r="FT39" s="116"/>
-      <c r="FU39" s="116"/>
-      <c r="FV39" s="116"/>
-      <c r="FW39" s="116"/>
-      <c r="FX39" s="116"/>
-      <c r="FY39" s="115"/>
-      <c r="FZ39" s="116"/>
-      <c r="GA39" s="116"/>
-      <c r="GB39" s="116"/>
-      <c r="GC39" s="116"/>
-      <c r="GD39" s="116"/>
-      <c r="GE39" s="116"/>
-      <c r="GF39" s="116"/>
-      <c r="GG39" s="116"/>
-      <c r="GH39" s="116"/>
-      <c r="GI39" s="116"/>
-      <c r="GJ39" s="116"/>
-      <c r="GK39" s="115"/>
-      <c r="GL39" s="116"/>
-      <c r="GM39" s="116"/>
-      <c r="GN39" s="116"/>
-      <c r="GO39" s="116"/>
-      <c r="GP39" s="116"/>
-      <c r="GQ39" s="116"/>
-      <c r="GR39" s="116"/>
-      <c r="GS39" s="116"/>
-      <c r="GT39" s="116"/>
-      <c r="GU39" s="116"/>
-      <c r="GV39" s="116"/>
-      <c r="GW39" s="115"/>
-      <c r="GX39" s="116"/>
-      <c r="GY39" s="116"/>
-      <c r="GZ39" s="116"/>
-      <c r="HA39" s="116"/>
-      <c r="HB39" s="116"/>
-      <c r="HC39" s="116"/>
-      <c r="HD39" s="116"/>
-      <c r="HE39" s="116"/>
-      <c r="HF39" s="116"/>
-      <c r="HG39" s="116"/>
-      <c r="HH39" s="116"/>
-      <c r="HI39" s="115"/>
-      <c r="HJ39" s="116"/>
-      <c r="HK39" s="116"/>
-      <c r="HL39" s="116"/>
-      <c r="HM39" s="116"/>
-      <c r="HN39" s="116"/>
-      <c r="HO39" s="116"/>
-      <c r="HP39" s="116"/>
-      <c r="HQ39" s="116"/>
-      <c r="HR39" s="116"/>
-      <c r="HS39" s="116"/>
-      <c r="HT39" s="116"/>
-      <c r="HU39" s="115"/>
-      <c r="HV39" s="116"/>
-      <c r="HW39" s="116"/>
-      <c r="HX39" s="116"/>
-      <c r="HY39" s="116"/>
-      <c r="HZ39" s="116"/>
-      <c r="IA39" s="116"/>
-      <c r="IB39" s="116"/>
-      <c r="IC39" s="116"/>
-      <c r="ID39" s="116"/>
-      <c r="IE39" s="116"/>
-      <c r="IF39" s="116"/>
-      <c r="IG39" s="115"/>
-      <c r="IH39" s="116"/>
-      <c r="II39" s="116"/>
-      <c r="IJ39" s="116"/>
-      <c r="IK39" s="116"/>
-      <c r="IL39" s="116"/>
-      <c r="IM39" s="116"/>
-      <c r="IN39" s="116"/>
-      <c r="IO39" s="116"/>
-      <c r="IP39" s="116"/>
-      <c r="IQ39" s="116"/>
-      <c r="IR39" s="116"/>
-      <c r="IS39" s="115"/>
-      <c r="IT39" s="116"/>
-      <c r="IU39" s="116"/>
-      <c r="IV39" s="116"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
+      <c r="R39" s="115"/>
+      <c r="S39" s="115"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="115"/>
+      <c r="W39" s="115"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="120"/>
+      <c r="Z39" s="115"/>
+      <c r="AA39" s="115"/>
+      <c r="AB39" s="115"/>
+      <c r="AC39" s="115"/>
+      <c r="AD39" s="115"/>
+      <c r="AE39" s="115"/>
+      <c r="AF39" s="115"/>
+      <c r="AG39" s="115"/>
+      <c r="AH39" s="115"/>
+      <c r="AI39" s="115"/>
+      <c r="AJ39" s="115"/>
+      <c r="AK39" s="120"/>
+      <c r="AL39" s="115"/>
+      <c r="AM39" s="115"/>
+      <c r="AN39" s="115"/>
+      <c r="AO39" s="115"/>
+      <c r="AP39" s="115"/>
+      <c r="AQ39" s="115"/>
+      <c r="AR39" s="115"/>
+      <c r="AS39" s="115"/>
+      <c r="AT39" s="115"/>
+      <c r="AU39" s="115"/>
+      <c r="AV39" s="115"/>
+      <c r="AW39" s="120"/>
+      <c r="AX39" s="115"/>
+      <c r="AY39" s="115"/>
+      <c r="AZ39" s="115"/>
+      <c r="BA39" s="115"/>
+      <c r="BB39" s="115"/>
+      <c r="BC39" s="115"/>
+      <c r="BD39" s="115"/>
+      <c r="BE39" s="115"/>
+      <c r="BF39" s="115"/>
+      <c r="BG39" s="115"/>
+      <c r="BH39" s="115"/>
+      <c r="BI39" s="120"/>
+      <c r="BJ39" s="115"/>
+      <c r="BK39" s="115"/>
+      <c r="BL39" s="115"/>
+      <c r="BM39" s="115"/>
+      <c r="BN39" s="115"/>
+      <c r="BO39" s="115"/>
+      <c r="BP39" s="115"/>
+      <c r="BQ39" s="115"/>
+      <c r="BR39" s="115"/>
+      <c r="BS39" s="115"/>
+      <c r="BT39" s="115"/>
+      <c r="BU39" s="120"/>
+      <c r="BV39" s="115"/>
+      <c r="BW39" s="115"/>
+      <c r="BX39" s="115"/>
+      <c r="BY39" s="115"/>
+      <c r="BZ39" s="115"/>
+      <c r="CA39" s="115"/>
+      <c r="CB39" s="115"/>
+      <c r="CC39" s="115"/>
+      <c r="CD39" s="115"/>
+      <c r="CE39" s="115"/>
+      <c r="CF39" s="115"/>
+      <c r="CG39" s="120"/>
+      <c r="CH39" s="115"/>
+      <c r="CI39" s="115"/>
+      <c r="CJ39" s="115"/>
+      <c r="CK39" s="115"/>
+      <c r="CL39" s="115"/>
+      <c r="CM39" s="115"/>
+      <c r="CN39" s="115"/>
+      <c r="CO39" s="115"/>
+      <c r="CP39" s="115"/>
+      <c r="CQ39" s="115"/>
+      <c r="CR39" s="115"/>
+      <c r="CS39" s="120"/>
+      <c r="CT39" s="115"/>
+      <c r="CU39" s="115"/>
+      <c r="CV39" s="115"/>
+      <c r="CW39" s="115"/>
+      <c r="CX39" s="115"/>
+      <c r="CY39" s="115"/>
+      <c r="CZ39" s="115"/>
+      <c r="DA39" s="115"/>
+      <c r="DB39" s="115"/>
+      <c r="DC39" s="115"/>
+      <c r="DD39" s="115"/>
+      <c r="DE39" s="120"/>
+      <c r="DF39" s="115"/>
+      <c r="DG39" s="115"/>
+      <c r="DH39" s="115"/>
+      <c r="DI39" s="115"/>
+      <c r="DJ39" s="115"/>
+      <c r="DK39" s="115"/>
+      <c r="DL39" s="115"/>
+      <c r="DM39" s="115"/>
+      <c r="DN39" s="115"/>
+      <c r="DO39" s="115"/>
+      <c r="DP39" s="115"/>
+      <c r="DQ39" s="120"/>
+      <c r="DR39" s="115"/>
+      <c r="DS39" s="115"/>
+      <c r="DT39" s="115"/>
+      <c r="DU39" s="115"/>
+      <c r="DV39" s="115"/>
+      <c r="DW39" s="115"/>
+      <c r="DX39" s="115"/>
+      <c r="DY39" s="115"/>
+      <c r="DZ39" s="115"/>
+      <c r="EA39" s="115"/>
+      <c r="EB39" s="115"/>
+      <c r="EC39" s="120"/>
+      <c r="ED39" s="115"/>
+      <c r="EE39" s="115"/>
+      <c r="EF39" s="115"/>
+      <c r="EG39" s="115"/>
+      <c r="EH39" s="115"/>
+      <c r="EI39" s="115"/>
+      <c r="EJ39" s="115"/>
+      <c r="EK39" s="115"/>
+      <c r="EL39" s="115"/>
+      <c r="EM39" s="115"/>
+      <c r="EN39" s="115"/>
+      <c r="EO39" s="120"/>
+      <c r="EP39" s="115"/>
+      <c r="EQ39" s="115"/>
+      <c r="ER39" s="115"/>
+      <c r="ES39" s="115"/>
+      <c r="ET39" s="115"/>
+      <c r="EU39" s="115"/>
+      <c r="EV39" s="115"/>
+      <c r="EW39" s="115"/>
+      <c r="EX39" s="115"/>
+      <c r="EY39" s="115"/>
+      <c r="EZ39" s="115"/>
+      <c r="FA39" s="120"/>
+      <c r="FB39" s="115"/>
+      <c r="FC39" s="115"/>
+      <c r="FD39" s="115"/>
+      <c r="FE39" s="115"/>
+      <c r="FF39" s="115"/>
+      <c r="FG39" s="115"/>
+      <c r="FH39" s="115"/>
+      <c r="FI39" s="115"/>
+      <c r="FJ39" s="115"/>
+      <c r="FK39" s="115"/>
+      <c r="FL39" s="115"/>
+      <c r="FM39" s="120"/>
+      <c r="FN39" s="115"/>
+      <c r="FO39" s="115"/>
+      <c r="FP39" s="115"/>
+      <c r="FQ39" s="115"/>
+      <c r="FR39" s="115"/>
+      <c r="FS39" s="115"/>
+      <c r="FT39" s="115"/>
+      <c r="FU39" s="115"/>
+      <c r="FV39" s="115"/>
+      <c r="FW39" s="115"/>
+      <c r="FX39" s="115"/>
+      <c r="FY39" s="120"/>
+      <c r="FZ39" s="115"/>
+      <c r="GA39" s="115"/>
+      <c r="GB39" s="115"/>
+      <c r="GC39" s="115"/>
+      <c r="GD39" s="115"/>
+      <c r="GE39" s="115"/>
+      <c r="GF39" s="115"/>
+      <c r="GG39" s="115"/>
+      <c r="GH39" s="115"/>
+      <c r="GI39" s="115"/>
+      <c r="GJ39" s="115"/>
+      <c r="GK39" s="120"/>
+      <c r="GL39" s="115"/>
+      <c r="GM39" s="115"/>
+      <c r="GN39" s="115"/>
+      <c r="GO39" s="115"/>
+      <c r="GP39" s="115"/>
+      <c r="GQ39" s="115"/>
+      <c r="GR39" s="115"/>
+      <c r="GS39" s="115"/>
+      <c r="GT39" s="115"/>
+      <c r="GU39" s="115"/>
+      <c r="GV39" s="115"/>
+      <c r="GW39" s="120"/>
+      <c r="GX39" s="115"/>
+      <c r="GY39" s="115"/>
+      <c r="GZ39" s="115"/>
+      <c r="HA39" s="115"/>
+      <c r="HB39" s="115"/>
+      <c r="HC39" s="115"/>
+      <c r="HD39" s="115"/>
+      <c r="HE39" s="115"/>
+      <c r="HF39" s="115"/>
+      <c r="HG39" s="115"/>
+      <c r="HH39" s="115"/>
+      <c r="HI39" s="120"/>
+      <c r="HJ39" s="115"/>
+      <c r="HK39" s="115"/>
+      <c r="HL39" s="115"/>
+      <c r="HM39" s="115"/>
+      <c r="HN39" s="115"/>
+      <c r="HO39" s="115"/>
+      <c r="HP39" s="115"/>
+      <c r="HQ39" s="115"/>
+      <c r="HR39" s="115"/>
+      <c r="HS39" s="115"/>
+      <c r="HT39" s="115"/>
+      <c r="HU39" s="120"/>
+      <c r="HV39" s="115"/>
+      <c r="HW39" s="115"/>
+      <c r="HX39" s="115"/>
+      <c r="HY39" s="115"/>
+      <c r="HZ39" s="115"/>
+      <c r="IA39" s="115"/>
+      <c r="IB39" s="115"/>
+      <c r="IC39" s="115"/>
+      <c r="ID39" s="115"/>
+      <c r="IE39" s="115"/>
+      <c r="IF39" s="115"/>
+      <c r="IG39" s="120"/>
+      <c r="IH39" s="115"/>
+      <c r="II39" s="115"/>
+      <c r="IJ39" s="115"/>
+      <c r="IK39" s="115"/>
+      <c r="IL39" s="115"/>
+      <c r="IM39" s="115"/>
+      <c r="IN39" s="115"/>
+      <c r="IO39" s="115"/>
+      <c r="IP39" s="115"/>
+      <c r="IQ39" s="115"/>
+      <c r="IR39" s="115"/>
+      <c r="IS39" s="120"/>
+      <c r="IT39" s="115"/>
+      <c r="IU39" s="115"/>
+      <c r="IV39" s="115"/>
     </row>
     <row r="40" spans="1:256" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="116"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="116"/>
-      <c r="AD40" s="116"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="116"/>
-      <c r="AG40" s="116"/>
-      <c r="AH40" s="116"/>
-      <c r="AI40" s="116"/>
-      <c r="AJ40" s="116"/>
-      <c r="AK40" s="115"/>
-      <c r="AL40" s="116"/>
-      <c r="AM40" s="116"/>
-      <c r="AN40" s="116"/>
-      <c r="AO40" s="116"/>
-      <c r="AP40" s="116"/>
-      <c r="AQ40" s="116"/>
-      <c r="AR40" s="116"/>
-      <c r="AS40" s="116"/>
-      <c r="AT40" s="116"/>
-      <c r="AU40" s="116"/>
-      <c r="AV40" s="116"/>
-      <c r="AW40" s="115"/>
-      <c r="AX40" s="116"/>
-      <c r="AY40" s="116"/>
-      <c r="AZ40" s="116"/>
-      <c r="BA40" s="116"/>
-      <c r="BB40" s="116"/>
-      <c r="BC40" s="116"/>
-      <c r="BD40" s="116"/>
-      <c r="BE40" s="116"/>
-      <c r="BF40" s="116"/>
-      <c r="BG40" s="116"/>
-      <c r="BH40" s="116"/>
-      <c r="BI40" s="115"/>
-      <c r="BJ40" s="116"/>
-      <c r="BK40" s="116"/>
-      <c r="BL40" s="116"/>
-      <c r="BM40" s="116"/>
-      <c r="BN40" s="116"/>
-      <c r="BO40" s="116"/>
-      <c r="BP40" s="116"/>
-      <c r="BQ40" s="116"/>
-      <c r="BR40" s="116"/>
-      <c r="BS40" s="116"/>
-      <c r="BT40" s="116"/>
-      <c r="BU40" s="115"/>
-      <c r="BV40" s="116"/>
-      <c r="BW40" s="116"/>
-      <c r="BX40" s="116"/>
-      <c r="BY40" s="116"/>
-      <c r="BZ40" s="116"/>
-      <c r="CA40" s="116"/>
-      <c r="CB40" s="116"/>
-      <c r="CC40" s="116"/>
-      <c r="CD40" s="116"/>
-      <c r="CE40" s="116"/>
-      <c r="CF40" s="116"/>
-      <c r="CG40" s="115"/>
-      <c r="CH40" s="116"/>
-      <c r="CI40" s="116"/>
-      <c r="CJ40" s="116"/>
-      <c r="CK40" s="116"/>
-      <c r="CL40" s="116"/>
-      <c r="CM40" s="116"/>
-      <c r="CN40" s="116"/>
-      <c r="CO40" s="116"/>
-      <c r="CP40" s="116"/>
-      <c r="CQ40" s="116"/>
-      <c r="CR40" s="116"/>
-      <c r="CS40" s="115"/>
-      <c r="CT40" s="116"/>
-      <c r="CU40" s="116"/>
-      <c r="CV40" s="116"/>
-      <c r="CW40" s="116"/>
-      <c r="CX40" s="116"/>
-      <c r="CY40" s="116"/>
-      <c r="CZ40" s="116"/>
-      <c r="DA40" s="116"/>
-      <c r="DB40" s="116"/>
-      <c r="DC40" s="116"/>
-      <c r="DD40" s="116"/>
-      <c r="DE40" s="115"/>
-      <c r="DF40" s="116"/>
-      <c r="DG40" s="116"/>
-      <c r="DH40" s="116"/>
-      <c r="DI40" s="116"/>
-      <c r="DJ40" s="116"/>
-      <c r="DK40" s="116"/>
-      <c r="DL40" s="116"/>
-      <c r="DM40" s="116"/>
-      <c r="DN40" s="116"/>
-      <c r="DO40" s="116"/>
-      <c r="DP40" s="116"/>
-      <c r="DQ40" s="115"/>
-      <c r="DR40" s="116"/>
-      <c r="DS40" s="116"/>
-      <c r="DT40" s="116"/>
-      <c r="DU40" s="116"/>
-      <c r="DV40" s="116"/>
-      <c r="DW40" s="116"/>
-      <c r="DX40" s="116"/>
-      <c r="DY40" s="116"/>
-      <c r="DZ40" s="116"/>
-      <c r="EA40" s="116"/>
-      <c r="EB40" s="116"/>
-      <c r="EC40" s="115"/>
-      <c r="ED40" s="116"/>
-      <c r="EE40" s="116"/>
-      <c r="EF40" s="116"/>
-      <c r="EG40" s="116"/>
-      <c r="EH40" s="116"/>
-      <c r="EI40" s="116"/>
-      <c r="EJ40" s="116"/>
-      <c r="EK40" s="116"/>
-      <c r="EL40" s="116"/>
-      <c r="EM40" s="116"/>
-      <c r="EN40" s="116"/>
-      <c r="EO40" s="115"/>
-      <c r="EP40" s="116"/>
-      <c r="EQ40" s="116"/>
-      <c r="ER40" s="116"/>
-      <c r="ES40" s="116"/>
-      <c r="ET40" s="116"/>
-      <c r="EU40" s="116"/>
-      <c r="EV40" s="116"/>
-      <c r="EW40" s="116"/>
-      <c r="EX40" s="116"/>
-      <c r="EY40" s="116"/>
-      <c r="EZ40" s="116"/>
-      <c r="FA40" s="115"/>
-      <c r="FB40" s="116"/>
-      <c r="FC40" s="116"/>
-      <c r="FD40" s="116"/>
-      <c r="FE40" s="116"/>
-      <c r="FF40" s="116"/>
-      <c r="FG40" s="116"/>
-      <c r="FH40" s="116"/>
-      <c r="FI40" s="116"/>
-      <c r="FJ40" s="116"/>
-      <c r="FK40" s="116"/>
-      <c r="FL40" s="116"/>
-      <c r="FM40" s="115"/>
-      <c r="FN40" s="116"/>
-      <c r="FO40" s="116"/>
-      <c r="FP40" s="116"/>
-      <c r="FQ40" s="116"/>
-      <c r="FR40" s="116"/>
-      <c r="FS40" s="116"/>
-      <c r="FT40" s="116"/>
-      <c r="FU40" s="116"/>
-      <c r="FV40" s="116"/>
-      <c r="FW40" s="116"/>
-      <c r="FX40" s="116"/>
-      <c r="FY40" s="115"/>
-      <c r="FZ40" s="116"/>
-      <c r="GA40" s="116"/>
-      <c r="GB40" s="116"/>
-      <c r="GC40" s="116"/>
-      <c r="GD40" s="116"/>
-      <c r="GE40" s="116"/>
-      <c r="GF40" s="116"/>
-      <c r="GG40" s="116"/>
-      <c r="GH40" s="116"/>
-      <c r="GI40" s="116"/>
-      <c r="GJ40" s="116"/>
-      <c r="GK40" s="115"/>
-      <c r="GL40" s="116"/>
-      <c r="GM40" s="116"/>
-      <c r="GN40" s="116"/>
-      <c r="GO40" s="116"/>
-      <c r="GP40" s="116"/>
-      <c r="GQ40" s="116"/>
-      <c r="GR40" s="116"/>
-      <c r="GS40" s="116"/>
-      <c r="GT40" s="116"/>
-      <c r="GU40" s="116"/>
-      <c r="GV40" s="116"/>
-      <c r="GW40" s="115"/>
-      <c r="GX40" s="116"/>
-      <c r="GY40" s="116"/>
-      <c r="GZ40" s="116"/>
-      <c r="HA40" s="116"/>
-      <c r="HB40" s="116"/>
-      <c r="HC40" s="116"/>
-      <c r="HD40" s="116"/>
-      <c r="HE40" s="116"/>
-      <c r="HF40" s="116"/>
-      <c r="HG40" s="116"/>
-      <c r="HH40" s="116"/>
-      <c r="HI40" s="115"/>
-      <c r="HJ40" s="116"/>
-      <c r="HK40" s="116"/>
-      <c r="HL40" s="116"/>
-      <c r="HM40" s="116"/>
-      <c r="HN40" s="116"/>
-      <c r="HO40" s="116"/>
-      <c r="HP40" s="116"/>
-      <c r="HQ40" s="116"/>
-      <c r="HR40" s="116"/>
-      <c r="HS40" s="116"/>
-      <c r="HT40" s="116"/>
-      <c r="HU40" s="115"/>
-      <c r="HV40" s="116"/>
-      <c r="HW40" s="116"/>
-      <c r="HX40" s="116"/>
-      <c r="HY40" s="116"/>
-      <c r="HZ40" s="116"/>
-      <c r="IA40" s="116"/>
-      <c r="IB40" s="116"/>
-      <c r="IC40" s="116"/>
-      <c r="ID40" s="116"/>
-      <c r="IE40" s="116"/>
-      <c r="IF40" s="116"/>
-      <c r="IG40" s="115"/>
-      <c r="IH40" s="116"/>
-      <c r="II40" s="116"/>
-      <c r="IJ40" s="116"/>
-      <c r="IK40" s="116"/>
-      <c r="IL40" s="116"/>
-      <c r="IM40" s="116"/>
-      <c r="IN40" s="116"/>
-      <c r="IO40" s="116"/>
-      <c r="IP40" s="116"/>
-      <c r="IQ40" s="116"/>
-      <c r="IR40" s="116"/>
-      <c r="IS40" s="115"/>
-      <c r="IT40" s="116"/>
-      <c r="IU40" s="116"/>
-      <c r="IV40" s="116"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="115"/>
+      <c r="T40" s="115"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="115"/>
+      <c r="W40" s="115"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="115"/>
+      <c r="AB40" s="115"/>
+      <c r="AC40" s="115"/>
+      <c r="AD40" s="115"/>
+      <c r="AE40" s="115"/>
+      <c r="AF40" s="115"/>
+      <c r="AG40" s="115"/>
+      <c r="AH40" s="115"/>
+      <c r="AI40" s="115"/>
+      <c r="AJ40" s="115"/>
+      <c r="AK40" s="120"/>
+      <c r="AL40" s="115"/>
+      <c r="AM40" s="115"/>
+      <c r="AN40" s="115"/>
+      <c r="AO40" s="115"/>
+      <c r="AP40" s="115"/>
+      <c r="AQ40" s="115"/>
+      <c r="AR40" s="115"/>
+      <c r="AS40" s="115"/>
+      <c r="AT40" s="115"/>
+      <c r="AU40" s="115"/>
+      <c r="AV40" s="115"/>
+      <c r="AW40" s="120"/>
+      <c r="AX40" s="115"/>
+      <c r="AY40" s="115"/>
+      <c r="AZ40" s="115"/>
+      <c r="BA40" s="115"/>
+      <c r="BB40" s="115"/>
+      <c r="BC40" s="115"/>
+      <c r="BD40" s="115"/>
+      <c r="BE40" s="115"/>
+      <c r="BF40" s="115"/>
+      <c r="BG40" s="115"/>
+      <c r="BH40" s="115"/>
+      <c r="BI40" s="120"/>
+      <c r="BJ40" s="115"/>
+      <c r="BK40" s="115"/>
+      <c r="BL40" s="115"/>
+      <c r="BM40" s="115"/>
+      <c r="BN40" s="115"/>
+      <c r="BO40" s="115"/>
+      <c r="BP40" s="115"/>
+      <c r="BQ40" s="115"/>
+      <c r="BR40" s="115"/>
+      <c r="BS40" s="115"/>
+      <c r="BT40" s="115"/>
+      <c r="BU40" s="120"/>
+      <c r="BV40" s="115"/>
+      <c r="BW40" s="115"/>
+      <c r="BX40" s="115"/>
+      <c r="BY40" s="115"/>
+      <c r="BZ40" s="115"/>
+      <c r="CA40" s="115"/>
+      <c r="CB40" s="115"/>
+      <c r="CC40" s="115"/>
+      <c r="CD40" s="115"/>
+      <c r="CE40" s="115"/>
+      <c r="CF40" s="115"/>
+      <c r="CG40" s="120"/>
+      <c r="CH40" s="115"/>
+      <c r="CI40" s="115"/>
+      <c r="CJ40" s="115"/>
+      <c r="CK40" s="115"/>
+      <c r="CL40" s="115"/>
+      <c r="CM40" s="115"/>
+      <c r="CN40" s="115"/>
+      <c r="CO40" s="115"/>
+      <c r="CP40" s="115"/>
+      <c r="CQ40" s="115"/>
+      <c r="CR40" s="115"/>
+      <c r="CS40" s="120"/>
+      <c r="CT40" s="115"/>
+      <c r="CU40" s="115"/>
+      <c r="CV40" s="115"/>
+      <c r="CW40" s="115"/>
+      <c r="CX40" s="115"/>
+      <c r="CY40" s="115"/>
+      <c r="CZ40" s="115"/>
+      <c r="DA40" s="115"/>
+      <c r="DB40" s="115"/>
+      <c r="DC40" s="115"/>
+      <c r="DD40" s="115"/>
+      <c r="DE40" s="120"/>
+      <c r="DF40" s="115"/>
+      <c r="DG40" s="115"/>
+      <c r="DH40" s="115"/>
+      <c r="DI40" s="115"/>
+      <c r="DJ40" s="115"/>
+      <c r="DK40" s="115"/>
+      <c r="DL40" s="115"/>
+      <c r="DM40" s="115"/>
+      <c r="DN40" s="115"/>
+      <c r="DO40" s="115"/>
+      <c r="DP40" s="115"/>
+      <c r="DQ40" s="120"/>
+      <c r="DR40" s="115"/>
+      <c r="DS40" s="115"/>
+      <c r="DT40" s="115"/>
+      <c r="DU40" s="115"/>
+      <c r="DV40" s="115"/>
+      <c r="DW40" s="115"/>
+      <c r="DX40" s="115"/>
+      <c r="DY40" s="115"/>
+      <c r="DZ40" s="115"/>
+      <c r="EA40" s="115"/>
+      <c r="EB40" s="115"/>
+      <c r="EC40" s="120"/>
+      <c r="ED40" s="115"/>
+      <c r="EE40" s="115"/>
+      <c r="EF40" s="115"/>
+      <c r="EG40" s="115"/>
+      <c r="EH40" s="115"/>
+      <c r="EI40" s="115"/>
+      <c r="EJ40" s="115"/>
+      <c r="EK40" s="115"/>
+      <c r="EL40" s="115"/>
+      <c r="EM40" s="115"/>
+      <c r="EN40" s="115"/>
+      <c r="EO40" s="120"/>
+      <c r="EP40" s="115"/>
+      <c r="EQ40" s="115"/>
+      <c r="ER40" s="115"/>
+      <c r="ES40" s="115"/>
+      <c r="ET40" s="115"/>
+      <c r="EU40" s="115"/>
+      <c r="EV40" s="115"/>
+      <c r="EW40" s="115"/>
+      <c r="EX40" s="115"/>
+      <c r="EY40" s="115"/>
+      <c r="EZ40" s="115"/>
+      <c r="FA40" s="120"/>
+      <c r="FB40" s="115"/>
+      <c r="FC40" s="115"/>
+      <c r="FD40" s="115"/>
+      <c r="FE40" s="115"/>
+      <c r="FF40" s="115"/>
+      <c r="FG40" s="115"/>
+      <c r="FH40" s="115"/>
+      <c r="FI40" s="115"/>
+      <c r="FJ40" s="115"/>
+      <c r="FK40" s="115"/>
+      <c r="FL40" s="115"/>
+      <c r="FM40" s="120"/>
+      <c r="FN40" s="115"/>
+      <c r="FO40" s="115"/>
+      <c r="FP40" s="115"/>
+      <c r="FQ40" s="115"/>
+      <c r="FR40" s="115"/>
+      <c r="FS40" s="115"/>
+      <c r="FT40" s="115"/>
+      <c r="FU40" s="115"/>
+      <c r="FV40" s="115"/>
+      <c r="FW40" s="115"/>
+      <c r="FX40" s="115"/>
+      <c r="FY40" s="120"/>
+      <c r="FZ40" s="115"/>
+      <c r="GA40" s="115"/>
+      <c r="GB40" s="115"/>
+      <c r="GC40" s="115"/>
+      <c r="GD40" s="115"/>
+      <c r="GE40" s="115"/>
+      <c r="GF40" s="115"/>
+      <c r="GG40" s="115"/>
+      <c r="GH40" s="115"/>
+      <c r="GI40" s="115"/>
+      <c r="GJ40" s="115"/>
+      <c r="GK40" s="120"/>
+      <c r="GL40" s="115"/>
+      <c r="GM40" s="115"/>
+      <c r="GN40" s="115"/>
+      <c r="GO40" s="115"/>
+      <c r="GP40" s="115"/>
+      <c r="GQ40" s="115"/>
+      <c r="GR40" s="115"/>
+      <c r="GS40" s="115"/>
+      <c r="GT40" s="115"/>
+      <c r="GU40" s="115"/>
+      <c r="GV40" s="115"/>
+      <c r="GW40" s="120"/>
+      <c r="GX40" s="115"/>
+      <c r="GY40" s="115"/>
+      <c r="GZ40" s="115"/>
+      <c r="HA40" s="115"/>
+      <c r="HB40" s="115"/>
+      <c r="HC40" s="115"/>
+      <c r="HD40" s="115"/>
+      <c r="HE40" s="115"/>
+      <c r="HF40" s="115"/>
+      <c r="HG40" s="115"/>
+      <c r="HH40" s="115"/>
+      <c r="HI40" s="120"/>
+      <c r="HJ40" s="115"/>
+      <c r="HK40" s="115"/>
+      <c r="HL40" s="115"/>
+      <c r="HM40" s="115"/>
+      <c r="HN40" s="115"/>
+      <c r="HO40" s="115"/>
+      <c r="HP40" s="115"/>
+      <c r="HQ40" s="115"/>
+      <c r="HR40" s="115"/>
+      <c r="HS40" s="115"/>
+      <c r="HT40" s="115"/>
+      <c r="HU40" s="120"/>
+      <c r="HV40" s="115"/>
+      <c r="HW40" s="115"/>
+      <c r="HX40" s="115"/>
+      <c r="HY40" s="115"/>
+      <c r="HZ40" s="115"/>
+      <c r="IA40" s="115"/>
+      <c r="IB40" s="115"/>
+      <c r="IC40" s="115"/>
+      <c r="ID40" s="115"/>
+      <c r="IE40" s="115"/>
+      <c r="IF40" s="115"/>
+      <c r="IG40" s="120"/>
+      <c r="IH40" s="115"/>
+      <c r="II40" s="115"/>
+      <c r="IJ40" s="115"/>
+      <c r="IK40" s="115"/>
+      <c r="IL40" s="115"/>
+      <c r="IM40" s="115"/>
+      <c r="IN40" s="115"/>
+      <c r="IO40" s="115"/>
+      <c r="IP40" s="115"/>
+      <c r="IQ40" s="115"/>
+      <c r="IR40" s="115"/>
+      <c r="IS40" s="120"/>
+      <c r="IT40" s="115"/>
+      <c r="IU40" s="115"/>
+      <c r="IV40" s="115"/>
     </row>
     <row r="41" spans="1:256" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="115"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="115"/>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="116"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="116"/>
-      <c r="AD41" s="116"/>
-      <c r="AE41" s="116"/>
-      <c r="AF41" s="116"/>
-      <c r="AG41" s="116"/>
-      <c r="AH41" s="116"/>
-      <c r="AI41" s="116"/>
-      <c r="AJ41" s="116"/>
-      <c r="AK41" s="115"/>
-      <c r="AL41" s="116"/>
-      <c r="AM41" s="116"/>
-      <c r="AN41" s="116"/>
-      <c r="AO41" s="116"/>
-      <c r="AP41" s="116"/>
-      <c r="AQ41" s="116"/>
-      <c r="AR41" s="116"/>
-      <c r="AS41" s="116"/>
-      <c r="AT41" s="116"/>
-      <c r="AU41" s="116"/>
-      <c r="AV41" s="116"/>
-      <c r="AW41" s="115"/>
-      <c r="AX41" s="116"/>
-      <c r="AY41" s="116"/>
-      <c r="AZ41" s="116"/>
-      <c r="BA41" s="116"/>
-      <c r="BB41" s="116"/>
-      <c r="BC41" s="116"/>
-      <c r="BD41" s="116"/>
-      <c r="BE41" s="116"/>
-      <c r="BF41" s="116"/>
-      <c r="BG41" s="116"/>
-      <c r="BH41" s="116"/>
-      <c r="BI41" s="115"/>
-      <c r="BJ41" s="116"/>
-      <c r="BK41" s="116"/>
-      <c r="BL41" s="116"/>
-      <c r="BM41" s="116"/>
-      <c r="BN41" s="116"/>
-      <c r="BO41" s="116"/>
-      <c r="BP41" s="116"/>
-      <c r="BQ41" s="116"/>
-      <c r="BR41" s="116"/>
-      <c r="BS41" s="116"/>
-      <c r="BT41" s="116"/>
-      <c r="BU41" s="115"/>
-      <c r="BV41" s="116"/>
-      <c r="BW41" s="116"/>
-      <c r="BX41" s="116"/>
-      <c r="BY41" s="116"/>
-      <c r="BZ41" s="116"/>
-      <c r="CA41" s="116"/>
-      <c r="CB41" s="116"/>
-      <c r="CC41" s="116"/>
-      <c r="CD41" s="116"/>
-      <c r="CE41" s="116"/>
-      <c r="CF41" s="116"/>
-      <c r="CG41" s="115"/>
-      <c r="CH41" s="116"/>
-      <c r="CI41" s="116"/>
-      <c r="CJ41" s="116"/>
-      <c r="CK41" s="116"/>
-      <c r="CL41" s="116"/>
-      <c r="CM41" s="116"/>
-      <c r="CN41" s="116"/>
-      <c r="CO41" s="116"/>
-      <c r="CP41" s="116"/>
-      <c r="CQ41" s="116"/>
-      <c r="CR41" s="116"/>
-      <c r="CS41" s="115"/>
-      <c r="CT41" s="116"/>
-      <c r="CU41" s="116"/>
-      <c r="CV41" s="116"/>
-      <c r="CW41" s="116"/>
-      <c r="CX41" s="116"/>
-      <c r="CY41" s="116"/>
-      <c r="CZ41" s="116"/>
-      <c r="DA41" s="116"/>
-      <c r="DB41" s="116"/>
-      <c r="DC41" s="116"/>
-      <c r="DD41" s="116"/>
-      <c r="DE41" s="115"/>
-      <c r="DF41" s="116"/>
-      <c r="DG41" s="116"/>
-      <c r="DH41" s="116"/>
-      <c r="DI41" s="116"/>
-      <c r="DJ41" s="116"/>
-      <c r="DK41" s="116"/>
-      <c r="DL41" s="116"/>
-      <c r="DM41" s="116"/>
-      <c r="DN41" s="116"/>
-      <c r="DO41" s="116"/>
-      <c r="DP41" s="116"/>
-      <c r="DQ41" s="115"/>
-      <c r="DR41" s="116"/>
-      <c r="DS41" s="116"/>
-      <c r="DT41" s="116"/>
-      <c r="DU41" s="116"/>
-      <c r="DV41" s="116"/>
-      <c r="DW41" s="116"/>
-      <c r="DX41" s="116"/>
-      <c r="DY41" s="116"/>
-      <c r="DZ41" s="116"/>
-      <c r="EA41" s="116"/>
-      <c r="EB41" s="116"/>
-      <c r="EC41" s="115"/>
-      <c r="ED41" s="116"/>
-      <c r="EE41" s="116"/>
-      <c r="EF41" s="116"/>
-      <c r="EG41" s="116"/>
-      <c r="EH41" s="116"/>
-      <c r="EI41" s="116"/>
-      <c r="EJ41" s="116"/>
-      <c r="EK41" s="116"/>
-      <c r="EL41" s="116"/>
-      <c r="EM41" s="116"/>
-      <c r="EN41" s="116"/>
-      <c r="EO41" s="115"/>
-      <c r="EP41" s="116"/>
-      <c r="EQ41" s="116"/>
-      <c r="ER41" s="116"/>
-      <c r="ES41" s="116"/>
-      <c r="ET41" s="116"/>
-      <c r="EU41" s="116"/>
-      <c r="EV41" s="116"/>
-      <c r="EW41" s="116"/>
-      <c r="EX41" s="116"/>
-      <c r="EY41" s="116"/>
-      <c r="EZ41" s="116"/>
-      <c r="FA41" s="115"/>
-      <c r="FB41" s="116"/>
-      <c r="FC41" s="116"/>
-      <c r="FD41" s="116"/>
-      <c r="FE41" s="116"/>
-      <c r="FF41" s="116"/>
-      <c r="FG41" s="116"/>
-      <c r="FH41" s="116"/>
-      <c r="FI41" s="116"/>
-      <c r="FJ41" s="116"/>
-      <c r="FK41" s="116"/>
-      <c r="FL41" s="116"/>
-      <c r="FM41" s="115"/>
-      <c r="FN41" s="116"/>
-      <c r="FO41" s="116"/>
-      <c r="FP41" s="116"/>
-      <c r="FQ41" s="116"/>
-      <c r="FR41" s="116"/>
-      <c r="FS41" s="116"/>
-      <c r="FT41" s="116"/>
-      <c r="FU41" s="116"/>
-      <c r="FV41" s="116"/>
-      <c r="FW41" s="116"/>
-      <c r="FX41" s="116"/>
-      <c r="FY41" s="115"/>
-      <c r="FZ41" s="116"/>
-      <c r="GA41" s="116"/>
-      <c r="GB41" s="116"/>
-      <c r="GC41" s="116"/>
-      <c r="GD41" s="116"/>
-      <c r="GE41" s="116"/>
-      <c r="GF41" s="116"/>
-      <c r="GG41" s="116"/>
-      <c r="GH41" s="116"/>
-      <c r="GI41" s="116"/>
-      <c r="GJ41" s="116"/>
-      <c r="GK41" s="115"/>
-      <c r="GL41" s="116"/>
-      <c r="GM41" s="116"/>
-      <c r="GN41" s="116"/>
-      <c r="GO41" s="116"/>
-      <c r="GP41" s="116"/>
-      <c r="GQ41" s="116"/>
-      <c r="GR41" s="116"/>
-      <c r="GS41" s="116"/>
-      <c r="GT41" s="116"/>
-      <c r="GU41" s="116"/>
-      <c r="GV41" s="116"/>
-      <c r="GW41" s="115"/>
-      <c r="GX41" s="116"/>
-      <c r="GY41" s="116"/>
-      <c r="GZ41" s="116"/>
-      <c r="HA41" s="116"/>
-      <c r="HB41" s="116"/>
-      <c r="HC41" s="116"/>
-      <c r="HD41" s="116"/>
-      <c r="HE41" s="116"/>
-      <c r="HF41" s="116"/>
-      <c r="HG41" s="116"/>
-      <c r="HH41" s="116"/>
-      <c r="HI41" s="115"/>
-      <c r="HJ41" s="116"/>
-      <c r="HK41" s="116"/>
-      <c r="HL41" s="116"/>
-      <c r="HM41" s="116"/>
-      <c r="HN41" s="116"/>
-      <c r="HO41" s="116"/>
-      <c r="HP41" s="116"/>
-      <c r="HQ41" s="116"/>
-      <c r="HR41" s="116"/>
-      <c r="HS41" s="116"/>
-      <c r="HT41" s="116"/>
-      <c r="HU41" s="115"/>
-      <c r="HV41" s="116"/>
-      <c r="HW41" s="116"/>
-      <c r="HX41" s="116"/>
-      <c r="HY41" s="116"/>
-      <c r="HZ41" s="116"/>
-      <c r="IA41" s="116"/>
-      <c r="IB41" s="116"/>
-      <c r="IC41" s="116"/>
-      <c r="ID41" s="116"/>
-      <c r="IE41" s="116"/>
-      <c r="IF41" s="116"/>
-      <c r="IG41" s="115"/>
-      <c r="IH41" s="116"/>
-      <c r="II41" s="116"/>
-      <c r="IJ41" s="116"/>
-      <c r="IK41" s="116"/>
-      <c r="IL41" s="116"/>
-      <c r="IM41" s="116"/>
-      <c r="IN41" s="116"/>
-      <c r="IO41" s="116"/>
-      <c r="IP41" s="116"/>
-      <c r="IQ41" s="116"/>
-      <c r="IR41" s="116"/>
-      <c r="IS41" s="115"/>
-      <c r="IT41" s="116"/>
-      <c r="IU41" s="116"/>
-      <c r="IV41" s="116"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="115"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="115"/>
+      <c r="Q41" s="115"/>
+      <c r="R41" s="115"/>
+      <c r="S41" s="115"/>
+      <c r="T41" s="115"/>
+      <c r="U41" s="115"/>
+      <c r="V41" s="115"/>
+      <c r="W41" s="115"/>
+      <c r="X41" s="115"/>
+      <c r="Y41" s="120"/>
+      <c r="Z41" s="115"/>
+      <c r="AA41" s="115"/>
+      <c r="AB41" s="115"/>
+      <c r="AC41" s="115"/>
+      <c r="AD41" s="115"/>
+      <c r="AE41" s="115"/>
+      <c r="AF41" s="115"/>
+      <c r="AG41" s="115"/>
+      <c r="AH41" s="115"/>
+      <c r="AI41" s="115"/>
+      <c r="AJ41" s="115"/>
+      <c r="AK41" s="120"/>
+      <c r="AL41" s="115"/>
+      <c r="AM41" s="115"/>
+      <c r="AN41" s="115"/>
+      <c r="AO41" s="115"/>
+      <c r="AP41" s="115"/>
+      <c r="AQ41" s="115"/>
+      <c r="AR41" s="115"/>
+      <c r="AS41" s="115"/>
+      <c r="AT41" s="115"/>
+      <c r="AU41" s="115"/>
+      <c r="AV41" s="115"/>
+      <c r="AW41" s="120"/>
+      <c r="AX41" s="115"/>
+      <c r="AY41" s="115"/>
+      <c r="AZ41" s="115"/>
+      <c r="BA41" s="115"/>
+      <c r="BB41" s="115"/>
+      <c r="BC41" s="115"/>
+      <c r="BD41" s="115"/>
+      <c r="BE41" s="115"/>
+      <c r="BF41" s="115"/>
+      <c r="BG41" s="115"/>
+      <c r="BH41" s="115"/>
+      <c r="BI41" s="120"/>
+      <c r="BJ41" s="115"/>
+      <c r="BK41" s="115"/>
+      <c r="BL41" s="115"/>
+      <c r="BM41" s="115"/>
+      <c r="BN41" s="115"/>
+      <c r="BO41" s="115"/>
+      <c r="BP41" s="115"/>
+      <c r="BQ41" s="115"/>
+      <c r="BR41" s="115"/>
+      <c r="BS41" s="115"/>
+      <c r="BT41" s="115"/>
+      <c r="BU41" s="120"/>
+      <c r="BV41" s="115"/>
+      <c r="BW41" s="115"/>
+      <c r="BX41" s="115"/>
+      <c r="BY41" s="115"/>
+      <c r="BZ41" s="115"/>
+      <c r="CA41" s="115"/>
+      <c r="CB41" s="115"/>
+      <c r="CC41" s="115"/>
+      <c r="CD41" s="115"/>
+      <c r="CE41" s="115"/>
+      <c r="CF41" s="115"/>
+      <c r="CG41" s="120"/>
+      <c r="CH41" s="115"/>
+      <c r="CI41" s="115"/>
+      <c r="CJ41" s="115"/>
+      <c r="CK41" s="115"/>
+      <c r="CL41" s="115"/>
+      <c r="CM41" s="115"/>
+      <c r="CN41" s="115"/>
+      <c r="CO41" s="115"/>
+      <c r="CP41" s="115"/>
+      <c r="CQ41" s="115"/>
+      <c r="CR41" s="115"/>
+      <c r="CS41" s="120"/>
+      <c r="CT41" s="115"/>
+      <c r="CU41" s="115"/>
+      <c r="CV41" s="115"/>
+      <c r="CW41" s="115"/>
+      <c r="CX41" s="115"/>
+      <c r="CY41" s="115"/>
+      <c r="CZ41" s="115"/>
+      <c r="DA41" s="115"/>
+      <c r="DB41" s="115"/>
+      <c r="DC41" s="115"/>
+      <c r="DD41" s="115"/>
+      <c r="DE41" s="120"/>
+      <c r="DF41" s="115"/>
+      <c r="DG41" s="115"/>
+      <c r="DH41" s="115"/>
+      <c r="DI41" s="115"/>
+      <c r="DJ41" s="115"/>
+      <c r="DK41" s="115"/>
+      <c r="DL41" s="115"/>
+      <c r="DM41" s="115"/>
+      <c r="DN41" s="115"/>
+      <c r="DO41" s="115"/>
+      <c r="DP41" s="115"/>
+      <c r="DQ41" s="120"/>
+      <c r="DR41" s="115"/>
+      <c r="DS41" s="115"/>
+      <c r="DT41" s="115"/>
+      <c r="DU41" s="115"/>
+      <c r="DV41" s="115"/>
+      <c r="DW41" s="115"/>
+      <c r="DX41" s="115"/>
+      <c r="DY41" s="115"/>
+      <c r="DZ41" s="115"/>
+      <c r="EA41" s="115"/>
+      <c r="EB41" s="115"/>
+      <c r="EC41" s="120"/>
+      <c r="ED41" s="115"/>
+      <c r="EE41" s="115"/>
+      <c r="EF41" s="115"/>
+      <c r="EG41" s="115"/>
+      <c r="EH41" s="115"/>
+      <c r="EI41" s="115"/>
+      <c r="EJ41" s="115"/>
+      <c r="EK41" s="115"/>
+      <c r="EL41" s="115"/>
+      <c r="EM41" s="115"/>
+      <c r="EN41" s="115"/>
+      <c r="EO41" s="120"/>
+      <c r="EP41" s="115"/>
+      <c r="EQ41" s="115"/>
+      <c r="ER41" s="115"/>
+      <c r="ES41" s="115"/>
+      <c r="ET41" s="115"/>
+      <c r="EU41" s="115"/>
+      <c r="EV41" s="115"/>
+      <c r="EW41" s="115"/>
+      <c r="EX41" s="115"/>
+      <c r="EY41" s="115"/>
+      <c r="EZ41" s="115"/>
+      <c r="FA41" s="120"/>
+      <c r="FB41" s="115"/>
+      <c r="FC41" s="115"/>
+      <c r="FD41" s="115"/>
+      <c r="FE41" s="115"/>
+      <c r="FF41" s="115"/>
+      <c r="FG41" s="115"/>
+      <c r="FH41" s="115"/>
+      <c r="FI41" s="115"/>
+      <c r="FJ41" s="115"/>
+      <c r="FK41" s="115"/>
+      <c r="FL41" s="115"/>
+      <c r="FM41" s="120"/>
+      <c r="FN41" s="115"/>
+      <c r="FO41" s="115"/>
+      <c r="FP41" s="115"/>
+      <c r="FQ41" s="115"/>
+      <c r="FR41" s="115"/>
+      <c r="FS41" s="115"/>
+      <c r="FT41" s="115"/>
+      <c r="FU41" s="115"/>
+      <c r="FV41" s="115"/>
+      <c r="FW41" s="115"/>
+      <c r="FX41" s="115"/>
+      <c r="FY41" s="120"/>
+      <c r="FZ41" s="115"/>
+      <c r="GA41" s="115"/>
+      <c r="GB41" s="115"/>
+      <c r="GC41" s="115"/>
+      <c r="GD41" s="115"/>
+      <c r="GE41" s="115"/>
+      <c r="GF41" s="115"/>
+      <c r="GG41" s="115"/>
+      <c r="GH41" s="115"/>
+      <c r="GI41" s="115"/>
+      <c r="GJ41" s="115"/>
+      <c r="GK41" s="120"/>
+      <c r="GL41" s="115"/>
+      <c r="GM41" s="115"/>
+      <c r="GN41" s="115"/>
+      <c r="GO41" s="115"/>
+      <c r="GP41" s="115"/>
+      <c r="GQ41" s="115"/>
+      <c r="GR41" s="115"/>
+      <c r="GS41" s="115"/>
+      <c r="GT41" s="115"/>
+      <c r="GU41" s="115"/>
+      <c r="GV41" s="115"/>
+      <c r="GW41" s="120"/>
+      <c r="GX41" s="115"/>
+      <c r="GY41" s="115"/>
+      <c r="GZ41" s="115"/>
+      <c r="HA41" s="115"/>
+      <c r="HB41" s="115"/>
+      <c r="HC41" s="115"/>
+      <c r="HD41" s="115"/>
+      <c r="HE41" s="115"/>
+      <c r="HF41" s="115"/>
+      <c r="HG41" s="115"/>
+      <c r="HH41" s="115"/>
+      <c r="HI41" s="120"/>
+      <c r="HJ41" s="115"/>
+      <c r="HK41" s="115"/>
+      <c r="HL41" s="115"/>
+      <c r="HM41" s="115"/>
+      <c r="HN41" s="115"/>
+      <c r="HO41" s="115"/>
+      <c r="HP41" s="115"/>
+      <c r="HQ41" s="115"/>
+      <c r="HR41" s="115"/>
+      <c r="HS41" s="115"/>
+      <c r="HT41" s="115"/>
+      <c r="HU41" s="120"/>
+      <c r="HV41" s="115"/>
+      <c r="HW41" s="115"/>
+      <c r="HX41" s="115"/>
+      <c r="HY41" s="115"/>
+      <c r="HZ41" s="115"/>
+      <c r="IA41" s="115"/>
+      <c r="IB41" s="115"/>
+      <c r="IC41" s="115"/>
+      <c r="ID41" s="115"/>
+      <c r="IE41" s="115"/>
+      <c r="IF41" s="115"/>
+      <c r="IG41" s="120"/>
+      <c r="IH41" s="115"/>
+      <c r="II41" s="115"/>
+      <c r="IJ41" s="115"/>
+      <c r="IK41" s="115"/>
+      <c r="IL41" s="115"/>
+      <c r="IM41" s="115"/>
+      <c r="IN41" s="115"/>
+      <c r="IO41" s="115"/>
+      <c r="IP41" s="115"/>
+      <c r="IQ41" s="115"/>
+      <c r="IR41" s="115"/>
+      <c r="IS41" s="120"/>
+      <c r="IT41" s="115"/>
+      <c r="IU41" s="115"/>
+      <c r="IV41" s="115"/>
     </row>
     <row r="42" spans="1:256" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="115"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="116"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="116"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="116"/>
-      <c r="AH42" s="116"/>
-      <c r="AI42" s="116"/>
-      <c r="AJ42" s="116"/>
-      <c r="AK42" s="115"/>
-      <c r="AL42" s="116"/>
-      <c r="AM42" s="116"/>
-      <c r="AN42" s="116"/>
-      <c r="AO42" s="116"/>
-      <c r="AP42" s="116"/>
-      <c r="AQ42" s="116"/>
-      <c r="AR42" s="116"/>
-      <c r="AS42" s="116"/>
-      <c r="AT42" s="116"/>
-      <c r="AU42" s="116"/>
-      <c r="AV42" s="116"/>
-      <c r="AW42" s="115"/>
-      <c r="AX42" s="116"/>
-      <c r="AY42" s="116"/>
-      <c r="AZ42" s="116"/>
-      <c r="BA42" s="116"/>
-      <c r="BB42" s="116"/>
-      <c r="BC42" s="116"/>
-      <c r="BD42" s="116"/>
-      <c r="BE42" s="116"/>
-      <c r="BF42" s="116"/>
-      <c r="BG42" s="116"/>
-      <c r="BH42" s="116"/>
-      <c r="BI42" s="115"/>
-      <c r="BJ42" s="116"/>
-      <c r="BK42" s="116"/>
-      <c r="BL42" s="116"/>
-      <c r="BM42" s="116"/>
-      <c r="BN42" s="116"/>
-      <c r="BO42" s="116"/>
-      <c r="BP42" s="116"/>
-      <c r="BQ42" s="116"/>
-      <c r="BR42" s="116"/>
-      <c r="BS42" s="116"/>
-      <c r="BT42" s="116"/>
-      <c r="BU42" s="115"/>
-      <c r="BV42" s="116"/>
-      <c r="BW42" s="116"/>
-      <c r="BX42" s="116"/>
-      <c r="BY42" s="116"/>
-      <c r="BZ42" s="116"/>
-      <c r="CA42" s="116"/>
-      <c r="CB42" s="116"/>
-      <c r="CC42" s="116"/>
-      <c r="CD42" s="116"/>
-      <c r="CE42" s="116"/>
-      <c r="CF42" s="116"/>
-      <c r="CG42" s="115"/>
-      <c r="CH42" s="116"/>
-      <c r="CI42" s="116"/>
-      <c r="CJ42" s="116"/>
-      <c r="CK42" s="116"/>
-      <c r="CL42" s="116"/>
-      <c r="CM42" s="116"/>
-      <c r="CN42" s="116"/>
-      <c r="CO42" s="116"/>
-      <c r="CP42" s="116"/>
-      <c r="CQ42" s="116"/>
-      <c r="CR42" s="116"/>
-      <c r="CS42" s="115"/>
-      <c r="CT42" s="116"/>
-      <c r="CU42" s="116"/>
-      <c r="CV42" s="116"/>
-      <c r="CW42" s="116"/>
-      <c r="CX42" s="116"/>
-      <c r="CY42" s="116"/>
-      <c r="CZ42" s="116"/>
-      <c r="DA42" s="116"/>
-      <c r="DB42" s="116"/>
-      <c r="DC42" s="116"/>
-      <c r="DD42" s="116"/>
-      <c r="DE42" s="115"/>
-      <c r="DF42" s="116"/>
-      <c r="DG42" s="116"/>
-      <c r="DH42" s="116"/>
-      <c r="DI42" s="116"/>
-      <c r="DJ42" s="116"/>
-      <c r="DK42" s="116"/>
-      <c r="DL42" s="116"/>
-      <c r="DM42" s="116"/>
-      <c r="DN42" s="116"/>
-      <c r="DO42" s="116"/>
-      <c r="DP42" s="116"/>
-      <c r="DQ42" s="115"/>
-      <c r="DR42" s="116"/>
-      <c r="DS42" s="116"/>
-      <c r="DT42" s="116"/>
-      <c r="DU42" s="116"/>
-      <c r="DV42" s="116"/>
-      <c r="DW42" s="116"/>
-      <c r="DX42" s="116"/>
-      <c r="DY42" s="116"/>
-      <c r="DZ42" s="116"/>
-      <c r="EA42" s="116"/>
-      <c r="EB42" s="116"/>
-      <c r="EC42" s="115"/>
-      <c r="ED42" s="116"/>
-      <c r="EE42" s="116"/>
-      <c r="EF42" s="116"/>
-      <c r="EG42" s="116"/>
-      <c r="EH42" s="116"/>
-      <c r="EI42" s="116"/>
-      <c r="EJ42" s="116"/>
-      <c r="EK42" s="116"/>
-      <c r="EL42" s="116"/>
-      <c r="EM42" s="116"/>
-      <c r="EN42" s="116"/>
-      <c r="EO42" s="115"/>
-      <c r="EP42" s="116"/>
-      <c r="EQ42" s="116"/>
-      <c r="ER42" s="116"/>
-      <c r="ES42" s="116"/>
-      <c r="ET42" s="116"/>
-      <c r="EU42" s="116"/>
-      <c r="EV42" s="116"/>
-      <c r="EW42" s="116"/>
-      <c r="EX42" s="116"/>
-      <c r="EY42" s="116"/>
-      <c r="EZ42" s="116"/>
-      <c r="FA42" s="115"/>
-      <c r="FB42" s="116"/>
-      <c r="FC42" s="116"/>
-      <c r="FD42" s="116"/>
-      <c r="FE42" s="116"/>
-      <c r="FF42" s="116"/>
-      <c r="FG42" s="116"/>
-      <c r="FH42" s="116"/>
-      <c r="FI42" s="116"/>
-      <c r="FJ42" s="116"/>
-      <c r="FK42" s="116"/>
-      <c r="FL42" s="116"/>
-      <c r="FM42" s="115"/>
-      <c r="FN42" s="116"/>
-      <c r="FO42" s="116"/>
-      <c r="FP42" s="116"/>
-      <c r="FQ42" s="116"/>
-      <c r="FR42" s="116"/>
-      <c r="FS42" s="116"/>
-      <c r="FT42" s="116"/>
-      <c r="FU42" s="116"/>
-      <c r="FV42" s="116"/>
-      <c r="FW42" s="116"/>
-      <c r="FX42" s="116"/>
-      <c r="FY42" s="115"/>
-      <c r="FZ42" s="116"/>
-      <c r="GA42" s="116"/>
-      <c r="GB42" s="116"/>
-      <c r="GC42" s="116"/>
-      <c r="GD42" s="116"/>
-      <c r="GE42" s="116"/>
-      <c r="GF42" s="116"/>
-      <c r="GG42" s="116"/>
-      <c r="GH42" s="116"/>
-      <c r="GI42" s="116"/>
-      <c r="GJ42" s="116"/>
-      <c r="GK42" s="115"/>
-      <c r="GL42" s="116"/>
-      <c r="GM42" s="116"/>
-      <c r="GN42" s="116"/>
-      <c r="GO42" s="116"/>
-      <c r="GP42" s="116"/>
-      <c r="GQ42" s="116"/>
-      <c r="GR42" s="116"/>
-      <c r="GS42" s="116"/>
-      <c r="GT42" s="116"/>
-      <c r="GU42" s="116"/>
-      <c r="GV42" s="116"/>
-      <c r="GW42" s="115"/>
-      <c r="GX42" s="116"/>
-      <c r="GY42" s="116"/>
-      <c r="GZ42" s="116"/>
-      <c r="HA42" s="116"/>
-      <c r="HB42" s="116"/>
-      <c r="HC42" s="116"/>
-      <c r="HD42" s="116"/>
-      <c r="HE42" s="116"/>
-      <c r="HF42" s="116"/>
-      <c r="HG42" s="116"/>
-      <c r="HH42" s="116"/>
-      <c r="HI42" s="115"/>
-      <c r="HJ42" s="116"/>
-      <c r="HK42" s="116"/>
-      <c r="HL42" s="116"/>
-      <c r="HM42" s="116"/>
-      <c r="HN42" s="116"/>
-      <c r="HO42" s="116"/>
-      <c r="HP42" s="116"/>
-      <c r="HQ42" s="116"/>
-      <c r="HR42" s="116"/>
-      <c r="HS42" s="116"/>
-      <c r="HT42" s="116"/>
-      <c r="HU42" s="115"/>
-      <c r="HV42" s="116"/>
-      <c r="HW42" s="116"/>
-      <c r="HX42" s="116"/>
-      <c r="HY42" s="116"/>
-      <c r="HZ42" s="116"/>
-      <c r="IA42" s="116"/>
-      <c r="IB42" s="116"/>
-      <c r="IC42" s="116"/>
-      <c r="ID42" s="116"/>
-      <c r="IE42" s="116"/>
-      <c r="IF42" s="116"/>
-      <c r="IG42" s="115"/>
-      <c r="IH42" s="116"/>
-      <c r="II42" s="116"/>
-      <c r="IJ42" s="116"/>
-      <c r="IK42" s="116"/>
-      <c r="IL42" s="116"/>
-      <c r="IM42" s="116"/>
-      <c r="IN42" s="116"/>
-      <c r="IO42" s="116"/>
-      <c r="IP42" s="116"/>
-      <c r="IQ42" s="116"/>
-      <c r="IR42" s="116"/>
-      <c r="IS42" s="115"/>
-      <c r="IT42" s="116"/>
-      <c r="IU42" s="116"/>
-      <c r="IV42" s="116"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115"/>
+      <c r="S42" s="115"/>
+      <c r="T42" s="115"/>
+      <c r="U42" s="115"/>
+      <c r="V42" s="115"/>
+      <c r="W42" s="115"/>
+      <c r="X42" s="115"/>
+      <c r="Y42" s="120"/>
+      <c r="Z42" s="115"/>
+      <c r="AA42" s="115"/>
+      <c r="AB42" s="115"/>
+      <c r="AC42" s="115"/>
+      <c r="AD42" s="115"/>
+      <c r="AE42" s="115"/>
+      <c r="AF42" s="115"/>
+      <c r="AG42" s="115"/>
+      <c r="AH42" s="115"/>
+      <c r="AI42" s="115"/>
+      <c r="AJ42" s="115"/>
+      <c r="AK42" s="120"/>
+      <c r="AL42" s="115"/>
+      <c r="AM42" s="115"/>
+      <c r="AN42" s="115"/>
+      <c r="AO42" s="115"/>
+      <c r="AP42" s="115"/>
+      <c r="AQ42" s="115"/>
+      <c r="AR42" s="115"/>
+      <c r="AS42" s="115"/>
+      <c r="AT42" s="115"/>
+      <c r="AU42" s="115"/>
+      <c r="AV42" s="115"/>
+      <c r="AW42" s="120"/>
+      <c r="AX42" s="115"/>
+      <c r="AY42" s="115"/>
+      <c r="AZ42" s="115"/>
+      <c r="BA42" s="115"/>
+      <c r="BB42" s="115"/>
+      <c r="BC42" s="115"/>
+      <c r="BD42" s="115"/>
+      <c r="BE42" s="115"/>
+      <c r="BF42" s="115"/>
+      <c r="BG42" s="115"/>
+      <c r="BH42" s="115"/>
+      <c r="BI42" s="120"/>
+      <c r="BJ42" s="115"/>
+      <c r="BK42" s="115"/>
+      <c r="BL42" s="115"/>
+      <c r="BM42" s="115"/>
+      <c r="BN42" s="115"/>
+      <c r="BO42" s="115"/>
+      <c r="BP42" s="115"/>
+      <c r="BQ42" s="115"/>
+      <c r="BR42" s="115"/>
+      <c r="BS42" s="115"/>
+      <c r="BT42" s="115"/>
+      <c r="BU42" s="120"/>
+      <c r="BV42" s="115"/>
+      <c r="BW42" s="115"/>
+      <c r="BX42" s="115"/>
+      <c r="BY42" s="115"/>
+      <c r="BZ42" s="115"/>
+      <c r="CA42" s="115"/>
+      <c r="CB42" s="115"/>
+      <c r="CC42" s="115"/>
+      <c r="CD42" s="115"/>
+      <c r="CE42" s="115"/>
+      <c r="CF42" s="115"/>
+      <c r="CG42" s="120"/>
+      <c r="CH42" s="115"/>
+      <c r="CI42" s="115"/>
+      <c r="CJ42" s="115"/>
+      <c r="CK42" s="115"/>
+      <c r="CL42" s="115"/>
+      <c r="CM42" s="115"/>
+      <c r="CN42" s="115"/>
+      <c r="CO42" s="115"/>
+      <c r="CP42" s="115"/>
+      <c r="CQ42" s="115"/>
+      <c r="CR42" s="115"/>
+      <c r="CS42" s="120"/>
+      <c r="CT42" s="115"/>
+      <c r="CU42" s="115"/>
+      <c r="CV42" s="115"/>
+      <c r="CW42" s="115"/>
+      <c r="CX42" s="115"/>
+      <c r="CY42" s="115"/>
+      <c r="CZ42" s="115"/>
+      <c r="DA42" s="115"/>
+      <c r="DB42" s="115"/>
+      <c r="DC42" s="115"/>
+      <c r="DD42" s="115"/>
+      <c r="DE42" s="120"/>
+      <c r="DF42" s="115"/>
+      <c r="DG42" s="115"/>
+      <c r="DH42" s="115"/>
+      <c r="DI42" s="115"/>
+      <c r="DJ42" s="115"/>
+      <c r="DK42" s="115"/>
+      <c r="DL42" s="115"/>
+      <c r="DM42" s="115"/>
+      <c r="DN42" s="115"/>
+      <c r="DO42" s="115"/>
+      <c r="DP42" s="115"/>
+      <c r="DQ42" s="120"/>
+      <c r="DR42" s="115"/>
+      <c r="DS42" s="115"/>
+      <c r="DT42" s="115"/>
+      <c r="DU42" s="115"/>
+      <c r="DV42" s="115"/>
+      <c r="DW42" s="115"/>
+      <c r="DX42" s="115"/>
+      <c r="DY42" s="115"/>
+      <c r="DZ42" s="115"/>
+      <c r="EA42" s="115"/>
+      <c r="EB42" s="115"/>
+      <c r="EC42" s="120"/>
+      <c r="ED42" s="115"/>
+      <c r="EE42" s="115"/>
+      <c r="EF42" s="115"/>
+      <c r="EG42" s="115"/>
+      <c r="EH42" s="115"/>
+      <c r="EI42" s="115"/>
+      <c r="EJ42" s="115"/>
+      <c r="EK42" s="115"/>
+      <c r="EL42" s="115"/>
+      <c r="EM42" s="115"/>
+      <c r="EN42" s="115"/>
+      <c r="EO42" s="120"/>
+      <c r="EP42" s="115"/>
+      <c r="EQ42" s="115"/>
+      <c r="ER42" s="115"/>
+      <c r="ES42" s="115"/>
+      <c r="ET42" s="115"/>
+      <c r="EU42" s="115"/>
+      <c r="EV42" s="115"/>
+      <c r="EW42" s="115"/>
+      <c r="EX42" s="115"/>
+      <c r="EY42" s="115"/>
+      <c r="EZ42" s="115"/>
+      <c r="FA42" s="120"/>
+      <c r="FB42" s="115"/>
+      <c r="FC42" s="115"/>
+      <c r="FD42" s="115"/>
+      <c r="FE42" s="115"/>
+      <c r="FF42" s="115"/>
+      <c r="FG42" s="115"/>
+      <c r="FH42" s="115"/>
+      <c r="FI42" s="115"/>
+      <c r="FJ42" s="115"/>
+      <c r="FK42" s="115"/>
+      <c r="FL42" s="115"/>
+      <c r="FM42" s="120"/>
+      <c r="FN42" s="115"/>
+      <c r="FO42" s="115"/>
+      <c r="FP42" s="115"/>
+      <c r="FQ42" s="115"/>
+      <c r="FR42" s="115"/>
+      <c r="FS42" s="115"/>
+      <c r="FT42" s="115"/>
+      <c r="FU42" s="115"/>
+      <c r="FV42" s="115"/>
+      <c r="FW42" s="115"/>
+      <c r="FX42" s="115"/>
+      <c r="FY42" s="120"/>
+      <c r="FZ42" s="115"/>
+      <c r="GA42" s="115"/>
+      <c r="GB42" s="115"/>
+      <c r="GC42" s="115"/>
+      <c r="GD42" s="115"/>
+      <c r="GE42" s="115"/>
+      <c r="GF42" s="115"/>
+      <c r="GG42" s="115"/>
+      <c r="GH42" s="115"/>
+      <c r="GI42" s="115"/>
+      <c r="GJ42" s="115"/>
+      <c r="GK42" s="120"/>
+      <c r="GL42" s="115"/>
+      <c r="GM42" s="115"/>
+      <c r="GN42" s="115"/>
+      <c r="GO42" s="115"/>
+      <c r="GP42" s="115"/>
+      <c r="GQ42" s="115"/>
+      <c r="GR42" s="115"/>
+      <c r="GS42" s="115"/>
+      <c r="GT42" s="115"/>
+      <c r="GU42" s="115"/>
+      <c r="GV42" s="115"/>
+      <c r="GW42" s="120"/>
+      <c r="GX42" s="115"/>
+      <c r="GY42" s="115"/>
+      <c r="GZ42" s="115"/>
+      <c r="HA42" s="115"/>
+      <c r="HB42" s="115"/>
+      <c r="HC42" s="115"/>
+      <c r="HD42" s="115"/>
+      <c r="HE42" s="115"/>
+      <c r="HF42" s="115"/>
+      <c r="HG42" s="115"/>
+      <c r="HH42" s="115"/>
+      <c r="HI42" s="120"/>
+      <c r="HJ42" s="115"/>
+      <c r="HK42" s="115"/>
+      <c r="HL42" s="115"/>
+      <c r="HM42" s="115"/>
+      <c r="HN42" s="115"/>
+      <c r="HO42" s="115"/>
+      <c r="HP42" s="115"/>
+      <c r="HQ42" s="115"/>
+      <c r="HR42" s="115"/>
+      <c r="HS42" s="115"/>
+      <c r="HT42" s="115"/>
+      <c r="HU42" s="120"/>
+      <c r="HV42" s="115"/>
+      <c r="HW42" s="115"/>
+      <c r="HX42" s="115"/>
+      <c r="HY42" s="115"/>
+      <c r="HZ42" s="115"/>
+      <c r="IA42" s="115"/>
+      <c r="IB42" s="115"/>
+      <c r="IC42" s="115"/>
+      <c r="ID42" s="115"/>
+      <c r="IE42" s="115"/>
+      <c r="IF42" s="115"/>
+      <c r="IG42" s="120"/>
+      <c r="IH42" s="115"/>
+      <c r="II42" s="115"/>
+      <c r="IJ42" s="115"/>
+      <c r="IK42" s="115"/>
+      <c r="IL42" s="115"/>
+      <c r="IM42" s="115"/>
+      <c r="IN42" s="115"/>
+      <c r="IO42" s="115"/>
+      <c r="IP42" s="115"/>
+      <c r="IQ42" s="115"/>
+      <c r="IR42" s="115"/>
+      <c r="IS42" s="120"/>
+      <c r="IT42" s="115"/>
+      <c r="IU42" s="115"/>
+      <c r="IV42" s="115"/>
     </row>
     <row r="43" spans="1:256" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1"/>
     <row r="44" spans="1:256" s="77" customFormat="1" ht="21" customHeight="1">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
     </row>
     <row r="45" spans="1:256" s="77" customFormat="1" ht="15.75">
       <c r="A45" s="78" t="s">
@@ -9369,6 +9377,219 @@
     </row>
   </sheetData>
   <mergeCells count="237">
+    <mergeCell ref="HU41:IF41"/>
+    <mergeCell ref="IG41:IR41"/>
+    <mergeCell ref="IS41:IV41"/>
+    <mergeCell ref="FY41:GJ41"/>
+    <mergeCell ref="GK41:GV41"/>
+    <mergeCell ref="GW41:HH41"/>
+    <mergeCell ref="HI41:HT41"/>
+    <mergeCell ref="HU42:IF42"/>
+    <mergeCell ref="IG42:IR42"/>
+    <mergeCell ref="IS42:IV42"/>
+    <mergeCell ref="FY42:GJ42"/>
+    <mergeCell ref="GK42:GV42"/>
+    <mergeCell ref="GW42:HH42"/>
+    <mergeCell ref="HI42:HT42"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:X42"/>
+    <mergeCell ref="Y42:AJ42"/>
+    <mergeCell ref="AK42:AV42"/>
+    <mergeCell ref="AW42:BH42"/>
+    <mergeCell ref="BI42:BT42"/>
+    <mergeCell ref="BU42:CF42"/>
+    <mergeCell ref="FA41:FL41"/>
+    <mergeCell ref="FM41:FX41"/>
+    <mergeCell ref="CG41:CR41"/>
+    <mergeCell ref="CS41:DD41"/>
+    <mergeCell ref="DE41:DP41"/>
+    <mergeCell ref="DQ41:EB41"/>
+    <mergeCell ref="EC41:EN41"/>
+    <mergeCell ref="EO41:EZ41"/>
+    <mergeCell ref="CG42:CR42"/>
+    <mergeCell ref="CS42:DD42"/>
+    <mergeCell ref="DE42:DP42"/>
+    <mergeCell ref="DQ42:EB42"/>
+    <mergeCell ref="EC42:EN42"/>
+    <mergeCell ref="EO42:EZ42"/>
+    <mergeCell ref="FA42:FL42"/>
+    <mergeCell ref="FM42:FX42"/>
+    <mergeCell ref="BU41:CF41"/>
+    <mergeCell ref="FM40:FX40"/>
+    <mergeCell ref="FY40:GJ40"/>
+    <mergeCell ref="GK40:GV40"/>
+    <mergeCell ref="GW40:HH40"/>
+    <mergeCell ref="HI40:HT40"/>
+    <mergeCell ref="CG40:CR40"/>
+    <mergeCell ref="CS40:DD40"/>
+    <mergeCell ref="DE40:DP40"/>
+    <mergeCell ref="DQ40:EB40"/>
+    <mergeCell ref="EC40:EN40"/>
+    <mergeCell ref="EO40:EZ40"/>
+    <mergeCell ref="IS39:IV39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:X40"/>
+    <mergeCell ref="Y40:AJ40"/>
+    <mergeCell ref="AK40:AV40"/>
+    <mergeCell ref="AW40:BH40"/>
+    <mergeCell ref="BI40:BT40"/>
+    <mergeCell ref="BU40:CF40"/>
+    <mergeCell ref="FA39:FL39"/>
+    <mergeCell ref="FM39:FX39"/>
+    <mergeCell ref="FY39:GJ39"/>
+    <mergeCell ref="GK39:GV39"/>
+    <mergeCell ref="GW39:HH39"/>
+    <mergeCell ref="HI39:HT39"/>
+    <mergeCell ref="CG39:CR39"/>
+    <mergeCell ref="CS39:DD39"/>
+    <mergeCell ref="DE39:DP39"/>
+    <mergeCell ref="DQ39:EB39"/>
+    <mergeCell ref="EC39:EN39"/>
+    <mergeCell ref="EO39:EZ39"/>
+    <mergeCell ref="HU40:IF40"/>
+    <mergeCell ref="IG40:IR40"/>
+    <mergeCell ref="IS40:IV40"/>
+    <mergeCell ref="FA40:FL40"/>
+    <mergeCell ref="HU38:IF38"/>
+    <mergeCell ref="IG38:IR38"/>
+    <mergeCell ref="IS38:IV38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:X39"/>
+    <mergeCell ref="Y39:AJ39"/>
+    <mergeCell ref="AK39:AV39"/>
+    <mergeCell ref="AW39:BH39"/>
+    <mergeCell ref="BI39:BT39"/>
+    <mergeCell ref="BU39:CF39"/>
+    <mergeCell ref="FA38:FL38"/>
+    <mergeCell ref="FM38:FX38"/>
+    <mergeCell ref="FY38:GJ38"/>
+    <mergeCell ref="GK38:GV38"/>
+    <mergeCell ref="GW38:HH38"/>
+    <mergeCell ref="HI38:HT38"/>
+    <mergeCell ref="CG38:CR38"/>
+    <mergeCell ref="CS38:DD38"/>
+    <mergeCell ref="DE38:DP38"/>
+    <mergeCell ref="DQ38:EB38"/>
+    <mergeCell ref="EC38:EN38"/>
+    <mergeCell ref="EO38:EZ38"/>
+    <mergeCell ref="HU39:IF39"/>
+    <mergeCell ref="IG39:IR39"/>
+    <mergeCell ref="HU17:IF17"/>
+    <mergeCell ref="IG17:IR17"/>
+    <mergeCell ref="IS17:IV17"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:X38"/>
+    <mergeCell ref="Y38:AJ38"/>
+    <mergeCell ref="AK38:AV38"/>
+    <mergeCell ref="AW38:BH38"/>
+    <mergeCell ref="BI38:BT38"/>
+    <mergeCell ref="BU38:CF38"/>
+    <mergeCell ref="FA17:FL17"/>
+    <mergeCell ref="FM17:FX17"/>
+    <mergeCell ref="FY17:GJ17"/>
+    <mergeCell ref="GK17:GV17"/>
+    <mergeCell ref="GW17:HH17"/>
+    <mergeCell ref="HI17:HT17"/>
+    <mergeCell ref="CG17:CR17"/>
+    <mergeCell ref="CS17:DD17"/>
+    <mergeCell ref="DE17:DP17"/>
+    <mergeCell ref="DQ17:EB17"/>
+    <mergeCell ref="EC17:EN17"/>
+    <mergeCell ref="EO17:EZ17"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="FM16:FX16"/>
+    <mergeCell ref="FY16:GJ16"/>
+    <mergeCell ref="GK16:GV16"/>
+    <mergeCell ref="GW16:HH16"/>
+    <mergeCell ref="HI16:HT16"/>
+    <mergeCell ref="CG16:CR16"/>
+    <mergeCell ref="CS16:DD16"/>
+    <mergeCell ref="DE16:DP16"/>
+    <mergeCell ref="DQ16:EB16"/>
+    <mergeCell ref="EC16:EN16"/>
+    <mergeCell ref="EO16:EZ16"/>
+    <mergeCell ref="IS15:IV15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:X16"/>
+    <mergeCell ref="Y16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW16:BH16"/>
+    <mergeCell ref="BI16:BT16"/>
+    <mergeCell ref="BU16:CF16"/>
+    <mergeCell ref="FA15:FL15"/>
+    <mergeCell ref="FM15:FX15"/>
+    <mergeCell ref="FY15:GJ15"/>
+    <mergeCell ref="GK15:GV15"/>
+    <mergeCell ref="GW15:HH15"/>
+    <mergeCell ref="HI15:HT15"/>
+    <mergeCell ref="CG15:CR15"/>
+    <mergeCell ref="CS15:DD15"/>
+    <mergeCell ref="DE15:DP15"/>
+    <mergeCell ref="DQ15:EB15"/>
+    <mergeCell ref="EC15:EN15"/>
+    <mergeCell ref="EO15:EZ15"/>
+    <mergeCell ref="HU16:IF16"/>
+    <mergeCell ref="IG16:IR16"/>
+    <mergeCell ref="IS16:IV16"/>
+    <mergeCell ref="FA16:FL16"/>
+    <mergeCell ref="HU14:IF14"/>
+    <mergeCell ref="IG14:IR14"/>
+    <mergeCell ref="IS14:IV14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:X15"/>
+    <mergeCell ref="Y15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BH15"/>
+    <mergeCell ref="BI15:BT15"/>
+    <mergeCell ref="BU15:CF15"/>
+    <mergeCell ref="FA14:FL14"/>
+    <mergeCell ref="FM14:FX14"/>
+    <mergeCell ref="FY14:GJ14"/>
+    <mergeCell ref="GK14:GV14"/>
+    <mergeCell ref="GW14:HH14"/>
+    <mergeCell ref="HI14:HT14"/>
+    <mergeCell ref="CG14:CR14"/>
+    <mergeCell ref="CS14:DD14"/>
+    <mergeCell ref="DE14:DP14"/>
+    <mergeCell ref="DQ14:EB14"/>
+    <mergeCell ref="EC14:EN14"/>
+    <mergeCell ref="EO14:EZ14"/>
+    <mergeCell ref="HU15:IF15"/>
+    <mergeCell ref="IG15:IR15"/>
+    <mergeCell ref="GK13:GV13"/>
+    <mergeCell ref="GW13:HH13"/>
+    <mergeCell ref="HI13:HT13"/>
+    <mergeCell ref="CG13:CR13"/>
+    <mergeCell ref="CS13:DD13"/>
+    <mergeCell ref="DE13:DP13"/>
+    <mergeCell ref="DQ13:EB13"/>
+    <mergeCell ref="EC13:EN13"/>
+    <mergeCell ref="EO13:EZ13"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="HU13:IF13"/>
+    <mergeCell ref="IG13:IR13"/>
+    <mergeCell ref="IS13:IV13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:X14"/>
+    <mergeCell ref="Y14:AJ14"/>
+    <mergeCell ref="AK14:AV14"/>
+    <mergeCell ref="AW14:BH14"/>
+    <mergeCell ref="BI14:BT14"/>
+    <mergeCell ref="BU14:CF14"/>
+    <mergeCell ref="FA13:FL13"/>
+    <mergeCell ref="FM13:FX13"/>
+    <mergeCell ref="FY13:GJ13"/>
     <mergeCell ref="A44:L44"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A30:L30"/>
@@ -9393,219 +9614,6 @@
     <mergeCell ref="AK41:AV41"/>
     <mergeCell ref="AW41:BH41"/>
     <mergeCell ref="BI41:BT41"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="HU13:IF13"/>
-    <mergeCell ref="IG13:IR13"/>
-    <mergeCell ref="IS13:IV13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:X14"/>
-    <mergeCell ref="Y14:AJ14"/>
-    <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="AW14:BH14"/>
-    <mergeCell ref="BI14:BT14"/>
-    <mergeCell ref="BU14:CF14"/>
-    <mergeCell ref="FA13:FL13"/>
-    <mergeCell ref="FM13:FX13"/>
-    <mergeCell ref="FY13:GJ13"/>
-    <mergeCell ref="GK13:GV13"/>
-    <mergeCell ref="GW13:HH13"/>
-    <mergeCell ref="HI13:HT13"/>
-    <mergeCell ref="CG13:CR13"/>
-    <mergeCell ref="CS13:DD13"/>
-    <mergeCell ref="DE13:DP13"/>
-    <mergeCell ref="DQ13:EB13"/>
-    <mergeCell ref="EC13:EN13"/>
-    <mergeCell ref="EO13:EZ13"/>
-    <mergeCell ref="HU14:IF14"/>
-    <mergeCell ref="IG14:IR14"/>
-    <mergeCell ref="IS14:IV14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:X15"/>
-    <mergeCell ref="Y15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BH15"/>
-    <mergeCell ref="BI15:BT15"/>
-    <mergeCell ref="BU15:CF15"/>
-    <mergeCell ref="FA14:FL14"/>
-    <mergeCell ref="FM14:FX14"/>
-    <mergeCell ref="FY14:GJ14"/>
-    <mergeCell ref="GK14:GV14"/>
-    <mergeCell ref="GW14:HH14"/>
-    <mergeCell ref="HI14:HT14"/>
-    <mergeCell ref="CG14:CR14"/>
-    <mergeCell ref="CS14:DD14"/>
-    <mergeCell ref="DE14:DP14"/>
-    <mergeCell ref="DQ14:EB14"/>
-    <mergeCell ref="EC14:EN14"/>
-    <mergeCell ref="EO14:EZ14"/>
-    <mergeCell ref="HU15:IF15"/>
-    <mergeCell ref="IG15:IR15"/>
-    <mergeCell ref="IS15:IV15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:X16"/>
-    <mergeCell ref="Y16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW16:BH16"/>
-    <mergeCell ref="BI16:BT16"/>
-    <mergeCell ref="BU16:CF16"/>
-    <mergeCell ref="FA15:FL15"/>
-    <mergeCell ref="FM15:FX15"/>
-    <mergeCell ref="FY15:GJ15"/>
-    <mergeCell ref="GK15:GV15"/>
-    <mergeCell ref="GW15:HH15"/>
-    <mergeCell ref="HI15:HT15"/>
-    <mergeCell ref="CG15:CR15"/>
-    <mergeCell ref="CS15:DD15"/>
-    <mergeCell ref="DE15:DP15"/>
-    <mergeCell ref="DQ15:EB15"/>
-    <mergeCell ref="EC15:EN15"/>
-    <mergeCell ref="EO15:EZ15"/>
-    <mergeCell ref="HU16:IF16"/>
-    <mergeCell ref="IG16:IR16"/>
-    <mergeCell ref="IS16:IV16"/>
-    <mergeCell ref="FA16:FL16"/>
-    <mergeCell ref="FM16:FX16"/>
-    <mergeCell ref="FY16:GJ16"/>
-    <mergeCell ref="GK16:GV16"/>
-    <mergeCell ref="GW16:HH16"/>
-    <mergeCell ref="HI16:HT16"/>
-    <mergeCell ref="CG16:CR16"/>
-    <mergeCell ref="CS16:DD16"/>
-    <mergeCell ref="DE16:DP16"/>
-    <mergeCell ref="DQ16:EB16"/>
-    <mergeCell ref="EC16:EN16"/>
-    <mergeCell ref="EO16:EZ16"/>
-    <mergeCell ref="HU17:IF17"/>
-    <mergeCell ref="IG17:IR17"/>
-    <mergeCell ref="IS17:IV17"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:X38"/>
-    <mergeCell ref="Y38:AJ38"/>
-    <mergeCell ref="AK38:AV38"/>
-    <mergeCell ref="AW38:BH38"/>
-    <mergeCell ref="BI38:BT38"/>
-    <mergeCell ref="BU38:CF38"/>
-    <mergeCell ref="FA17:FL17"/>
-    <mergeCell ref="FM17:FX17"/>
-    <mergeCell ref="FY17:GJ17"/>
-    <mergeCell ref="GK17:GV17"/>
-    <mergeCell ref="GW17:HH17"/>
-    <mergeCell ref="HI17:HT17"/>
-    <mergeCell ref="CG17:CR17"/>
-    <mergeCell ref="CS17:DD17"/>
-    <mergeCell ref="DE17:DP17"/>
-    <mergeCell ref="DQ17:EB17"/>
-    <mergeCell ref="EC17:EN17"/>
-    <mergeCell ref="EO17:EZ17"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="HU38:IF38"/>
-    <mergeCell ref="IG38:IR38"/>
-    <mergeCell ref="IS38:IV38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:X39"/>
-    <mergeCell ref="Y39:AJ39"/>
-    <mergeCell ref="AK39:AV39"/>
-    <mergeCell ref="AW39:BH39"/>
-    <mergeCell ref="BI39:BT39"/>
-    <mergeCell ref="BU39:CF39"/>
-    <mergeCell ref="FA38:FL38"/>
-    <mergeCell ref="FM38:FX38"/>
-    <mergeCell ref="FY38:GJ38"/>
-    <mergeCell ref="GK38:GV38"/>
-    <mergeCell ref="GW38:HH38"/>
-    <mergeCell ref="HI38:HT38"/>
-    <mergeCell ref="CG38:CR38"/>
-    <mergeCell ref="CS38:DD38"/>
-    <mergeCell ref="DE38:DP38"/>
-    <mergeCell ref="DQ38:EB38"/>
-    <mergeCell ref="EC38:EN38"/>
-    <mergeCell ref="EO38:EZ38"/>
-    <mergeCell ref="HU39:IF39"/>
-    <mergeCell ref="IG39:IR39"/>
-    <mergeCell ref="IS39:IV39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:X40"/>
-    <mergeCell ref="Y40:AJ40"/>
-    <mergeCell ref="AK40:AV40"/>
-    <mergeCell ref="AW40:BH40"/>
-    <mergeCell ref="BI40:BT40"/>
-    <mergeCell ref="BU40:CF40"/>
-    <mergeCell ref="FA39:FL39"/>
-    <mergeCell ref="FM39:FX39"/>
-    <mergeCell ref="FY39:GJ39"/>
-    <mergeCell ref="GK39:GV39"/>
-    <mergeCell ref="GW39:HH39"/>
-    <mergeCell ref="HI39:HT39"/>
-    <mergeCell ref="CG39:CR39"/>
-    <mergeCell ref="CS39:DD39"/>
-    <mergeCell ref="DE39:DP39"/>
-    <mergeCell ref="DQ39:EB39"/>
-    <mergeCell ref="EC39:EN39"/>
-    <mergeCell ref="EO39:EZ39"/>
-    <mergeCell ref="HU40:IF40"/>
-    <mergeCell ref="IG40:IR40"/>
-    <mergeCell ref="IS40:IV40"/>
-    <mergeCell ref="FA40:FL40"/>
-    <mergeCell ref="FM40:FX40"/>
-    <mergeCell ref="FY40:GJ40"/>
-    <mergeCell ref="GK40:GV40"/>
-    <mergeCell ref="GW40:HH40"/>
-    <mergeCell ref="HI40:HT40"/>
-    <mergeCell ref="CG40:CR40"/>
-    <mergeCell ref="CS40:DD40"/>
-    <mergeCell ref="DE40:DP40"/>
-    <mergeCell ref="DQ40:EB40"/>
-    <mergeCell ref="EC40:EN40"/>
-    <mergeCell ref="EO40:EZ40"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:X42"/>
-    <mergeCell ref="Y42:AJ42"/>
-    <mergeCell ref="AK42:AV42"/>
-    <mergeCell ref="AW42:BH42"/>
-    <mergeCell ref="BI42:BT42"/>
-    <mergeCell ref="BU42:CF42"/>
-    <mergeCell ref="FA41:FL41"/>
-    <mergeCell ref="FM41:FX41"/>
-    <mergeCell ref="CG41:CR41"/>
-    <mergeCell ref="CS41:DD41"/>
-    <mergeCell ref="DE41:DP41"/>
-    <mergeCell ref="DQ41:EB41"/>
-    <mergeCell ref="EC41:EN41"/>
-    <mergeCell ref="EO41:EZ41"/>
-    <mergeCell ref="CG42:CR42"/>
-    <mergeCell ref="CS42:DD42"/>
-    <mergeCell ref="DE42:DP42"/>
-    <mergeCell ref="DQ42:EB42"/>
-    <mergeCell ref="EC42:EN42"/>
-    <mergeCell ref="EO42:EZ42"/>
-    <mergeCell ref="FA42:FL42"/>
-    <mergeCell ref="FM42:FX42"/>
-    <mergeCell ref="BU41:CF41"/>
-    <mergeCell ref="HU41:IF41"/>
-    <mergeCell ref="IG41:IR41"/>
-    <mergeCell ref="IS41:IV41"/>
-    <mergeCell ref="FY41:GJ41"/>
-    <mergeCell ref="GK41:GV41"/>
-    <mergeCell ref="GW41:HH41"/>
-    <mergeCell ref="HI41:HT41"/>
-    <mergeCell ref="HU42:IF42"/>
-    <mergeCell ref="IG42:IR42"/>
-    <mergeCell ref="IS42:IV42"/>
-    <mergeCell ref="FY42:GJ42"/>
-    <mergeCell ref="GK42:GV42"/>
-    <mergeCell ref="GW42:HH42"/>
-    <mergeCell ref="HI42:HT42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9618,13 +9626,13 @@
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY74"/>
+  <dimension ref="A1:AY76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="U82" sqref="U82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -9634,7 +9642,8 @@
     <col min="23" max="24" width="9" style="4"/>
     <col min="25" max="25" width="9.875" style="4" customWidth="1"/>
     <col min="26" max="26" width="11.125" style="4" customWidth="1"/>
-    <col min="27" max="28" width="9" style="4" customWidth="1"/>
+    <col min="27" max="27" width="9" style="4" customWidth="1"/>
+    <col min="28" max="28" width="10.75" style="4" customWidth="1"/>
     <col min="29" max="29" width="10.125" style="4" customWidth="1"/>
     <col min="30" max="36" width="9" style="4" customWidth="1"/>
     <col min="37" max="37" width="9.75" style="4" customWidth="1"/>
@@ -9850,7 +9859,7 @@
         <v>10</v>
       </c>
       <c r="AB7" s="92" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="AC7" s="92" t="s">
         <v>2</v>
@@ -14471,7 +14480,7 @@
         <v>4649</v>
       </c>
       <c r="AL40" s="30">
-        <v>4741.1876766662599</v>
+        <v>4745.115763640425</v>
       </c>
       <c r="AM40" s="30">
         <v>7445.5271821529695</v>
@@ -14606,7 +14615,7 @@
         <v>4709</v>
       </c>
       <c r="AL41" s="30">
-        <v>4838.9997723847728</v>
+        <v>4840.6293287723038</v>
       </c>
       <c r="AM41" s="30">
         <v>7314.7230766023413</v>
@@ -14677,7 +14686,7 @@
         <v>5245</v>
       </c>
       <c r="O42" s="27">
-        <v>4955.5581612841161</v>
+        <v>4955.4607336084446</v>
       </c>
       <c r="P42" s="27">
         <v>7839.3126226376517</v>
@@ -14741,7 +14750,7 @@
         <v>4857</v>
       </c>
       <c r="AL42" s="27">
-        <v>4782.9607051423864</v>
+        <v>4779.2987090316037</v>
       </c>
       <c r="AM42" s="27">
         <v>7395.5968062072752</v>
@@ -14812,7 +14821,7 @@
         <v>5082</v>
       </c>
       <c r="O43" s="30">
-        <v>4813.1434463912537</v>
+        <v>4812.8584163942242</v>
       </c>
       <c r="P43" s="30">
         <v>7872.0921539536366</v>
@@ -14876,7 +14885,7 @@
         <v>4990</v>
       </c>
       <c r="AL43" s="29">
-        <v>4821.8283223929529</v>
+        <v>4822.475183318822</v>
       </c>
       <c r="AM43" s="29">
         <v>7509.9059543004505</v>
@@ -15011,7 +15020,7 @@
         <v>4596</v>
       </c>
       <c r="AL44" s="29">
-        <v>4693.8251998348987</v>
+        <v>4696.4073417031286</v>
       </c>
       <c r="AM44" s="29">
         <v>7557.1059096571034</v>
@@ -15081,7 +15090,7 @@
         <v>5126</v>
       </c>
       <c r="O45" s="36">
-        <v>4814.7693625386009</v>
+        <v>4814.6491610159082</v>
       </c>
       <c r="P45" s="36">
         <v>7788.8739470387973</v>
@@ -15145,7 +15154,7 @@
         <v>4868</v>
       </c>
       <c r="AL45" s="36">
-        <v>4633.665746634003</v>
+        <v>4609.0281800725807</v>
       </c>
       <c r="AM45" s="36">
         <v>7461.9225443756513</v>
@@ -15276,7 +15285,7 @@
         <v>4806</v>
       </c>
       <c r="AL46" s="36">
-        <v>4706.9564271080653</v>
+        <v>4669.5282617258999</v>
       </c>
       <c r="AM46" s="36">
         <v>7639.3881361932854</v>
@@ -15410,7 +15419,7 @@
         <v>4852</v>
       </c>
       <c r="AL47" s="41">
-        <v>5017.8539454892998</v>
+        <v>4832.3788376214234</v>
       </c>
       <c r="AM47" s="41">
         <v>7582.8829999999998</v>
@@ -15544,7 +15553,7 @@
         <v>5019</v>
       </c>
       <c r="AL48" s="40">
-        <v>4826.8828949176841</v>
+        <v>4793.2786801044922</v>
       </c>
       <c r="AM48" s="40">
         <v>7696.1284933089464</v>
@@ -15678,7 +15687,7 @@
         <v>5036</v>
       </c>
       <c r="AL49" s="40">
-        <v>4821.2124520981697</v>
+        <v>4822.5690522531804</v>
       </c>
       <c r="AM49" s="40">
         <v>7686.0020901182816</v>
@@ -15747,7 +15756,7 @@
         <v>4811</v>
       </c>
       <c r="O50" s="42">
-        <v>5047.5826880886889</v>
+        <v>5051.7281828168443</v>
       </c>
       <c r="P50" s="42">
         <v>7706.5293218125225</v>
@@ -15812,7 +15821,7 @@
         <v>4801</v>
       </c>
       <c r="AL50" s="40">
-        <v>4691.8933303518888</v>
+        <v>4694.383250616921</v>
       </c>
       <c r="AM50" s="40">
         <v>7562.1147176663453</v>
@@ -15946,7 +15955,7 @@
         <v>4894</v>
       </c>
       <c r="AL51" s="51">
-        <v>5214.9712471264347</v>
+        <v>5235.7716408693623</v>
       </c>
       <c r="AM51" s="51">
         <v>7682.5756985006947</v>
@@ -16092,13 +16101,13 @@
         <v>3861</v>
       </c>
       <c r="AP52" s="52">
-        <v>6874.3051815248173</v>
+        <v>6874.9313051111849</v>
       </c>
       <c r="AQ52" s="52">
         <v>4982.0064394059818</v>
       </c>
       <c r="AR52" s="52">
-        <v>6345.4154929944725</v>
+        <v>6346.3905609768808</v>
       </c>
       <c r="AS52" s="52"/>
       <c r="AT52" s="27"/>
@@ -16164,7 +16173,7 @@
         <v>7121.4667549799051</v>
       </c>
       <c r="T53" s="52">
-        <v>5347.6695473225182</v>
+        <v>5347.7105783357792</v>
       </c>
       <c r="U53" s="50">
         <v>6621.9515038432928</v>
@@ -16298,7 +16307,7 @@
         <v>7307.2973042688473</v>
       </c>
       <c r="T54" s="52">
-        <v>5396.7827434612554</v>
+        <v>5396.8229083001079</v>
       </c>
       <c r="U54" s="50">
         <v>6808.6879069096094</v>
@@ -16347,7 +16356,7 @@
         <v>4929</v>
       </c>
       <c r="AL54" s="52">
-        <v>5257.8322256680231</v>
+        <v>5257.3082120421768</v>
       </c>
       <c r="AM54" s="52">
         <v>7964.8923862843494</v>
@@ -16413,7 +16422,7 @@
         <v>5257</v>
       </c>
       <c r="O55" s="52">
-        <v>5758.433249510832</v>
+        <v>5759.0362313424712</v>
       </c>
       <c r="P55" s="52">
         <v>8610.5182843555049</v>
@@ -16428,7 +16437,7 @@
         <v>7528.1901828542077</v>
       </c>
       <c r="T55" s="52">
-        <v>5496.549917663051</v>
+        <v>5496.5911329718201</v>
       </c>
       <c r="U55" s="50">
         <v>6924.6036396491781</v>
@@ -16477,7 +16486,7 @@
         <v>5170</v>
       </c>
       <c r="AL55" s="52">
-        <v>5507.75348844172</v>
+        <v>5512.511209591471</v>
       </c>
       <c r="AM55" s="52">
         <v>8182.7381870478257</v>
@@ -16558,7 +16567,7 @@
         <v>7641.4330066750654</v>
       </c>
       <c r="T56" s="62">
-        <v>5645.986365656745</v>
+        <v>5646.0269422288447</v>
       </c>
       <c r="U56" s="50">
         <v>6946.0615696108907</v>
@@ -16607,7 +16616,7 @@
         <v>5318</v>
       </c>
       <c r="AL56" s="62">
-        <v>5670.6405123264194</v>
+        <v>5671.6391858036395</v>
       </c>
       <c r="AM56" s="62">
         <v>8537.8251675151605</v>
@@ -16673,7 +16682,7 @@
         <v>5210</v>
       </c>
       <c r="O57" s="62">
-        <v>6054.2720037322206</v>
+        <v>6054.1048830803484</v>
       </c>
       <c r="P57" s="62">
         <v>9019.6228709565512</v>
@@ -16688,7 +16697,7 @@
         <v>7862.4156716754014</v>
       </c>
       <c r="T57" s="62">
-        <v>5833.6280380072658</v>
+        <v>5833.6468269593961</v>
       </c>
       <c r="U57" s="64">
         <v>7203.2461411607756</v>
@@ -16737,7 +16746,7 @@
         <v>5227</v>
       </c>
       <c r="AL57" s="62">
-        <v>5878.1041571225223</v>
+        <v>5880.256456533486</v>
       </c>
       <c r="AM57" s="62">
         <v>8564.5784763041374</v>
@@ -16782,7 +16791,7 @@
         <v>5101.3833421069812</v>
       </c>
       <c r="H58" s="68">
-        <v>7622.5809782882898</v>
+        <v>7623.2700721588762</v>
       </c>
       <c r="I58" s="68">
         <v>5866</v>
@@ -16803,7 +16812,7 @@
         <v>5549</v>
       </c>
       <c r="O58" s="68">
-        <v>6242.1691640846266</v>
+        <v>6243.8241933428444</v>
       </c>
       <c r="P58" s="68">
         <v>9426.9928366067688</v>
@@ -16818,7 +16827,7 @@
         <v>8097.1772819111484</v>
       </c>
       <c r="T58" s="68">
-        <v>5917.726238734881</v>
+        <v>5917.7540716273961</v>
       </c>
       <c r="U58" s="64">
         <v>7344.1496527288473</v>
@@ -16846,7 +16855,7 @@
         <v>4999.1625104482519</v>
       </c>
       <c r="AE58" s="68">
-        <v>7425.5787109716266</v>
+        <v>7427.2566285134262</v>
       </c>
       <c r="AF58" s="68">
         <v>5874</v>
@@ -16912,7 +16921,7 @@
         <v>5132.3898862953438</v>
       </c>
       <c r="H59" s="62">
-        <v>7956.7851949038695</v>
+        <v>7960.561979069872</v>
       </c>
       <c r="I59" s="62">
         <v>5844</v>
@@ -16933,7 +16942,7 @@
         <v>5792</v>
       </c>
       <c r="O59" s="62">
-        <v>6303.8674230598444</v>
+        <v>6304.5528895970028</v>
       </c>
       <c r="P59" s="62">
         <v>9590.5222822740889</v>
@@ -16948,7 +16957,7 @@
         <v>8294.0920600053796</v>
       </c>
       <c r="T59" s="62">
-        <v>5987.6507822561507</v>
+        <v>5987.6750961981779</v>
       </c>
       <c r="U59" s="64">
         <v>7561.9823299378386</v>
@@ -16976,7 +16985,7 @@
         <v>5020.1522149018465</v>
       </c>
       <c r="AE59" s="68">
-        <v>7739.2095016621033</v>
+        <v>7738.1992679911491</v>
       </c>
       <c r="AF59" s="68">
         <v>5852</v>
@@ -17042,7 +17051,7 @@
         <v>5283.5528740067666</v>
       </c>
       <c r="H60" s="68">
-        <v>8017.0072672756305</v>
+        <v>8016.7367519817508</v>
       </c>
       <c r="I60" s="68">
         <v>5933</v>
@@ -17063,7 +17072,7 @@
         <v>5799</v>
       </c>
       <c r="O60" s="68">
-        <v>6605.6167697478159</v>
+        <v>6605.9012071120333</v>
       </c>
       <c r="P60" s="68">
         <v>9934.5522371743227</v>
@@ -17078,7 +17087,7 @@
         <v>8514.1525224349443</v>
       </c>
       <c r="T60" s="68">
-        <v>6122.684425846679</v>
+        <v>6122.7124981598317</v>
       </c>
       <c r="U60" s="64">
         <v>7713.3991799282248</v>
@@ -17106,7 +17115,7 @@
         <v>5220.4007433090565</v>
       </c>
       <c r="AE60" s="68">
-        <v>7787.6361022708561</v>
+        <v>7785.9093322850722</v>
       </c>
       <c r="AF60" s="68">
         <v>6158</v>
@@ -17127,7 +17136,7 @@
         <v>6105</v>
       </c>
       <c r="AL60" s="68">
-        <v>6676.8975313304563</v>
+        <v>6649.7885243608052</v>
       </c>
       <c r="AM60" s="68">
         <v>9188.4485583158075</v>
@@ -17172,7 +17181,7 @@
         <v>5476.066609611451</v>
       </c>
       <c r="H61" s="68">
-        <v>8531.5834944759772</v>
+        <v>8529.6620500050576</v>
       </c>
       <c r="I61" s="68">
         <v>5911.0284000000001</v>
@@ -17193,7 +17202,7 @@
         <v>5880</v>
       </c>
       <c r="O61" s="68">
-        <v>6574.2106368167842</v>
+        <v>6574.0488128850266</v>
       </c>
       <c r="P61" s="68">
         <v>10280.101563193337</v>
@@ -17208,7 +17217,7 @@
         <v>8778.7617208413449</v>
       </c>
       <c r="T61" s="68">
-        <v>6195.2794817023105</v>
+        <v>6195.3951403375013</v>
       </c>
       <c r="U61" s="68">
         <v>7942.0513079475295</v>
@@ -17236,7 +17245,7 @@
         <v>5295.1537542845635</v>
       </c>
       <c r="AE61" s="68">
-        <v>8238.1822629041253</v>
+        <v>8235.0602327424349</v>
       </c>
       <c r="AF61" s="68">
         <v>5977.4467999999997</v>
@@ -17257,7 +17266,7 @@
         <v>5761</v>
       </c>
       <c r="AL61" s="68">
-        <v>6769.5690267271075</v>
+        <v>6752.3040895180802</v>
       </c>
       <c r="AM61" s="68">
         <v>9475.8319590981773</v>
@@ -17302,7 +17311,7 @@
         <v>5494.1845116348159</v>
       </c>
       <c r="H62" s="68">
-        <v>9211.8848934104462</v>
+        <v>9208.6672238344163</v>
       </c>
       <c r="I62" s="68">
         <v>5964.77</v>
@@ -17323,7 +17332,7 @@
         <v>5909</v>
       </c>
       <c r="O62" s="68">
-        <v>6642.3529429021773</v>
+        <v>6642.1856334134109</v>
       </c>
       <c r="P62" s="68">
         <v>10610.407612206469</v>
@@ -17335,13 +17344,13 @@
         <v>5110.7494820859292</v>
       </c>
       <c r="S62" s="68">
-        <v>9150.3237138150525</v>
+        <v>9150.3079457946078</v>
       </c>
       <c r="T62" s="68">
-        <v>6337.4776544343194</v>
+        <v>6337.5909352873141</v>
       </c>
       <c r="U62" s="68">
-        <v>8330.8617389505671</v>
+        <v>8330.837183268246</v>
       </c>
       <c r="V62" s="68"/>
       <c r="X62" s="85" t="s">
@@ -17366,7 +17375,7 @@
         <v>5424.6377380406084</v>
       </c>
       <c r="AE62" s="68">
-        <v>8306.9730293408174</v>
+        <v>8360.2480062335781</v>
       </c>
       <c r="AF62" s="68">
         <v>6150.82</v>
@@ -17387,7 +17396,7 @@
         <v>6157</v>
       </c>
       <c r="AL62" s="68">
-        <v>6919.748336645669</v>
+        <v>6913.0954188186815</v>
       </c>
       <c r="AM62" s="68">
         <v>9818.6019403411447</v>
@@ -17432,7 +17441,7 @@
         <v>6156.1357382269771</v>
       </c>
       <c r="H63" s="68">
-        <v>9757.7965159833948</v>
+        <v>9732.5188910218894</v>
       </c>
       <c r="I63" s="68">
         <v>6223.73</v>
@@ -17453,7 +17462,7 @@
         <v>5987.19</v>
       </c>
       <c r="O63" s="68">
-        <v>7082.9277248703656</v>
+        <v>7084.8769672453636</v>
       </c>
       <c r="P63" s="68">
         <v>10717.441583668564</v>
@@ -17465,13 +17474,13 @@
         <v>5250.6525759927108</v>
       </c>
       <c r="S63" s="68">
-        <v>9310.649870684947</v>
+        <v>9310.6347949964074</v>
       </c>
       <c r="T63" s="68">
-        <v>6575.6906098304726</v>
+        <v>6575.7853329881254</v>
       </c>
       <c r="U63" s="68">
-        <v>8521.3644121991019</v>
+        <v>8521.3409346915814</v>
       </c>
       <c r="V63" s="84"/>
       <c r="X63" s="72" t="s">
@@ -17496,7 +17505,7 @@
         <v>5573.063876814057</v>
       </c>
       <c r="AE63" s="84">
-        <v>8608.1020331841082</v>
+        <v>8624.791304359127</v>
       </c>
       <c r="AF63" s="84">
         <v>5977.73</v>
@@ -17517,7 +17526,7 @@
         <v>5844.76</v>
       </c>
       <c r="AL63" s="84">
-        <v>6737.1244783390175</v>
+        <v>6732.1583810221</v>
       </c>
       <c r="AM63" s="84">
         <v>9438.2465330433024</v>
@@ -17562,7 +17571,7 @@
         <v>6145.1445674353054</v>
       </c>
       <c r="H64" s="84">
-        <v>9466.6580355218903</v>
+        <v>9466.7086057079414</v>
       </c>
       <c r="I64" s="84">
         <v>6650.8</v>
@@ -17571,7 +17580,7 @@
         <v>6733.5901024140103</v>
       </c>
       <c r="K64" s="84">
-        <v>6429.0259999999998</v>
+        <v>6428.9309999999996</v>
       </c>
       <c r="L64" s="84">
         <v>6109.3970626361406</v>
@@ -17583,7 +17592,7 @@
         <v>6047.65</v>
       </c>
       <c r="O64" s="84">
-        <v>7776.4770911860423</v>
+        <v>7786.4970263636769</v>
       </c>
       <c r="P64" s="84">
         <v>10735.279079007682</v>
@@ -17595,13 +17604,13 @@
         <v>5388.1561286056658</v>
       </c>
       <c r="S64" s="84">
-        <v>9323.8944197644396</v>
+        <v>9323.8775909922206</v>
       </c>
       <c r="T64" s="84">
-        <v>6801.4579550205881</v>
+        <v>6802.2422670316873</v>
       </c>
       <c r="U64" s="84">
-        <v>8533.3240984812473</v>
+        <v>8533.2978908804944</v>
       </c>
       <c r="V64" s="84"/>
       <c r="X64" s="85" t="s">
@@ -17626,7 +17635,7 @@
         <v>5724.9496372566073</v>
       </c>
       <c r="AE64" s="84">
-        <v>8915.1302473051201</v>
+        <v>8916.7573903766097</v>
       </c>
       <c r="AF64" s="84">
         <v>6187.97</v>
@@ -17647,7 +17656,7 @@
         <v>6173.06</v>
       </c>
       <c r="AL64" s="84">
-        <v>7030.9174270240519</v>
+        <v>7014.2567339211319</v>
       </c>
       <c r="AM64" s="84">
         <v>10182.752715356784</v>
@@ -17692,7 +17701,7 @@
         <v>6234.6913819961001</v>
       </c>
       <c r="H65" s="84">
-        <v>9616.9273834610231</v>
+        <v>9615.4276386514066</v>
       </c>
       <c r="I65" s="84">
         <v>6898.45</v>
@@ -17701,7 +17710,7 @@
         <v>6760.70222418099</v>
       </c>
       <c r="K65" s="84">
-        <v>6417.4440000000004</v>
+        <v>6417.3339999999998</v>
       </c>
       <c r="L65" s="84">
         <v>6011.0733209404534</v>
@@ -17713,7 +17722,7 @@
         <v>6274.26</v>
       </c>
       <c r="O65" s="84">
-        <v>8081.1070194252788</v>
+        <v>8090.7004915121497</v>
       </c>
       <c r="P65" s="84">
         <v>10750.495941012143</v>
@@ -17725,13 +17734,13 @@
         <v>5480.5625769854332</v>
       </c>
       <c r="S65" s="84">
-        <v>9395.5336032008508</v>
+        <v>9395.4092812936651</v>
       </c>
       <c r="T65" s="84">
-        <v>6949.2223799743551</v>
+        <v>6950.0048033718285</v>
       </c>
       <c r="U65" s="84">
-        <v>8634.238322101648</v>
+        <v>8634.0447144595637</v>
       </c>
       <c r="V65" s="84"/>
       <c r="X65" s="72" t="s">
@@ -17756,7 +17765,7 @@
         <v>5920.3883043216938</v>
       </c>
       <c r="AE65" s="84">
-        <v>8743.0608684233412</v>
+        <v>8755.6515218626555</v>
       </c>
       <c r="AF65" s="84">
         <v>6848.71</v>
@@ -17777,7 +17786,7 @@
         <v>6145.6</v>
       </c>
       <c r="AL65" s="84">
-        <v>7160.2069009653851</v>
+        <v>7155.5497028020309</v>
       </c>
       <c r="AM65" s="84">
         <v>10239.68834033424</v>
@@ -17810,10 +17819,10 @@
         <v>7271.7214204549655</v>
       </c>
       <c r="D66" s="89">
-        <v>10067.730478896774</v>
+        <v>10070.184102790361</v>
       </c>
       <c r="E66" s="89">
-        <v>10327.492501128527</v>
+        <v>10218.251500698419</v>
       </c>
       <c r="F66" s="89">
         <v>8050.9953416217722</v>
@@ -17822,7 +17831,7 @@
         <v>6232.0855609609789</v>
       </c>
       <c r="H66" s="89">
-        <v>9742.4854206600521</v>
+        <v>9740.4103695631693</v>
       </c>
       <c r="I66" s="89">
         <v>7082.1</v>
@@ -17831,7 +17840,7 @@
         <v>6854.0614503698098</v>
       </c>
       <c r="K66" s="89">
-        <v>6591.2920000000004</v>
+        <v>6591.192</v>
       </c>
       <c r="L66" s="89">
         <v>5996.6165026937424</v>
@@ -17843,7 +17852,7 @@
         <v>6362.14</v>
       </c>
       <c r="O66" s="89">
-        <v>8288.6865849702244</v>
+        <v>8221.1631102825977</v>
       </c>
       <c r="P66" s="89">
         <v>10969.466772967709</v>
@@ -17855,13 +17864,13 @@
         <v>5635.2566484796716</v>
       </c>
       <c r="S66" s="89">
-        <v>9606.814533773857</v>
+        <v>9600.6392841631587</v>
       </c>
       <c r="T66" s="89">
-        <v>7074.3294919702603</v>
+        <v>7074.7495133323664</v>
       </c>
       <c r="U66" s="89">
-        <v>8841.1659547152121</v>
+        <v>8831.549182068622</v>
       </c>
       <c r="V66" s="89"/>
       <c r="X66" s="103" t="s">
@@ -17874,10 +17883,10 @@
         <v>6962.4352505062643</v>
       </c>
       <c r="AA66" s="89">
-        <v>9795.0003120373731</v>
+        <v>9793.8248522500962</v>
       </c>
       <c r="AB66" s="89">
-        <v>9439.8378459444139</v>
+        <v>9324.8856662711096</v>
       </c>
       <c r="AC66" s="89">
         <v>7371.1542575740241</v>
@@ -17886,7 +17895,7 @@
         <v>5982.0564233704708</v>
       </c>
       <c r="AE66" s="89">
-        <v>8860.7175423261342</v>
+        <v>8864.691565058738</v>
       </c>
       <c r="AF66" s="89">
         <v>6789.66</v>
@@ -17907,7 +17916,7 @@
         <v>6437.62</v>
       </c>
       <c r="AL66" s="89">
-        <v>7642.6807335871763</v>
+        <v>7642.7604803433369</v>
       </c>
       <c r="AM66" s="89">
         <v>10665.869259657931</v>
@@ -17919,13 +17928,13 @@
         <v>5315.944843016614</v>
       </c>
       <c r="AP66" s="89">
-        <v>9147.9346362174892</v>
+        <v>9142.1687753596161</v>
       </c>
       <c r="AQ66" s="89">
         <v>6740.5184840274724</v>
       </c>
       <c r="AR66" s="89">
-        <v>8298.1321970386161</v>
+        <v>8289.1529692376898</v>
       </c>
       <c r="AS66" s="89"/>
     </row>
@@ -17940,10 +17949,10 @@
         <v>7405.4894087837301</v>
       </c>
       <c r="D67" s="90">
-        <v>9713.8140283871508</v>
+        <v>9716.2660393457809</v>
       </c>
       <c r="E67" s="90">
-        <v>10555.540445706964</v>
+        <v>10408.96260042398</v>
       </c>
       <c r="F67" s="90">
         <v>8248.8183175574668</v>
@@ -17952,7 +17961,7 @@
         <v>6344.6857075529942</v>
       </c>
       <c r="H67" s="90">
-        <v>10144.736770939318</v>
+        <v>10134.623020790357</v>
       </c>
       <c r="I67" s="90">
         <v>7577.93</v>
@@ -17961,7 +17970,7 @@
         <v>7408.6947082271499</v>
       </c>
       <c r="K67" s="90">
-        <v>6870.0550000000003</v>
+        <v>6869.9629999999997</v>
       </c>
       <c r="L67" s="90">
         <v>5942.68581315353</v>
@@ -17973,7 +17982,7 @@
         <v>6711.08</v>
       </c>
       <c r="O67" s="90">
-        <v>8457.6415642980483</v>
+        <v>8461.3573769164286</v>
       </c>
       <c r="P67" s="90">
         <v>11361.831590430111</v>
@@ -17985,13 +17994,13 @@
         <v>6297.8690359954926</v>
       </c>
       <c r="S67" s="90">
-        <v>9946.7367048249325</v>
+        <v>9937.5409304290224</v>
       </c>
       <c r="T67" s="90">
-        <v>7349.988196716924</v>
+        <v>7355.7113641082015</v>
       </c>
       <c r="U67" s="90">
-        <v>9153.2240683108066</v>
+        <v>9138.9034048154244</v>
       </c>
       <c r="V67" s="90"/>
       <c r="X67" s="72" t="s">
@@ -18004,10 +18013,10 @@
         <v>7107.0614483464497</v>
       </c>
       <c r="AA67" s="90">
-        <v>10256.715444657031</v>
+        <v>10259.980142448951</v>
       </c>
       <c r="AB67" s="90">
-        <v>9879.6502171744069</v>
+        <v>9824.3989324868799</v>
       </c>
       <c r="AC67" s="90">
         <v>7838.9161361398055</v>
@@ -18016,7 +18025,7 @@
         <v>6297.2921860424049</v>
       </c>
       <c r="AE67" s="90">
-        <v>9374.6444396705265</v>
+        <v>9397.7742350768804</v>
       </c>
       <c r="AF67" s="90">
         <v>7085.45</v>
@@ -18037,7 +18046,7 @@
         <v>6447.75</v>
       </c>
       <c r="AL67" s="90">
-        <v>7847.8151738296337</v>
+        <v>7853.5250740778365</v>
       </c>
       <c r="AM67" s="90">
         <v>10695.520589276561</v>
@@ -18049,13 +18058,13 @@
         <v>5683.8301466878966</v>
       </c>
       <c r="AP67" s="90">
-        <v>9328.286924121001</v>
+        <v>9325.5608003658072</v>
       </c>
       <c r="AQ67" s="90">
         <v>6980.9768429580936</v>
       </c>
       <c r="AR67" s="90">
-        <v>8571.7510022669339</v>
+        <v>8567.50558483235</v>
       </c>
       <c r="AS67" s="90"/>
     </row>
@@ -18070,10 +18079,10 @@
         <v>7567.2298511892996</v>
       </c>
       <c r="D68" s="89">
-        <v>10309.716581003204</v>
+        <v>10309.716581003149</v>
       </c>
       <c r="E68" s="89">
-        <v>11192.555478934039</v>
+        <v>10997.735922644422</v>
       </c>
       <c r="F68" s="89">
         <v>8386.820460032086</v>
@@ -18082,7 +18091,7 @@
         <v>6633.1797035950594</v>
       </c>
       <c r="H68" s="89">
-        <v>10620.513326594828</v>
+        <v>10617.260042219947</v>
       </c>
       <c r="I68" s="89">
         <v>7965.41</v>
@@ -18091,7 +18100,7 @@
         <v>8005.5911639920696</v>
       </c>
       <c r="K68" s="89">
-        <v>6917.2070000000003</v>
+        <v>6917.1019999999999</v>
       </c>
       <c r="L68" s="89">
         <v>6855.053110401509</v>
@@ -18103,7 +18112,7 @@
         <v>7270.76</v>
       </c>
       <c r="O68" s="89">
-        <v>8790.6305215748162</v>
+        <v>8793.8837064448344</v>
       </c>
       <c r="P68" s="89">
         <v>11405.546470460209</v>
@@ -18115,13 +18124,13 @@
         <v>6819.5081930460892</v>
       </c>
       <c r="S68" s="89">
-        <v>10294.583584740034</v>
+        <v>10282.688698062213</v>
       </c>
       <c r="T68" s="89">
-        <v>7727.8550488990468</v>
+        <v>7733.5189563507993</v>
       </c>
       <c r="U68" s="89">
-        <v>9669.7556662528532</v>
+        <v>9651.23165053706</v>
       </c>
       <c r="V68" s="89"/>
       <c r="X68" s="38" t="s">
@@ -18134,10 +18143,10 @@
         <v>7118.1905820984703</v>
       </c>
       <c r="AA68" s="89">
-        <v>10043.007356155904</v>
+        <v>10043.00735615592</v>
       </c>
       <c r="AB68" s="89">
-        <v>10037.899055271375</v>
+        <v>9738.8831182125577</v>
       </c>
       <c r="AC68" s="89">
         <v>8340.2781435253146</v>
@@ -18146,7 +18155,7 @@
         <v>6530.0536158540708</v>
       </c>
       <c r="AE68" s="89">
-        <v>9720.1228285220277</v>
+        <v>9715.7907002691609</v>
       </c>
       <c r="AF68" s="89">
         <v>7274.14</v>
@@ -18179,13 +18188,13 @@
         <v>6047.1972755535598</v>
       </c>
       <c r="AP68" s="89">
-        <v>9640.7150465000577</v>
+        <v>9638.4051424320114</v>
       </c>
       <c r="AQ68" s="89">
         <v>7285.1353460200999</v>
       </c>
       <c r="AR68" s="89">
-        <v>8872.0835214014878</v>
+        <v>8868.4862866890089</v>
       </c>
       <c r="AS68" s="89"/>
     </row>
@@ -18200,10 +18209,10 @@
         <v>8102.6722126676896</v>
       </c>
       <c r="D69" s="105">
-        <v>11185.360925360783</v>
+        <v>11185.360925360786</v>
       </c>
       <c r="E69" s="105">
-        <v>10942.299977685416</v>
+        <v>10922.66759399874</v>
       </c>
       <c r="F69" s="105">
         <v>8384.2318338533405</v>
@@ -18212,7 +18221,7 @@
         <v>6768.7377728145329</v>
       </c>
       <c r="H69" s="105">
-        <v>11010.476395054278</v>
+        <v>11009.245366415289</v>
       </c>
       <c r="I69" s="105">
         <v>7897.4</v>
@@ -18221,7 +18230,7 @@
         <v>8117.3353121211003</v>
       </c>
       <c r="K69" s="105">
-        <v>7202.6679999999997</v>
+        <v>7202.5519999999997</v>
       </c>
       <c r="L69" s="105">
         <v>7146.7027390320236</v>
@@ -18233,7 +18242,7 @@
         <v>7776.0455252918355</v>
       </c>
       <c r="O69" s="105">
-        <v>9147.4079992639581</v>
+        <v>9176.7201094510547</v>
       </c>
       <c r="P69" s="105">
         <v>11819.776105922901</v>
@@ -18245,13 +18254,13 @@
         <v>7128.8814299496407</v>
       </c>
       <c r="S69" s="105">
-        <v>10650.854892374246</v>
+        <v>10641.652328632801</v>
       </c>
       <c r="T69" s="105">
-        <v>7994.4620324644302</v>
+        <v>7998.5870363231652</v>
       </c>
       <c r="U69" s="89">
-        <v>9994.5025482368965</v>
+        <v>9980.1713116316714</v>
       </c>
       <c r="V69" s="105"/>
       <c r="X69" s="72" t="s">
@@ -18264,10 +18273,10 @@
         <v>7671.2161343983498</v>
       </c>
       <c r="AA69" s="105">
-        <v>10958.405263154418</v>
+        <v>10930.485698308083</v>
       </c>
       <c r="AB69" s="105">
-        <v>10974.668627784693</v>
+        <v>9927.3253113846513</v>
       </c>
       <c r="AC69" s="105">
         <v>8290.4363372048756</v>
@@ -18276,7 +18285,7 @@
         <v>6718.4618658998397</v>
       </c>
       <c r="AE69" s="105">
-        <v>10308.282263472776</v>
+        <v>10310.90171123109</v>
       </c>
       <c r="AF69" s="105">
         <v>8176.32</v>
@@ -18309,13 +18318,13 @@
         <v>6437.9524742664307</v>
       </c>
       <c r="AP69" s="105">
-        <v>10214.098218163668</v>
+        <v>10205.164296464511</v>
       </c>
       <c r="AQ69" s="105">
         <v>7747.1131636119726</v>
       </c>
       <c r="AR69" s="105">
-        <v>9424.2347049742239</v>
+        <v>9410.3218270762409</v>
       </c>
       <c r="AS69" s="105"/>
     </row>
@@ -18330,10 +18339,10 @@
         <v>8308.9905559400195</v>
       </c>
       <c r="D70" s="105">
-        <v>11356.052868443205</v>
+        <v>11356.052868443194</v>
       </c>
       <c r="E70" s="105">
-        <v>11342.464484808037</v>
+        <v>11241.123652567518</v>
       </c>
       <c r="F70" s="105">
         <v>8849.6358860817509</v>
@@ -18342,7 +18351,7 @@
         <v>7123.7392577115461</v>
       </c>
       <c r="H70" s="105">
-        <v>11157.350002192423</v>
+        <v>11155.731536320738</v>
       </c>
       <c r="I70" s="105">
         <v>8170.49</v>
@@ -18363,7 +18372,7 @@
         <v>8101.9050321987233</v>
       </c>
       <c r="O70" s="105">
-        <v>9413.8034319610524</v>
+        <v>9417.1418263532305</v>
       </c>
       <c r="P70" s="105">
         <v>12517.311572903438</v>
@@ -18375,13 +18384,13 @@
         <v>7295.0155723599746</v>
       </c>
       <c r="S70" s="105">
-        <v>11039.770177122187</v>
+        <v>11033.719935175412</v>
       </c>
       <c r="T70" s="105">
-        <v>8261.9853426144637</v>
+        <v>8267.2181138528358</v>
       </c>
       <c r="U70" s="89">
-        <v>10215.45790700723</v>
+        <v>10206.035809937959</v>
       </c>
       <c r="V70" s="105"/>
       <c r="X70" s="38" t="s">
@@ -18394,10 +18403,10 @@
         <v>7738.0734244219302</v>
       </c>
       <c r="AA70" s="105">
-        <v>11231.235141256459</v>
+        <v>11230.215718349431</v>
       </c>
       <c r="AB70" s="105">
-        <v>11826.540742038247</v>
+        <v>9830.243991462301</v>
       </c>
       <c r="AC70" s="105">
         <v>8928.0423814640581</v>
@@ -18406,7 +18415,7 @@
         <v>6928.7616428647862</v>
       </c>
       <c r="AE70" s="105">
-        <v>10538.804194131708</v>
+        <v>10535.7475123473</v>
       </c>
       <c r="AF70" s="105">
         <v>8358.64</v>
@@ -18427,7 +18436,7 @@
         <v>7493.1935070140253</v>
       </c>
       <c r="AL70" s="105">
-        <v>8975.9032541329561</v>
+        <v>8974.1098726793152</v>
       </c>
       <c r="AM70" s="105">
         <v>12380.662357093432</v>
@@ -18439,13 +18448,13 @@
         <v>6884.9620135151163</v>
       </c>
       <c r="AP70" s="105">
-        <v>10678.227194716321</v>
+        <v>10665.687089407198</v>
       </c>
       <c r="AQ70" s="105">
-        <v>8038.9097040276374</v>
+        <v>8038.8924307755551</v>
       </c>
       <c r="AR70" s="89">
-        <v>9738.5359732004326</v>
+        <v>9719.0071526142692</v>
       </c>
       <c r="AS70" s="105"/>
     </row>
@@ -18460,10 +18469,10 @@
         <v>8874.5463298467803</v>
       </c>
       <c r="D71" s="89">
-        <v>11632.497924798976</v>
+        <v>11632.497924799</v>
       </c>
       <c r="E71" s="89">
-        <v>11601.084377079143</v>
+        <v>11531.415142684546</v>
       </c>
       <c r="F71" s="89">
         <v>9295.2763030213882</v>
@@ -18472,7 +18481,7 @@
         <v>7703.6165262677096</v>
       </c>
       <c r="H71" s="89">
-        <v>11395.898639169814</v>
+        <v>11389.916943843344</v>
       </c>
       <c r="I71" s="89">
         <v>8500.11</v>
@@ -18481,7 +18490,7 @@
         <v>8481.22817982165</v>
       </c>
       <c r="K71" s="89">
-        <v>7960.45</v>
+        <v>7960.3559999999998</v>
       </c>
       <c r="L71" s="89">
         <v>8221.3702132209091</v>
@@ -18493,7 +18502,7 @@
         <v>8412.4570978849151</v>
       </c>
       <c r="O71" s="89">
-        <v>9897.3556761304026</v>
+        <v>9900.6005253206986</v>
       </c>
       <c r="P71" s="89">
         <v>12895.018423307707</v>
@@ -18505,13 +18514,13 @@
         <v>7337.7868703860895</v>
       </c>
       <c r="S71" s="89">
-        <v>11440.021145461247</v>
+        <v>11435.822663803319</v>
       </c>
       <c r="T71" s="89">
-        <v>8706.9891802185939</v>
+        <v>8713.0968801641484</v>
       </c>
       <c r="U71" s="89">
-        <v>10575.218965045684</v>
+        <v>10568.680631195148</v>
       </c>
       <c r="V71" s="89"/>
       <c r="X71" s="39" t="s">
@@ -18524,10 +18533,10 @@
         <v>7861.8227301234201</v>
       </c>
       <c r="AA71" s="89">
-        <v>10902.912599598787</v>
+        <v>10898.065009051941</v>
       </c>
       <c r="AB71" s="89">
-        <v>12384.730450722831</v>
+        <v>10131.111048564662</v>
       </c>
       <c r="AC71" s="89">
         <v>9448.7191297773043</v>
@@ -18536,7 +18545,7 @@
         <v>7108.4203148248525</v>
       </c>
       <c r="AE71" s="89">
-        <v>11172.232315032055</v>
+        <v>11143.188737220407</v>
       </c>
       <c r="AF71" s="89">
         <v>8770.74</v>
@@ -18569,13 +18578,13 @@
         <v>7203.4021373271225</v>
       </c>
       <c r="AP71" s="89">
-        <v>10987.430325554233</v>
+        <v>10979.257772503111</v>
       </c>
       <c r="AQ71" s="89">
-        <v>8392.2007634669153</v>
+        <v>8391.6512902171689</v>
       </c>
       <c r="AR71" s="89">
-        <v>10121.587599987122</v>
+        <v>10108.860408441915</v>
       </c>
       <c r="AS71" s="89"/>
     </row>
@@ -18590,10 +18599,10 @@
         <v>8857.1236117312801</v>
       </c>
       <c r="D72" s="108">
-        <v>11619.841929653618</v>
+        <v>11619.630460802069</v>
       </c>
       <c r="E72" s="108">
-        <v>12056.590839200087</v>
+        <v>11850.077192116769</v>
       </c>
       <c r="F72" s="108">
         <v>10107.067690663818</v>
@@ -18602,7 +18611,7 @@
         <v>8067.5535076061133</v>
       </c>
       <c r="H72" s="108">
-        <v>11728.972205745451</v>
+        <v>11731.282990569867</v>
       </c>
       <c r="I72" s="108">
         <v>9381.58</v>
@@ -18611,7 +18620,7 @@
         <v>8972.5878718937201</v>
       </c>
       <c r="K72" s="108">
-        <v>8226.4240000000009</v>
+        <v>8236.6779999999999</v>
       </c>
       <c r="L72" s="108">
         <v>8340.779639616745</v>
@@ -18623,7 +18632,7 @@
         <v>8695.758497017925</v>
       </c>
       <c r="O72" s="108">
-        <v>10969.999312279577</v>
+        <v>10973.932043762386</v>
       </c>
       <c r="P72" s="108">
         <v>12911.995748131705</v>
@@ -18635,13 +18644,13 @@
         <v>7390.0783731565443</v>
       </c>
       <c r="S72" s="108">
-        <v>11565.698337111824</v>
+        <v>11553.906263589814</v>
       </c>
       <c r="T72" s="108">
-        <v>9187.734074045813</v>
+        <v>9192.0391261170334</v>
       </c>
       <c r="U72" s="89">
-        <v>10791.519161581589</v>
+        <v>10773.155257732813</v>
       </c>
       <c r="V72" s="108"/>
       <c r="X72" s="103" t="s">
@@ -18654,10 +18663,10 @@
         <v>8330.05243548219</v>
       </c>
       <c r="AA72" s="108">
-        <v>11598.607597319466</v>
+        <v>11603.752514386699</v>
       </c>
       <c r="AB72" s="108">
-        <v>11907.882936575494</v>
+        <v>10330.628952399522</v>
       </c>
       <c r="AC72" s="108">
         <v>9229.1407911129172</v>
@@ -18666,7 +18675,7 @@
         <v>8043.3771839846077</v>
       </c>
       <c r="AE72" s="108">
-        <v>11604.248402159981</v>
+        <v>11602.554707206702</v>
       </c>
       <c r="AF72" s="108">
         <v>8814.99</v>
@@ -18675,7 +18684,7 @@
         <v>8475.2057609492895</v>
       </c>
       <c r="AH72" s="108">
-        <v>7455.8609999999999</v>
+        <v>7473.723</v>
       </c>
       <c r="AI72" s="108">
         <v>8367.3153559191342</v>
@@ -18699,13 +18708,13 @@
         <v>7457.6689689968362</v>
       </c>
       <c r="AP72" s="108">
-        <v>11309.602332769105</v>
+        <v>11299.974899551702</v>
       </c>
       <c r="AQ72" s="108">
-        <v>8752.1892492574498</v>
+        <v>8753.4314036476171</v>
       </c>
       <c r="AR72" s="108">
-        <v>10493.677999681544</v>
+        <v>10478.685109959064</v>
       </c>
       <c r="AS72" s="108"/>
     </row>
@@ -18720,10 +18729,10 @@
         <v>9009.7828840936199</v>
       </c>
       <c r="D73" s="89">
-        <v>11655.420100588395</v>
+        <v>11642.936976212824</v>
       </c>
       <c r="E73" s="89">
-        <v>11809.118857797373</v>
+        <v>11666.683975472351</v>
       </c>
       <c r="F73" s="89">
         <v>10320.494075769719</v>
@@ -18732,7 +18741,7 @@
         <v>8346.6915389265068</v>
       </c>
       <c r="H73" s="89">
-        <v>11836.150319546379</v>
+        <v>11965.447236062822</v>
       </c>
       <c r="I73" s="89">
         <v>9406.64</v>
@@ -18741,7 +18750,7 @@
         <v>9152.1950871639292</v>
       </c>
       <c r="K73" s="89">
-        <v>8554.8279999999995</v>
+        <v>8562.8150000000005</v>
       </c>
       <c r="L73" s="89">
         <v>8499.8094609273139</v>
@@ -18753,7 +18762,7 @@
         <v>8721.3650861033275</v>
       </c>
       <c r="O73" s="89">
-        <v>10858.944680609382</v>
+        <v>10861.29000831528</v>
       </c>
       <c r="P73" s="89">
         <v>13009.170955826294</v>
@@ -18765,13 +18774,13 @@
         <v>7425.4915589275579</v>
       </c>
       <c r="S73" s="89">
-        <v>11695.347342992738</v>
+        <v>11692.044852275205</v>
       </c>
       <c r="T73" s="89">
-        <v>9268.9274363878412</v>
+        <v>9274.0380450295143</v>
       </c>
       <c r="U73" s="89">
-        <v>10930.396670028473</v>
+        <v>10925.253671056746</v>
       </c>
       <c r="V73" s="89"/>
       <c r="X73" s="39" t="s">
@@ -18784,10 +18793,10 @@
         <v>7853.2892531846401</v>
       </c>
       <c r="AA73" s="89">
-        <v>10703.027988592556</v>
+        <v>10693.880589526609</v>
       </c>
       <c r="AB73" s="89">
-        <v>13567.457554637131</v>
+        <v>10829.744784641298</v>
       </c>
       <c r="AC73" s="89">
         <v>9662.5558324013273</v>
@@ -18796,7 +18805,7 @@
         <v>8282.2017016356203</v>
       </c>
       <c r="AE73" s="89">
-        <v>11181.69013418346</v>
+        <v>12131.137001680863</v>
       </c>
       <c r="AF73" s="89">
         <v>8783.44</v>
@@ -18817,7 +18826,7 @@
         <v>8086.6936090225563</v>
       </c>
       <c r="AL73" s="89">
-        <v>10697.427255842029</v>
+        <v>10720.404439272668</v>
       </c>
       <c r="AM73" s="89">
         <v>12835.956204420827</v>
@@ -18829,17 +18838,17 @@
         <v>7468.296042367977</v>
       </c>
       <c r="AP73" s="89">
-        <v>11427.065851838695</v>
+        <v>11417.56011532282</v>
       </c>
       <c r="AQ73" s="89">
-        <v>8804.397206242711</v>
+        <v>8803.4039324463884</v>
       </c>
       <c r="AR73" s="89">
-        <v>10602.778278720183</v>
+        <v>10587.974908383028</v>
       </c>
       <c r="AS73" s="89"/>
     </row>
-    <row r="74" spans="1:45" ht="13.5" thickBot="1">
+    <row r="74" spans="1:45">
       <c r="A74" s="31" t="s">
         <v>151</v>
       </c>
@@ -18853,7 +18862,7 @@
         <v>11808.458457485347</v>
       </c>
       <c r="E74" s="89">
-        <v>11391.833257137492</v>
+        <v>11243.642648750676</v>
       </c>
       <c r="F74" s="89">
         <v>10459.819704494683</v>
@@ -18862,7 +18871,7 @@
         <v>8386.2143490885555</v>
       </c>
       <c r="H74" s="89">
-        <v>12081.166643897734</v>
+        <v>12139.72537086683</v>
       </c>
       <c r="I74" s="89">
         <v>9732.67</v>
@@ -18871,7 +18880,7 @@
         <v>9390.5223970109491</v>
       </c>
       <c r="K74" s="89">
-        <v>8881.3311004799998</v>
+        <v>8879.4680000000008</v>
       </c>
       <c r="L74" s="89">
         <v>9055.9847347107971</v>
@@ -18883,10 +18892,10 @@
         <v>8948.547043879913</v>
       </c>
       <c r="O74" s="89">
-        <v>11153.216385933854</v>
+        <v>11156.9948585852</v>
       </c>
       <c r="P74" s="89">
-        <v>13301.620715745077</v>
+        <v>13301.62071574501</v>
       </c>
       <c r="Q74" s="89">
         <v>11948.268293969568</v>
@@ -18895,16 +18904,16 @@
         <v>7447.8119319546486</v>
       </c>
       <c r="S74" s="89">
-        <v>11918.73304819129</v>
+        <v>11918.72771729827</v>
       </c>
       <c r="T74" s="89">
-        <v>9473.964127658608</v>
+        <v>9481.0076907525163</v>
       </c>
       <c r="U74" s="89">
-        <v>11159.981343268006</v>
+        <v>11159.973041419593</v>
       </c>
       <c r="V74" s="89"/>
-      <c r="X74" s="111" t="s">
+      <c r="X74" s="38" t="s">
         <v>151</v>
       </c>
       <c r="Y74" s="89">
@@ -18914,10 +18923,10 @@
         <v>8522.1430538162404</v>
       </c>
       <c r="AA74" s="89">
-        <v>10873.970357536411</v>
+        <v>10873.970357536431</v>
       </c>
       <c r="AB74" s="89">
-        <v>12431.434919417659</v>
+        <v>10842.914785585021</v>
       </c>
       <c r="AC74" s="89">
         <v>9593.9997823371614</v>
@@ -18926,7 +18935,7 @@
         <v>8200.7096294912681</v>
       </c>
       <c r="AE74" s="89">
-        <v>11441.678625918423</v>
+        <v>11518.848846649278</v>
       </c>
       <c r="AF74" s="89">
         <v>9127.15</v>
@@ -18935,7 +18944,7 @@
         <v>8450.8058544951</v>
       </c>
       <c r="AH74" s="89">
-        <v>8238.9550434426237</v>
+        <v>8243.5470000000005</v>
       </c>
       <c r="AI74" s="89">
         <v>8848.3156826837367</v>
@@ -18947,10 +18956,10 @@
         <v>8207.0173103448269</v>
       </c>
       <c r="AL74" s="89">
-        <v>11172.709801633777</v>
+        <v>10976.314516616194</v>
       </c>
       <c r="AM74" s="89">
-        <v>12860.873946212841</v>
+        <v>12817.895151153207</v>
       </c>
       <c r="AN74" s="89">
         <v>11111.78819725096</v>
@@ -18959,15 +18968,150 @@
         <v>7565.6679468506263</v>
       </c>
       <c r="AP74" s="89">
-        <v>11346.334569890434</v>
+        <v>11336.735775903175</v>
       </c>
       <c r="AQ74" s="89">
-        <v>9018.9463384464289</v>
+        <v>8997.6354654618608</v>
       </c>
       <c r="AR74" s="89">
-        <v>10497.670619469765</v>
+        <v>10506.343759535819</v>
       </c>
       <c r="AS74" s="89"/>
+    </row>
+    <row r="75" spans="1:45" ht="13.5" thickBot="1">
+      <c r="A75" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="111">
+        <v>8892.57600291159</v>
+      </c>
+      <c r="C75" s="111">
+        <v>9405.0613827437901</v>
+      </c>
+      <c r="D75" s="111">
+        <v>11794.777996266816</v>
+      </c>
+      <c r="E75" s="111">
+        <v>11377.108491077905</v>
+      </c>
+      <c r="F75" s="111">
+        <v>10633.936731191783</v>
+      </c>
+      <c r="G75" s="111">
+        <v>8447.3704438763871</v>
+      </c>
+      <c r="H75" s="111">
+        <v>13124.907814224876</v>
+      </c>
+      <c r="I75" s="111">
+        <v>9834.68</v>
+      </c>
+      <c r="J75" s="111">
+        <v>9465.2927744834742</v>
+      </c>
+      <c r="K75" s="111">
+        <v>9024.4</v>
+      </c>
+      <c r="L75" s="111">
+        <v>9133.2127421017685</v>
+      </c>
+      <c r="M75" s="111">
+        <v>10803.842344056477</v>
+      </c>
+      <c r="N75" s="111">
+        <v>9002.4649810845112</v>
+      </c>
+      <c r="O75" s="111">
+        <v>11959.127089928143</v>
+      </c>
+      <c r="P75" s="111">
+        <v>13713.338963580825</v>
+      </c>
+      <c r="Q75" s="111">
+        <v>12201.379729919574</v>
+      </c>
+      <c r="R75" s="111">
+        <v>7561.5860662902678</v>
+      </c>
+      <c r="S75" s="111">
+        <v>12263.915148488199</v>
+      </c>
+      <c r="T75" s="111">
+        <v>9718.2840281823428</v>
+      </c>
+      <c r="U75" s="111">
+        <v>11491.646366473282</v>
+      </c>
+      <c r="V75" s="111"/>
+      <c r="X75" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y75" s="111">
+        <v>8527.9447710902259</v>
+      </c>
+      <c r="Z75" s="111">
+        <v>8639.4962005659909</v>
+      </c>
+      <c r="AA75" s="111">
+        <v>11384.283905786944</v>
+      </c>
+      <c r="AB75" s="111">
+        <v>10600.185546013268</v>
+      </c>
+      <c r="AC75" s="111">
+        <v>9225.9506999992154</v>
+      </c>
+      <c r="AD75" s="111">
+        <v>8431.9346229594776</v>
+      </c>
+      <c r="AE75" s="111">
+        <v>11669.232895769257</v>
+      </c>
+      <c r="AF75" s="111">
+        <v>8856.1</v>
+      </c>
+      <c r="AG75" s="111">
+        <v>8809.7572105363124</v>
+      </c>
+      <c r="AH75" s="111">
+        <v>7925.5510000000004</v>
+      </c>
+      <c r="AI75" s="111">
+        <v>8826.6710962053712</v>
+      </c>
+      <c r="AJ75" s="111">
+        <v>10067.480404676264</v>
+      </c>
+      <c r="AK75" s="111">
+        <v>8702.7441000000017</v>
+      </c>
+      <c r="AL75" s="111">
+        <v>10748.437688429383</v>
+      </c>
+      <c r="AM75" s="111">
+        <v>13135.442685750286</v>
+      </c>
+      <c r="AN75" s="111">
+        <v>11396.559746116665</v>
+      </c>
+      <c r="AO75" s="111">
+        <v>7473.0058068744111</v>
+      </c>
+      <c r="AP75" s="111">
+        <v>11488.698789757438</v>
+      </c>
+      <c r="AQ75" s="111">
+        <v>8931.587876815398</v>
+      </c>
+      <c r="AR75" s="111">
+        <v>10556.051959666709</v>
+      </c>
+      <c r="AS75" s="111"/>
+    </row>
+    <row r="76" spans="1:45">
+      <c r="AB76" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18993,13 +19137,13 @@
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CP74"/>
+  <dimension ref="A1:CP75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -20713,7 +20857,7 @@
         <v>109.92409554283067</v>
       </c>
       <c r="BP12" s="10">
-        <f t="shared" ref="BP12:BP74" si="0">+BL12*BP11/100</f>
+        <f t="shared" ref="BP12:BP75" si="0">+BL12*BP11/100</f>
         <v>158.67697975230831</v>
       </c>
       <c r="BQ12" s="15"/>
@@ -27471,7 +27615,7 @@
         <v>4946</v>
       </c>
       <c r="O38" s="9">
-        <v>4370.1150249620487</v>
+        <v>4370.1150249620441</v>
       </c>
       <c r="P38" s="9">
         <v>8622.1758425114531</v>
@@ -27537,7 +27681,7 @@
         <v>4384</v>
       </c>
       <c r="AL38" s="9">
-        <v>3819.3916514632192</v>
+        <v>3823.5556921379552</v>
       </c>
       <c r="AM38" s="9">
         <v>7169.8190907402341</v>
@@ -27552,7 +27696,7 @@
         <v>5637.2838468974869</v>
       </c>
       <c r="AQ38" s="9">
-        <v>3787.5635829011994</v>
+        <v>3788.1794167591656</v>
       </c>
       <c r="AR38" s="50">
         <v>4783.1879514447719</v>
@@ -27735,7 +27879,7 @@
         <v>4908</v>
       </c>
       <c r="O39" s="9">
-        <v>4293.8299770370086</v>
+        <v>4293.8299770370077</v>
       </c>
       <c r="P39" s="9">
         <v>8690.6828682414125</v>
@@ -27801,7 +27945,7 @@
         <v>4455</v>
       </c>
       <c r="AL39" s="9">
-        <v>3709.749248660672</v>
+        <v>3709.7492486606748</v>
       </c>
       <c r="AM39" s="9">
         <v>7331.508015813125</v>
@@ -27816,7 +27960,7 @@
         <v>5743.6581092272663</v>
       </c>
       <c r="AQ39" s="9">
-        <v>3865.4496161638408</v>
+        <v>3865.6658464057823</v>
       </c>
       <c r="AR39" s="50">
         <v>4858.734846817224</v>
@@ -28000,7 +28144,7 @@
         <v>4933</v>
       </c>
       <c r="O40" s="30">
-        <v>4273.1244939507687</v>
+        <v>4273.1244939507642</v>
       </c>
       <c r="P40" s="30">
         <v>8625.7761802928908</v>
@@ -28064,7 +28208,7 @@
         <v>4551</v>
       </c>
       <c r="AL40" s="30">
-        <v>3760.6867674276527</v>
+        <v>3762.1488358971105</v>
       </c>
       <c r="AM40" s="30">
         <v>7365.2985337850669</v>
@@ -28076,13 +28220,13 @@
         <v>3277</v>
       </c>
       <c r="AP40" s="50">
-        <v>5751.2681744196161</v>
+        <v>5751.8343285889932</v>
       </c>
       <c r="AQ40" s="30">
         <v>3837.7505927860625</v>
       </c>
       <c r="AR40" s="50">
-        <v>4851.7543064295987</v>
+        <v>4852.6359834909408</v>
       </c>
       <c r="AS40" s="30"/>
       <c r="AU40" s="38" t="s">
@@ -28320,7 +28464,7 @@
         <v>4582</v>
       </c>
       <c r="AL41" s="30">
-        <v>3986.1288640246948</v>
+        <v>3986.1288640246953</v>
       </c>
       <c r="AM41" s="30">
         <v>7386.7222473108686</v>
@@ -28512,7 +28656,7 @@
         <v>4959</v>
       </c>
       <c r="O42" s="27">
-        <v>4305.212586557378</v>
+        <v>4305.2125865573789</v>
       </c>
       <c r="P42" s="27">
         <v>8607.9194811783018</v>
@@ -28576,7 +28720,7 @@
         <v>4485</v>
       </c>
       <c r="AL42" s="27">
-        <v>3737.6863667664788</v>
+        <v>3732.226847904421</v>
       </c>
       <c r="AM42" s="27">
         <v>7334.787728555073</v>
@@ -28591,7 +28735,7 @@
         <v>5760.6005364256753</v>
       </c>
       <c r="AQ42" s="27">
-        <v>3817.2953038433898</v>
+        <v>3816.4878774399485</v>
       </c>
       <c r="AR42" s="49">
         <v>4883.2916294847864</v>
@@ -28768,7 +28912,7 @@
         <v>5010</v>
       </c>
       <c r="O43" s="29">
-        <v>4393.3998703051257</v>
+        <v>4393.3998703051238</v>
       </c>
       <c r="P43" s="29">
         <v>8552.5150451045538</v>
@@ -28832,7 +28976,7 @@
         <v>4533</v>
       </c>
       <c r="AL43" s="29">
-        <v>3814.6109494345278</v>
+        <v>3812.7009030700583</v>
       </c>
       <c r="AM43" s="29">
         <v>7308.4740387315178</v>
@@ -28847,7 +28991,7 @@
         <v>5790.922840388961</v>
       </c>
       <c r="AQ43" s="29">
-        <v>3834.6274153183008</v>
+        <v>3834.3449322694855</v>
       </c>
       <c r="AR43" s="43">
         <v>4945.1776904090129</v>
@@ -29024,7 +29168,7 @@
         <v>4973</v>
       </c>
       <c r="O44" s="29">
-        <v>4196.1159690231234</v>
+        <v>4196.1159690231225</v>
       </c>
       <c r="P44" s="29">
         <v>8565.0264996862243</v>
@@ -29088,7 +29232,7 @@
         <v>4435</v>
       </c>
       <c r="AL44" s="29">
-        <v>3891.0127913950305</v>
+        <v>3892.2778091906898</v>
       </c>
       <c r="AM44" s="29">
         <v>7447.388579387467</v>
@@ -29103,7 +29247,7 @@
         <v>5869.0646353289922</v>
       </c>
       <c r="AQ44" s="30">
-        <v>3877.5629267257073</v>
+        <v>3877.7500144405826</v>
       </c>
       <c r="AR44" s="50">
         <v>4989.4502792013491</v>
@@ -29280,7 +29424,7 @@
         <v>4954</v>
       </c>
       <c r="O45" s="29">
-        <v>4218.1545817231927</v>
+        <v>4218.1545817231918</v>
       </c>
       <c r="P45" s="29">
         <v>8655.3381260269562</v>
@@ -29344,7 +29488,7 @@
         <v>4463</v>
       </c>
       <c r="AL45" s="29">
-        <v>3741.4405629344169</v>
+        <v>3740.6567000978762</v>
       </c>
       <c r="AM45" s="29">
         <v>7401.1062060000004</v>
@@ -29359,7 +29503,7 @@
         <v>5823.1775557720412</v>
       </c>
       <c r="AQ45" s="30">
-        <v>3856.3603527311657</v>
+        <v>3856.2444246278142</v>
       </c>
       <c r="AR45" s="50">
         <v>4943.7835002923002</v>
@@ -29536,7 +29680,7 @@
         <v>4916</v>
       </c>
       <c r="O46" s="36">
-        <v>4413.4825424192541</v>
+        <v>4413.4825424192577</v>
       </c>
       <c r="P46" s="36">
         <v>8657.8739999999998</v>
@@ -29601,7 +29745,7 @@
         <v>4623</v>
       </c>
       <c r="AL46" s="36">
-        <v>3787.3919807497696</v>
+        <v>3787.3919807497705</v>
       </c>
       <c r="AM46" s="36">
         <v>7433.7497782149485</v>
@@ -29794,7 +29938,7 @@
         <v>4914</v>
       </c>
       <c r="O47" s="40">
-        <v>4348.6752363861497</v>
+        <v>4348.6752363861506</v>
       </c>
       <c r="P47" s="40">
         <v>8720.9118422797801</v>
@@ -29859,7 +30003,7 @@
         <v>4591</v>
       </c>
       <c r="AL47" s="40">
-        <v>3996.5077502877307</v>
+        <v>3996.5077502877343</v>
       </c>
       <c r="AM47" s="40">
         <v>7355.3848567645691</v>
@@ -30052,7 +30196,7 @@
         <v>4954</v>
       </c>
       <c r="O48" s="27">
-        <v>4381.332967767361</v>
+        <v>4381.3329677673555</v>
       </c>
       <c r="P48" s="27">
         <v>8777.9413432623805</v>
@@ -30117,7 +30261,7 @@
         <v>4514</v>
       </c>
       <c r="AL48" s="37">
-        <v>4003.6118318494587</v>
+        <v>4006.3482062597755</v>
       </c>
       <c r="AM48" s="37">
         <v>7308.6098234668807</v>
@@ -30132,7 +30276,7 @@
         <v>5826.0376462609656</v>
       </c>
       <c r="AQ48" s="37">
-        <v>3984.8513294004169</v>
+        <v>3985.2560208425184</v>
       </c>
       <c r="AR48" s="50">
         <v>4999.3088509208546</v>
@@ -30309,7 +30453,7 @@
         <v>4953</v>
       </c>
       <c r="O49" s="27">
-        <v>4349.949470097773</v>
+        <v>4349.9494700977739</v>
       </c>
       <c r="P49" s="27">
         <v>8708.5715171032862</v>
@@ -30374,7 +30518,7 @@
         <v>4642</v>
       </c>
       <c r="AL49" s="37">
-        <v>3998.3511145249236</v>
+        <v>3998.3511145249249</v>
       </c>
       <c r="AM49" s="37">
         <v>7555.880696854666</v>
@@ -30566,7 +30710,7 @@
         <v>4995</v>
       </c>
       <c r="O50" s="27">
-        <v>4431.2694468556083</v>
+        <v>4431.2694468556101</v>
       </c>
       <c r="P50" s="27">
         <v>8815.7340000000004</v>
@@ -30631,7 +30775,7 @@
         <v>4651</v>
       </c>
       <c r="AL50" s="37">
-        <v>3995.4527397015227</v>
+        <v>3995.4527397015268</v>
       </c>
       <c r="AM50" s="50">
         <v>7428.848</v>
@@ -30823,7 +30967,7 @@
         <v>5023</v>
       </c>
       <c r="O51" s="42">
-        <v>4452.870275640892</v>
+        <v>4452.8702756408984</v>
       </c>
       <c r="P51" s="42">
         <v>8884.9680000000008</v>
@@ -30888,7 +31032,7 @@
         <v>4763</v>
       </c>
       <c r="AL51" s="40">
-        <v>4138.1534877867671</v>
+        <v>4138.1534877867643</v>
       </c>
       <c r="AM51" s="50">
         <v>7820.91</v>
@@ -31079,7 +31223,7 @@
         <v>5121</v>
       </c>
       <c r="O52" s="49">
-        <v>4649.9607285503253</v>
+        <v>4649.9607285503271</v>
       </c>
       <c r="P52" s="49">
         <v>9008.7109999999993</v>
@@ -31144,7 +31288,7 @@
         <v>4744</v>
       </c>
       <c r="AL52" s="49">
-        <v>4262.3202848368228</v>
+        <v>4265.4290314650607</v>
       </c>
       <c r="AM52" s="49">
         <v>8019.9520000000002</v>
@@ -31159,7 +31303,7 @@
         <v>6373.5293173985283</v>
       </c>
       <c r="AQ52" s="49">
-        <v>4140.6282654475062</v>
+        <v>4141.0880282218441</v>
       </c>
       <c r="AR52" s="49">
         <v>5455.9629686416429</v>
@@ -31335,7 +31479,7 @@
         <v>5225</v>
       </c>
       <c r="O53" s="52">
-        <v>4632.9841950699974</v>
+        <v>4632.9841950699947</v>
       </c>
       <c r="P53" s="52">
         <v>9235.3439999999991</v>
@@ -31400,7 +31544,7 @@
         <v>4677</v>
       </c>
       <c r="AL53" s="52">
-        <v>4315.4065348698459</v>
+        <v>4316.4471020395686</v>
       </c>
       <c r="AM53" s="52">
         <v>8053.8540000000003</v>
@@ -31415,7 +31559,7 @@
         <v>6445.0207415314007</v>
       </c>
       <c r="AQ53" s="52">
-        <v>4186.5145532469933</v>
+        <v>4186.6684461577697</v>
       </c>
       <c r="AR53" s="52">
         <v>5548.4031445446763</v>
@@ -31591,7 +31735,7 @@
         <v>5394</v>
       </c>
       <c r="O54" s="52">
-        <v>4752.4613254857077</v>
+        <v>4752.461325485704</v>
       </c>
       <c r="P54" s="52">
         <v>9346.3467628722228</v>
@@ -31656,7 +31800,7 @@
         <v>4945</v>
       </c>
       <c r="AL54" s="52">
-        <v>4375.1604268122428</v>
+        <v>4375.3484743135514</v>
       </c>
       <c r="AM54" s="52">
         <v>8047.1356877183443</v>
@@ -31671,7 +31815,7 @@
         <v>6478.0253540923213</v>
       </c>
       <c r="AQ54" s="52">
-        <v>4267.1476857075722</v>
+        <v>4267.175496603164</v>
       </c>
       <c r="AR54" s="52">
         <v>5603.5458268773873</v>
@@ -31912,7 +32056,7 @@
         <v>4989</v>
       </c>
       <c r="AL55" s="52">
-        <v>4555.3014680719516</v>
+        <v>4555.3014680719525</v>
       </c>
       <c r="AM55" s="52">
         <v>8393.999957101676</v>
@@ -32103,7 +32247,7 @@
         <v>5476</v>
       </c>
       <c r="O56" s="62">
-        <v>4975.4745591506644</v>
+        <v>4975.4745591506726</v>
       </c>
       <c r="P56" s="62">
         <v>9611.9812810784424</v>
@@ -32168,7 +32312,7 @@
         <v>5044</v>
       </c>
       <c r="AL56" s="62">
-        <v>4783.3684745061109</v>
+        <v>4781.0779475323216</v>
       </c>
       <c r="AM56" s="62">
         <v>8603.6383568722231</v>
@@ -32183,7 +32327,7 @@
         <v>6940.5348153062369</v>
       </c>
       <c r="AQ56" s="62">
-        <v>4554.1571955274667</v>
+        <v>4553.8184418794635</v>
       </c>
       <c r="AR56" s="62">
         <v>6009.477763338451</v>
@@ -32359,7 +32503,7 @@
         <v>5659</v>
       </c>
       <c r="O57" s="62">
-        <v>5176.8057634326078</v>
+        <v>5176.8057634326051</v>
       </c>
       <c r="P57" s="62">
         <v>10277.193567202436</v>
@@ -32423,7 +32567,7 @@
         <v>5106</v>
       </c>
       <c r="AL57" s="62">
-        <v>4815.7990885458366</v>
+        <v>4814.662744362975</v>
       </c>
       <c r="AM57" s="62">
         <v>8761.8591856653838</v>
@@ -32438,7 +32582,7 @@
         <v>7154.1165472868652</v>
       </c>
       <c r="AQ57" s="62">
-        <v>4630.5064659754089</v>
+        <v>4630.3384081380027</v>
       </c>
       <c r="AR57" s="62">
         <v>6243.8359236751485</v>
@@ -32612,7 +32756,7 @@
         <v>5851</v>
       </c>
       <c r="O58" s="62">
-        <v>5453.2459009314689</v>
+        <v>5453.2459009314716</v>
       </c>
       <c r="P58" s="62">
         <v>10287.431170226711</v>
@@ -32676,7 +32820,7 @@
         <v>5546</v>
       </c>
       <c r="AL58" s="62">
-        <v>5075.1438994882374</v>
+        <v>5074.1090969916013</v>
       </c>
       <c r="AM58" s="62">
         <v>8984.5159532638008</v>
@@ -32691,7 +32835,7 @@
         <v>7231.2436329248685</v>
       </c>
       <c r="AQ58" s="62">
-        <v>4784.3977380331135</v>
+        <v>4784.2446977273403</v>
       </c>
       <c r="AR58" s="62">
         <v>6235.3293932248916</v>
@@ -32865,7 +33009,7 @@
         <v>6132</v>
       </c>
       <c r="O59" s="68">
-        <v>5657.4729879484357</v>
+        <v>5657.4729879484385</v>
       </c>
       <c r="P59" s="68">
         <v>10575.00646863331</v>
@@ -32929,7 +33073,7 @@
         <v>5697</v>
       </c>
       <c r="AL59" s="68">
-        <v>5183.6501247808428</v>
+        <v>5185.9318627566809</v>
       </c>
       <c r="AM59" s="68">
         <v>9243.2715490724295</v>
@@ -32944,7 +33088,7 @@
         <v>7448.2738988205747</v>
       </c>
       <c r="AQ59" s="68">
-        <v>4946.4211178386886</v>
+        <v>4946.7585716522826</v>
       </c>
       <c r="AR59" s="68">
         <v>6443.2045027711356</v>
@@ -33118,7 +33262,7 @@
         <v>6243</v>
       </c>
       <c r="O60" s="68">
-        <v>5786.0176491401926</v>
+        <v>5786.0176491401962</v>
       </c>
       <c r="P60" s="68">
         <v>10815.52646768299</v>
@@ -33173,7 +33317,7 @@
         <v>5171.33</v>
       </c>
       <c r="AI60" s="68">
-        <v>5004.0862976032095</v>
+        <v>4992.8420365358515</v>
       </c>
       <c r="AJ60" s="68">
         <v>6447.6675116328597</v>
@@ -33182,7 +33326,7 @@
         <v>5708</v>
       </c>
       <c r="AL60" s="68">
-        <v>5358.7063164872206</v>
+        <v>5358.706316487217</v>
       </c>
       <c r="AM60" s="68">
         <v>9456.8968140358174</v>
@@ -33371,7 +33515,7 @@
         <v>6552</v>
       </c>
       <c r="O61" s="62">
-        <v>5856.6669951511576</v>
+        <v>5856.6669951511585</v>
       </c>
       <c r="P61" s="62">
         <v>11191.651752457912</v>
@@ -33435,7 +33579,7 @@
         <v>5731</v>
       </c>
       <c r="AL61" s="62">
-        <v>5521.4294947506487</v>
+        <v>5524.6594819858674</v>
       </c>
       <c r="AM61" s="62">
         <v>9812.4236830942209</v>
@@ -33450,7 +33594,7 @@
         <v>7931.0889695821579</v>
       </c>
       <c r="AQ61" s="62">
-        <v>5235.9458648482796</v>
+        <v>5236.381739782646</v>
       </c>
       <c r="AR61" s="62">
         <v>6877.9269241033671</v>
@@ -33624,7 +33768,7 @@
         <v>6904</v>
       </c>
       <c r="O62" s="68">
-        <v>6158.5870601347824</v>
+        <v>6158.5870601347833</v>
       </c>
       <c r="P62" s="68">
         <v>11655.766814645836</v>
@@ -33676,7 +33820,7 @@
         <v>5011</v>
       </c>
       <c r="AH62" s="68">
-        <v>5439.2619999999997</v>
+        <v>5449.1310000000003</v>
       </c>
       <c r="AI62" s="68">
         <v>5188.6159826586527</v>
@@ -33688,7 +33832,7 @@
         <v>6313</v>
       </c>
       <c r="AL62" s="68">
-        <v>5714.1977085477756</v>
+        <v>5698.2559532845817</v>
       </c>
       <c r="AM62" s="68">
         <v>10003.455791896691</v>
@@ -33703,7 +33847,7 @@
         <v>8133.6558455655513</v>
       </c>
       <c r="AQ62" s="68">
-        <v>5432.7650983475332</v>
+        <v>5430.4074190883148</v>
       </c>
       <c r="AR62" s="68">
         <v>7089.8338364302708</v>
@@ -33877,7 +34021,7 @@
         <v>7006.49</v>
       </c>
       <c r="O63" s="68">
-        <v>6217.7885540927737</v>
+        <v>6217.7885540927718</v>
       </c>
       <c r="P63" s="68">
         <v>11520.582685134954</v>
@@ -33929,7 +34073,7 @@
         <v>5245.0870122041997</v>
       </c>
       <c r="AH63" s="68">
-        <v>5622.2060000000001</v>
+        <v>5630.1360000000004</v>
       </c>
       <c r="AI63" s="68">
         <v>5474.0187245024963</v>
@@ -33941,7 +34085,7 @@
         <v>6610.9</v>
       </c>
       <c r="AL63" s="68">
-        <v>5896.5888929175862</v>
+        <v>5881.7607943669627</v>
       </c>
       <c r="AM63" s="68">
         <v>10288.205409382141</v>
@@ -33956,7 +34100,7 @@
         <v>8367.8164758787825</v>
       </c>
       <c r="AQ63" s="68">
-        <v>5691.2754486471258</v>
+        <v>5689.2826429144352</v>
       </c>
       <c r="AR63" s="68">
         <v>7295.9273995491367</v>
@@ -34130,7 +34274,7 @@
         <v>7066.55</v>
       </c>
       <c r="O64" s="84">
-        <v>6301.5353643798489</v>
+        <v>6301.535364379848</v>
       </c>
       <c r="P64" s="84">
         <v>11713.086915500178</v>
@@ -34183,7 +34327,7 @@
         <v>5612.9854853578699</v>
       </c>
       <c r="AH64" s="84">
-        <v>5679.3509999999997</v>
+        <v>5665.5079999999998</v>
       </c>
       <c r="AI64" s="84">
         <v>5428.5328793058752</v>
@@ -34195,7 +34339,7 @@
         <v>6516.03</v>
       </c>
       <c r="AL64" s="84">
-        <v>6099.4633870992675</v>
+        <v>6093.9691103795267</v>
       </c>
       <c r="AM64" s="84">
         <v>10470.220730138073</v>
@@ -34210,7 +34354,7 @@
         <v>8563.8792927556005</v>
       </c>
       <c r="AQ64" s="84">
-        <v>5680.738291130564</v>
+        <v>5679.9257242510248</v>
       </c>
       <c r="AR64" s="84">
         <v>7501.457790119699</v>
@@ -34385,7 +34529,7 @@
         <v>7133.04</v>
       </c>
       <c r="O65" s="68">
-        <v>6458.6280411582102</v>
+        <v>6458.6280411582093</v>
       </c>
       <c r="P65" s="68">
         <v>11892.844515624549</v>
@@ -34450,7 +34594,7 @@
         <v>6713.05</v>
       </c>
       <c r="AL65" s="68">
-        <v>6145.1508112681076</v>
+        <v>6193.5246815165201</v>
       </c>
       <c r="AM65" s="68">
         <v>10671.164752451083</v>
@@ -34465,7 +34609,7 @@
         <v>8741.6088802613067</v>
       </c>
       <c r="AQ65" s="68">
-        <v>5772.2995285674715</v>
+        <v>5779.4537010654585</v>
       </c>
       <c r="AR65" s="68">
         <v>7666.7875951241049</v>
@@ -34640,7 +34784,7 @@
         <v>7246.23</v>
       </c>
       <c r="O66" s="84">
-        <v>6609.4868433468591</v>
+        <v>6609.4868433468637</v>
       </c>
       <c r="P66" s="84">
         <v>12221.1447840234</v>
@@ -34693,7 +34837,7 @@
         <v>5433.2797144465503</v>
       </c>
       <c r="AH66" s="84">
-        <v>5816.576</v>
+        <v>5812.76</v>
       </c>
       <c r="AI66" s="84">
         <v>5566.9133189003569</v>
@@ -34705,7 +34849,7 @@
         <v>6626.75</v>
       </c>
       <c r="AL66" s="84">
-        <v>6193.5361052810795</v>
+        <v>6210.6388683789837</v>
       </c>
       <c r="AM66" s="84">
         <v>10878.860928948307</v>
@@ -34720,7 +34864,7 @@
         <v>8885.413361304154</v>
       </c>
       <c r="AQ66" s="84">
-        <v>5870.6082429655926</v>
+        <v>5873.1376274073336</v>
       </c>
       <c r="AR66" s="84">
         <v>7763.2267069594709</v>
@@ -34895,7 +35039,7 @@
         <v>7383.68</v>
       </c>
       <c r="O67" s="89">
-        <v>6829.8209975314549</v>
+        <v>6829.8209975314594</v>
       </c>
       <c r="P67" s="89">
         <v>12462.708411461119</v>
@@ -34948,19 +35092,19 @@
         <v>5800.0175169187596</v>
       </c>
       <c r="AH67" s="89">
-        <v>5991.3850000000002</v>
+        <v>5989.366</v>
       </c>
       <c r="AI67" s="89">
         <v>5605.1100834360859</v>
       </c>
       <c r="AJ67" s="89">
-        <v>7420.214270768126</v>
+        <v>7425.0266125286098</v>
       </c>
       <c r="AK67" s="89">
         <v>6957.49</v>
       </c>
       <c r="AL67" s="89">
-        <v>6438.1423088069541</v>
+        <v>6444.682164154061</v>
       </c>
       <c r="AM67" s="89">
         <v>11217.521959956764</v>
@@ -34972,13 +35116,13 @@
         <v>5173.989535089604</v>
       </c>
       <c r="AP67" s="89">
-        <v>9194.3789367845839</v>
+        <v>9194.9028022350067</v>
       </c>
       <c r="AQ67" s="89">
-        <v>6090.9347442554508</v>
+        <v>6091.901945139206</v>
       </c>
       <c r="AR67" s="89">
-        <v>8058.6020625273813</v>
+        <v>8059.4178829802713</v>
       </c>
       <c r="AS67" s="89"/>
       <c r="AT67" s="75"/>
@@ -35016,7 +35160,7 @@
         <v>100.87146254921944</v>
       </c>
       <c r="BF67" s="87">
-        <v>103.38606698396924</v>
+        <v>103.42925324914334</v>
       </c>
       <c r="BG67" s="87">
         <v>101.32802124833998</v>
@@ -35034,18 +35178,18 @@
         <v>111.3823077455735</v>
       </c>
       <c r="BL67" s="87">
-        <v>103.4271936177979</v>
+        <v>103.43189481988567</v>
       </c>
       <c r="BM67" s="87">
         <v>105.39692774347824</v>
       </c>
       <c r="BN67" s="87">
-        <v>103.47503411959289</v>
+        <v>103.48235534456256</v>
       </c>
       <c r="BO67" s="87"/>
       <c r="BP67" s="65">
         <f t="shared" si="0"/>
-        <v>206.58237844563845</v>
+        <v>206.59176848586748</v>
       </c>
       <c r="BR67" s="87">
         <v>116.33114801232416</v>
@@ -35078,7 +35222,7 @@
         <v>104.39516062452296</v>
       </c>
       <c r="CB67" s="87">
-        <v>105.30851319983725</v>
+        <v>105.3525025062188</v>
       </c>
       <c r="CC67" s="87">
         <v>99.869109947643963</v>
@@ -35096,13 +35240,13 @@
         <v>107.25752924275658</v>
       </c>
       <c r="CH67" s="87">
-        <v>107.46990021569901</v>
+        <v>107.47468883583475</v>
       </c>
       <c r="CI67" s="87">
         <v>108.42395690286058</v>
       </c>
       <c r="CJ67" s="87">
-        <v>107.16527325599546</v>
+        <v>107.17273061789004</v>
       </c>
       <c r="CK67" s="88"/>
     </row>
@@ -35150,7 +35294,7 @@
         <v>7553.39</v>
       </c>
       <c r="O68" s="89">
-        <v>7212.209372238518</v>
+        <v>7212.2093722385189</v>
       </c>
       <c r="P68" s="89">
         <v>12953.032778756069</v>
@@ -35208,13 +35352,13 @@
         <v>5773.8232521599066</v>
       </c>
       <c r="AJ68" s="89">
-        <v>7674.4746866715332</v>
+        <v>7676.1754344905294</v>
       </c>
       <c r="AK68" s="89">
         <v>7032.61</v>
       </c>
       <c r="AL68" s="89">
-        <v>6759.3105706040251</v>
+        <v>6723.7059461206563</v>
       </c>
       <c r="AM68" s="89">
         <v>11584.651622293683</v>
@@ -35226,13 +35370,13 @@
         <v>5375.1812322603646</v>
       </c>
       <c r="AP68" s="89">
-        <v>9488.9131877421023</v>
+        <v>9489.0983289048072</v>
       </c>
       <c r="AQ68" s="89">
-        <v>6267.3706303213776</v>
+        <v>6262.1049440384622</v>
       </c>
       <c r="AR68" s="89">
-        <v>8316.2425193208492</v>
+        <v>8316.5308413453004</v>
       </c>
       <c r="AS68" s="89"/>
       <c r="AU68" s="38" t="s">
@@ -35269,7 +35413,7 @@
         <v>102.24712104107371</v>
       </c>
       <c r="BF68" s="87">
-        <v>102.61439650252373</v>
+        <v>102.60415691008227</v>
       </c>
       <c r="BG68" s="87">
         <v>100.52424639580605</v>
@@ -35287,18 +35431,18 @@
         <v>101.67929644947311</v>
       </c>
       <c r="BL68" s="87">
-        <v>102.51793886145029</v>
+        <v>102.51682419239592</v>
       </c>
       <c r="BM68" s="87">
         <v>102.71829830494195</v>
       </c>
       <c r="BN68" s="87">
-        <v>102.62742576534617</v>
+        <v>102.62568988104223</v>
       </c>
       <c r="BO68" s="87"/>
       <c r="BP68" s="65">
         <f t="shared" si="0"/>
-        <v>211.78399643342948</v>
+        <v>211.79132009461836</v>
       </c>
       <c r="BR68" s="87">
         <v>114.47855086645062</v>
@@ -35331,7 +35475,7 @@
         <v>106.69937359170589</v>
       </c>
       <c r="CB68" s="87">
-        <v>107.40820468449374</v>
+        <v>107.44234864098141</v>
       </c>
       <c r="CC68" s="87">
         <v>103.85917400135412</v>
@@ -35349,13 +35493,13 @@
         <v>120.65862177190274</v>
       </c>
       <c r="CH68" s="87">
-        <v>109.42138456315581</v>
+        <v>109.4251014309812</v>
       </c>
       <c r="CI68" s="87">
         <v>110.7206310969204</v>
       </c>
       <c r="CJ68" s="87">
-        <v>108.30577501017098</v>
+        <v>108.31156332239924</v>
       </c>
       <c r="CK68" s="88"/>
     </row>
@@ -35403,7 +35547,7 @@
         <v>7836.4215789473647</v>
       </c>
       <c r="O69" s="105">
-        <v>7665.6974483072827</v>
+        <v>7665.6974483072809</v>
       </c>
       <c r="P69" s="105">
         <v>13304.971272596931</v>
@@ -35461,13 +35605,13 @@
         <v>6083.1545417385651</v>
       </c>
       <c r="AJ69" s="105">
-        <v>7860.5117538431068</v>
+        <v>7861.9737562201854</v>
       </c>
       <c r="AK69" s="105">
         <v>7494.6655913978475</v>
       </c>
       <c r="AL69" s="105">
-        <v>6952.7437765594013</v>
+        <v>6905.6870846934098</v>
       </c>
       <c r="AM69" s="105">
         <v>11845.079327479267</v>
@@ -35479,13 +35623,13 @@
         <v>5568.3023098137601</v>
       </c>
       <c r="AP69" s="105">
-        <v>9757.662958073457</v>
+        <v>9757.8221097580736</v>
       </c>
       <c r="AQ69" s="105">
-        <v>6492.3634576938857</v>
+        <v>6485.4040871743609</v>
       </c>
       <c r="AR69" s="105">
-        <v>8594.6495749736077</v>
+        <v>8594.8974233463468</v>
       </c>
       <c r="AS69" s="105"/>
       <c r="AU69" s="72" t="s">
@@ -35522,7 +35666,7 @@
         <v>101.36909911509291</v>
       </c>
       <c r="BF69" s="106">
-        <v>102.85924682736611</v>
+        <v>102.84210996187579</v>
       </c>
       <c r="BG69" s="106">
         <v>104.30247718383312</v>
@@ -35540,18 +35684,18 @@
         <v>104.09045014168173</v>
       </c>
       <c r="BL69" s="106">
-        <v>103.57959980510063</v>
+        <v>103.5777343076445</v>
       </c>
       <c r="BM69" s="106">
         <v>103.71710233459541</v>
       </c>
       <c r="BN69" s="106">
-        <v>103.0366548544408</v>
+        <v>103.03374969820598</v>
       </c>
       <c r="BO69" s="106"/>
       <c r="BP69" s="65">
         <f t="shared" si="0"/>
-        <v>219.36501595699482</v>
+        <v>219.36865081425674</v>
       </c>
       <c r="BR69" s="106">
         <v>116.21149262326243</v>
@@ -35584,7 +35728,7 @@
         <v>105.48232643082551</v>
       </c>
       <c r="CB69" s="106">
-        <v>109.67426572443976</v>
+        <v>109.69085194794859</v>
       </c>
       <c r="CC69" s="106">
         <v>105.47132498352012</v>
@@ -35602,13 +35746,13 @@
         <v>114.13326452406839</v>
       </c>
       <c r="CH69" s="106">
-        <v>111.89107706352897</v>
+        <v>111.8928826187969</v>
       </c>
       <c r="CI69" s="106">
         <v>112.71923067610922</v>
       </c>
       <c r="CJ69" s="106">
-        <v>112.44146704582454</v>
+        <v>112.44427885354202</v>
       </c>
       <c r="CK69" s="107"/>
     </row>
@@ -35656,10 +35800,10 @@
         <v>8125.5085472973014</v>
       </c>
       <c r="O70" s="105">
-        <v>7916.6075091885614</v>
+        <v>7916.6075091885632</v>
       </c>
       <c r="P70" s="105">
-        <v>13365.569005188116</v>
+        <v>13365.56900518811</v>
       </c>
       <c r="Q70" s="105">
         <v>10074.836874008533</v>
@@ -35714,16 +35858,16 @@
         <v>6200.6107951878375</v>
       </c>
       <c r="AJ70" s="105">
-        <v>8130.4993341302261</v>
+        <v>8124.8941033521678</v>
       </c>
       <c r="AK70" s="105">
         <v>7791.8483236994207</v>
       </c>
       <c r="AL70" s="105">
-        <v>7703.6333423938568</v>
+        <v>7669.1556030600213</v>
       </c>
       <c r="AM70" s="105">
-        <v>12251.079550973016</v>
+        <v>12251.079550973045</v>
       </c>
       <c r="AN70" s="105">
         <v>9202.3804711856028</v>
@@ -35732,13 +35876,13 @@
         <v>5719.4647004459939</v>
       </c>
       <c r="AP70" s="105">
-        <v>10038.382776479213</v>
+        <v>10037.772598137248</v>
       </c>
       <c r="AQ70" s="105">
-        <v>6874.3212582202141</v>
+        <v>6869.2222308517694</v>
       </c>
       <c r="AR70" s="105">
-        <v>8801.5180675505853</v>
+        <v>8800.5678312429882</v>
       </c>
       <c r="AS70" s="105"/>
       <c r="AU70" s="103" t="s">
@@ -35775,7 +35919,7 @@
         <v>105.43581693310971</v>
       </c>
       <c r="BF70" s="106">
-        <v>104.04007887312801</v>
+        <v>104.01131504405639</v>
       </c>
       <c r="BG70" s="106">
         <v>97.0625</v>
@@ -35793,18 +35937,18 @@
         <v>100.63085921266396</v>
       </c>
       <c r="BL70" s="106">
-        <v>103.27263303603418</v>
+        <v>103.26950184205994</v>
       </c>
       <c r="BM70" s="106">
         <v>104.61977998270301</v>
       </c>
       <c r="BN70" s="106">
-        <v>103.1400974571995</v>
+        <v>103.13522122021136</v>
       </c>
       <c r="BO70" s="106"/>
       <c r="BP70" s="65">
         <f t="shared" si="0"/>
-        <v>226.54402793870509</v>
+        <v>226.5409128935309</v>
       </c>
       <c r="BR70" s="106">
         <v>119.83153070600301</v>
@@ -35837,7 +35981,7 @@
         <v>110.23338924535761</v>
       </c>
       <c r="CB70" s="106">
-        <v>113.53096313895543</v>
+        <v>113.51674010862574</v>
       </c>
       <c r="CC70" s="106">
         <v>103.12084993359896</v>
@@ -35855,13 +35999,13 @@
         <v>118.62898426806352</v>
       </c>
       <c r="CH70" s="106">
-        <v>113.38853083820095</v>
+        <v>113.38698253714711</v>
       </c>
       <c r="CI70" s="106">
         <v>117.42546502798577</v>
       </c>
       <c r="CJ70" s="106">
-        <v>112.80441388243079</v>
+        <v>112.80200269905166</v>
       </c>
       <c r="CK70" s="107"/>
     </row>
@@ -35909,10 +36053,10 @@
         <v>8518.9566218487416</v>
       </c>
       <c r="O71" s="108">
-        <v>8154.5184706908958</v>
+        <v>8154.5184706909031</v>
       </c>
       <c r="P71" s="108">
-        <v>14073.298647730968</v>
+        <v>14073.298647730984</v>
       </c>
       <c r="Q71" s="108">
         <v>10452.983956958175</v>
@@ -35967,16 +36111,16 @@
         <v>6463.3902257208119</v>
       </c>
       <c r="AJ71" s="108">
-        <v>8564.2238916567985</v>
+        <v>8570.3076908225739</v>
       </c>
       <c r="AK71" s="108">
         <v>8216.4688235294179</v>
       </c>
       <c r="AL71" s="108">
-        <v>7943.7278180670937</v>
+        <v>7880.201388189611</v>
       </c>
       <c r="AM71" s="108">
-        <v>12714.178974984392</v>
+        <v>12714.178974984427</v>
       </c>
       <c r="AN71" s="108">
         <v>9686.160641894694</v>
@@ -35985,13 +36129,13 @@
         <v>6239.9769782910507</v>
       </c>
       <c r="AP71" s="108">
-        <v>10488.299614583773</v>
+        <v>10488.989642656617</v>
       </c>
       <c r="AQ71" s="108">
-        <v>7116.4329994806267</v>
+        <v>7107.0378646897525</v>
       </c>
       <c r="AR71" s="108">
-        <v>9245.4098221352251</v>
+        <v>9246.4844091583655</v>
       </c>
       <c r="AS71" s="108"/>
       <c r="AU71" s="72" t="s">
@@ -36013,7 +36157,7 @@
         <v>107.46053566730072</v>
       </c>
       <c r="BA71" s="109">
-        <v>104.15689033259599</v>
+        <v>107.56571199501759</v>
       </c>
       <c r="BB71" s="109">
         <v>100.79901659496007</v>
@@ -36025,10 +36169,10 @@
         <v>102.22179413086754</v>
       </c>
       <c r="BE71" s="109">
-        <v>105.44263407248154</v>
+        <v>105.44263407248155</v>
       </c>
       <c r="BF71" s="109">
-        <v>102.44655578305495</v>
+        <v>102.36899343840152</v>
       </c>
       <c r="BG71" s="109">
         <v>105.79523502897617</v>
@@ -36046,18 +36190,18 @@
         <v>106.88079128187063</v>
       </c>
       <c r="BL71" s="109">
-        <v>103.78947458155768</v>
+        <v>104.30223784584602</v>
       </c>
       <c r="BM71" s="109">
         <v>104.26019044864076</v>
       </c>
       <c r="BN71" s="109">
-        <v>105.67246337144418</v>
+        <v>106.47099428841973</v>
       </c>
       <c r="BO71" s="109"/>
       <c r="BP71" s="65">
         <f t="shared" si="0"/>
-        <v>235.12885629347926</v>
+        <v>236.28724178436147</v>
       </c>
       <c r="BR71" s="109">
         <v>118.29415142843391</v>
@@ -36075,7 +36219,7 @@
         <v>121.28727984586862</v>
       </c>
       <c r="BW71" s="109">
-        <v>110.94072539733754</v>
+        <v>114.57156678259403</v>
       </c>
       <c r="BX71" s="109">
         <v>115.41168191414496</v>
@@ -36087,10 +36231,10 @@
         <v>114.71499603660733</v>
       </c>
       <c r="CA71" s="109">
-        <v>115.22881329391022</v>
+        <v>115.22881329391024</v>
       </c>
       <c r="CB71" s="109">
-        <v>112.49926114437068</v>
+        <v>112.35307283265999</v>
       </c>
       <c r="CC71" s="109">
         <v>107.66710353866318</v>
@@ -36108,13 +36252,13 @@
         <v>113.83459334042305</v>
       </c>
       <c r="CH71" s="109">
-        <v>113.76906386281748</v>
+        <v>114.3083032617368</v>
       </c>
       <c r="CI71" s="109">
         <v>116.10863381732409</v>
       </c>
       <c r="CJ71" s="109">
-        <v>115.20562125808833</v>
+        <v>116.04538370145686</v>
       </c>
       <c r="CK71" s="110"/>
     </row>
@@ -36162,10 +36306,10 @@
         <v>8600.3180546623753</v>
       </c>
       <c r="O72" s="108">
-        <v>8101.1064851651136</v>
+        <v>8101.1064851651163</v>
       </c>
       <c r="P72" s="108">
-        <v>13498.618778765673</v>
+        <v>13498.618778765669</v>
       </c>
       <c r="Q72" s="108">
         <v>10591.170883164925</v>
@@ -36214,22 +36358,22 @@
         <v>6886.7621012937198</v>
       </c>
       <c r="AH72" s="108">
-        <v>7190.64</v>
+        <v>7190.6390000000001</v>
       </c>
       <c r="AI72" s="108">
         <v>6835.8795224123842</v>
       </c>
       <c r="AJ72" s="108">
-        <v>8770.0534707549868</v>
+        <v>8787.4514943601225</v>
       </c>
       <c r="AK72" s="108">
         <v>8238.737354497347</v>
       </c>
       <c r="AL72" s="108">
-        <v>7600.7977152440699</v>
+        <v>7556.2400364149826</v>
       </c>
       <c r="AM72" s="108">
-        <v>12013.495121220698</v>
+        <v>12915.53142865878</v>
       </c>
       <c r="AN72" s="108">
         <v>10177.560562050576</v>
@@ -36238,13 +36382,13 @@
         <v>6393.6353256843868</v>
       </c>
       <c r="AP72" s="108">
-        <v>10438.816737996329</v>
+        <v>10767.817254931262</v>
       </c>
       <c r="AQ72" s="108">
-        <v>7118.1851044377308</v>
+        <v>7111.5953212534168</v>
       </c>
       <c r="AR72" s="108">
-        <v>9566.9470459498389</v>
+        <v>9570.1684480552449</v>
       </c>
       <c r="AS72" s="108"/>
       <c r="AU72" s="103" t="s">
@@ -36266,7 +36410,7 @@
         <v>101.47570975733696</v>
       </c>
       <c r="BA72" s="109">
-        <v>106.35254101543006</v>
+        <v>103.13518769703805</v>
       </c>
       <c r="BB72" s="109">
         <v>103.10975609756096</v>
@@ -36278,10 +36422,10 @@
         <v>100.15076323889691</v>
       </c>
       <c r="BE72" s="109">
-        <v>100.40735218789909</v>
+        <v>100.40735218789902</v>
       </c>
       <c r="BF72" s="109">
-        <v>102.8844279650226</v>
+        <v>102.64213593192027</v>
       </c>
       <c r="BG72" s="109">
         <v>97.687157638466218</v>
@@ -36290,7 +36434,7 @@
         <v>96.332072691577935</v>
       </c>
       <c r="BI72" s="109">
-        <v>100.62726784550078</v>
+        <v>99.615783673408401</v>
       </c>
       <c r="BJ72" s="109">
         <v>99.707994813575709</v>
@@ -36299,18 +36443,18 @@
         <v>105.3122714899249</v>
       </c>
       <c r="BL72" s="109">
-        <v>101.23015315825884</v>
+        <v>100.34986979743678</v>
       </c>
       <c r="BM72" s="109">
         <v>100.08729393316821</v>
       </c>
       <c r="BN72" s="109">
-        <v>101.5661466520704</v>
+        <v>100.7589827022487</v>
       </c>
       <c r="BO72" s="109"/>
       <c r="BP72" s="65">
         <f t="shared" si="0"/>
-        <v>238.02130134515141</v>
+        <v>237.11393947856138</v>
       </c>
       <c r="BR72" s="109">
         <v>115.87590882351519</v>
@@ -36328,7 +36472,7 @@
         <v>120.54303699187594</v>
       </c>
       <c r="BW72" s="109">
-        <v>114.06669820947329</v>
+        <v>114.23619105874702</v>
       </c>
       <c r="BX72" s="109">
         <v>113.7188971082717</v>
@@ -36340,10 +36484,10 @@
         <v>112.24303013235709</v>
       </c>
       <c r="CA72" s="109">
-        <v>113.15546023000095</v>
+        <v>113.15546023000091</v>
       </c>
       <c r="CB72" s="109">
-        <v>112.79530478982649</v>
+        <v>112.39466042457811</v>
       </c>
       <c r="CC72" s="109">
         <v>104.62842242503258</v>
@@ -36352,7 +36496,7 @@
         <v>113.95616942974867</v>
       </c>
       <c r="CE72" s="109">
-        <v>109.35031620576578</v>
+        <v>108.25114978275158</v>
       </c>
       <c r="CF72" s="109">
         <v>113.25399178600244</v>
@@ -36361,13 +36505,13 @@
         <v>117.90187400410512</v>
       </c>
       <c r="CH72" s="109">
-        <v>112.28825008834353</v>
+        <v>111.87719669647308</v>
       </c>
       <c r="CI72" s="109">
         <v>113.14127647818226</v>
       </c>
       <c r="CJ72" s="109">
-        <v>113.92558748719117</v>
+        <v>113.8980257753777</v>
       </c>
       <c r="CK72" s="110"/>
     </row>
@@ -36385,7 +36529,7 @@
         <v>12218.586676950059</v>
       </c>
       <c r="E73" s="89">
-        <v>11069.437040000001</v>
+        <v>11069.437036279003</v>
       </c>
       <c r="F73" s="89">
         <v>7400.2557159081625</v>
@@ -36418,7 +36562,7 @@
         <v>7920.8755162819971</v>
       </c>
       <c r="P73" s="89">
-        <v>13500.816276661466</v>
+        <v>13500.816276661451</v>
       </c>
       <c r="Q73" s="89">
         <v>10671.629276618005</v>
@@ -36446,10 +36590,10 @@
         <v>6445.0099002898505</v>
       </c>
       <c r="AA73" s="89">
-        <v>11293.819273657908</v>
+        <v>11277.585016687903</v>
       </c>
       <c r="AB73" s="89">
-        <v>9745.2643270000008</v>
+        <v>9737.2600589677077</v>
       </c>
       <c r="AC73" s="89">
         <v>6232.3306457232247</v>
@@ -36467,22 +36611,22 @@
         <v>6384.0863542970401</v>
       </c>
       <c r="AH73" s="89">
-        <v>7064.59</v>
+        <v>7060.4129999999996</v>
       </c>
       <c r="AI73" s="89">
-        <v>7022.3018444053505</v>
+        <v>6956.9214762920165</v>
       </c>
       <c r="AJ73" s="89">
-        <v>8734.8296850328024</v>
+        <v>8708.6520739986245</v>
       </c>
       <c r="AK73" s="89">
         <v>8040.5790445859884</v>
       </c>
       <c r="AL73" s="89">
-        <v>7857.9630313527905</v>
+        <v>7871.537944492894</v>
       </c>
       <c r="AM73" s="89">
-        <v>12045.959347378868</v>
+        <v>12585.499475391432</v>
       </c>
       <c r="AN73" s="89">
         <v>10113.898736150297</v>
@@ -36491,13 +36635,13 @@
         <v>6511.515573794637</v>
       </c>
       <c r="AP73" s="89">
-        <v>10366.236351047211</v>
+        <v>10554.481001716353</v>
       </c>
       <c r="AQ73" s="89">
-        <v>7141.9685436853342</v>
+        <v>7143.6858141355797</v>
       </c>
       <c r="AR73" s="89">
-        <v>9405.8319971768778</v>
+        <v>9398.7123033799799</v>
       </c>
       <c r="AS73" s="89"/>
       <c r="AU73" s="39" t="s">
@@ -36519,7 +36663,7 @@
         <v>99.534929422325206</v>
       </c>
       <c r="BA73" s="87">
-        <v>100.6028198821828</v>
+        <v>101.52516404679233</v>
       </c>
       <c r="BB73" s="87">
         <v>94.441159077468953</v>
@@ -36531,10 +36675,10 @@
         <v>99.065420560747654</v>
       </c>
       <c r="BE73" s="87">
-        <v>99.86306586185674</v>
+        <v>99.933201574514896</v>
       </c>
       <c r="BF73" s="87">
-        <v>101.33601822440899</v>
+        <v>99.611870832518377</v>
       </c>
       <c r="BG73" s="87">
         <v>99.127725856697808</v>
@@ -36543,7 +36687,7 @@
         <v>104.81865471722729</v>
       </c>
       <c r="BI73" s="87">
-        <v>101.61300834856146</v>
+        <v>102.20702622468416</v>
       </c>
       <c r="BJ73" s="87">
         <v>106.10637715085882</v>
@@ -36552,18 +36696,18 @@
         <v>97.274596930728748</v>
       </c>
       <c r="BL73" s="87">
-        <v>100.61584843444822</v>
+        <v>100.78176499262986</v>
       </c>
       <c r="BM73" s="87">
-        <v>99.027409185407137</v>
+        <v>99.030789985012305</v>
       </c>
       <c r="BN73" s="87">
-        <v>100.06012210252112</v>
+        <v>99.987453884334059</v>
       </c>
       <c r="BO73" s="87"/>
       <c r="BP73" s="65">
         <f t="shared" si="0"/>
-        <v>239.4871518031388</v>
+        <v>238.96761325005031</v>
       </c>
       <c r="BR73" s="87">
         <v>107.74596252741415</v>
@@ -36581,7 +36725,7 @@
         <v>113.95321568230048</v>
       </c>
       <c r="BW73" s="87">
-        <v>112.46295747103655</v>
+        <v>113.66267936845782</v>
       </c>
       <c r="BX73" s="87">
         <v>105.6915949702184</v>
@@ -36593,10 +36737,10 @@
         <v>108.67680451386499</v>
       </c>
       <c r="CA73" s="87">
-        <v>111.47431787617441</v>
+        <v>111.55260838988784</v>
       </c>
       <c r="CB73" s="87">
-        <v>111.12493445527119</v>
+        <v>108.864378615221</v>
       </c>
       <c r="CC73" s="87">
         <v>99.4375</v>
@@ -36605,7 +36749,7 @@
         <v>113.56675457276697</v>
       </c>
       <c r="CE73" s="87">
-        <v>106.27458658066915</v>
+        <v>105.82136080386037</v>
       </c>
       <c r="CF73" s="87">
         <v>116.09467710055861</v>
@@ -36614,17 +36758,17 @@
         <v>110.18164736069606</v>
       </c>
       <c r="CH73" s="87">
-        <v>109.07451654842069</v>
+        <v>108.84967756912778</v>
       </c>
       <c r="CI73" s="87">
-        <v>108.04165276259775</v>
+        <v>108.04542665364154</v>
       </c>
       <c r="CJ73" s="87">
-        <v>110.63494310449124</v>
+        <v>110.53738617439396</v>
       </c>
       <c r="CK73" s="88"/>
     </row>
-    <row r="74" spans="1:89" ht="13.5" thickBot="1">
+    <row r="74" spans="1:89">
       <c r="A74" s="31" t="s">
         <v>151</v>
       </c>
@@ -36638,7 +36782,7 @@
         <v>12223.08774208304</v>
       </c>
       <c r="E74" s="89">
-        <v>10931.404119999999</v>
+        <v>10931.404121187017</v>
       </c>
       <c r="F74" s="89">
         <v>7266.9081667561732</v>
@@ -36668,10 +36812,10 @@
         <v>8836.2699420289955</v>
       </c>
       <c r="O74" s="89">
-        <v>8092.7910281926897</v>
+        <v>7988.0365670379861</v>
       </c>
       <c r="P74" s="89">
-        <v>13802.187383312965</v>
+        <v>13802.187383312972</v>
       </c>
       <c r="Q74" s="89">
         <v>10978.291193126823</v>
@@ -36689,193 +36833,446 @@
         <v>10538.670802942199</v>
       </c>
       <c r="V74" s="89"/>
-      <c r="X74" s="111" t="s">
+      <c r="X74" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="Y74" s="112">
+      <c r="Y74" s="111">
         <v>7599.3191155825925</v>
       </c>
-      <c r="Z74" s="112">
+      <c r="Z74" s="111">
         <v>6388.6608687096759</v>
       </c>
-      <c r="AA74" s="112">
-        <v>10963.161667096658</v>
-      </c>
-      <c r="AB74" s="112">
-        <v>9435.5538730000007</v>
-      </c>
-      <c r="AC74" s="112">
+      <c r="AA74" s="111">
+        <v>10969.869364448434</v>
+      </c>
+      <c r="AB74" s="111">
+        <v>9413.9458475184911</v>
+      </c>
+      <c r="AC74" s="111">
         <v>6318.7682360481767</v>
       </c>
-      <c r="AD74" s="112">
+      <c r="AD74" s="111">
         <v>6384.0867459720121</v>
       </c>
-      <c r="AE74" s="112">
+      <c r="AE74" s="111">
         <v>10872.261949765654</v>
       </c>
-      <c r="AF74" s="112">
+      <c r="AF74" s="111">
         <v>7760.51</v>
       </c>
-      <c r="AG74" s="112">
+      <c r="AG74" s="111">
         <v>6579.1593123196399</v>
       </c>
-      <c r="AH74" s="112">
-        <v>6792.6</v>
-      </c>
-      <c r="AI74" s="112">
+      <c r="AH74" s="111">
+        <v>6874.3519999999999</v>
+      </c>
+      <c r="AI74" s="111">
         <v>6852.2375996952105</v>
       </c>
-      <c r="AJ74" s="112">
-        <v>8301.6956346288116</v>
-      </c>
-      <c r="AK74" s="112">
+      <c r="AJ74" s="111">
+        <v>8707.266223593977</v>
+      </c>
+      <c r="AK74" s="111">
         <v>8132.7667142857117</v>
       </c>
-      <c r="AL74" s="112">
-        <v>7788.2234518782934</v>
-      </c>
-      <c r="AM74" s="112">
-        <v>11940.458087188184</v>
-      </c>
-      <c r="AN74" s="112">
+      <c r="AL74" s="111">
+        <v>7542.2842135745232</v>
+      </c>
+      <c r="AM74" s="111">
+        <v>11915.820670744175</v>
+      </c>
+      <c r="AN74" s="111">
         <v>9980.162626544361</v>
       </c>
-      <c r="AO74" s="112">
+      <c r="AO74" s="111">
         <v>6495.9559680858965</v>
       </c>
-      <c r="AP74" s="112">
-        <v>10220.51925243484</v>
-      </c>
-      <c r="AQ74" s="112">
-        <v>7104.8100466915976</v>
-      </c>
-      <c r="AR74" s="112">
-        <v>9261.9816235712988</v>
-      </c>
-      <c r="AS74" s="112"/>
-      <c r="AU74" s="111" t="s">
+      <c r="AP74" s="111">
+        <v>10257.721697263876</v>
+      </c>
+      <c r="AQ74" s="111">
+        <v>7105.4355281851958</v>
+      </c>
+      <c r="AR74" s="111">
+        <v>9333.6479879171638</v>
+      </c>
+      <c r="AS74" s="111"/>
+      <c r="AU74" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="AV74" s="113">
+      <c r="AV74" s="112">
         <v>103.48493797991729</v>
       </c>
-      <c r="AW74" s="113">
+      <c r="AW74" s="112">
         <v>100.99875156054934</v>
       </c>
-      <c r="AX74" s="113">
+      <c r="AX74" s="112">
         <v>102.1386614564486</v>
       </c>
-      <c r="AY74" s="113">
+      <c r="AY74" s="112">
         <v>103.75910767184125</v>
       </c>
-      <c r="AZ74" s="113">
+      <c r="AZ74" s="112">
         <v>99.482152501431756</v>
       </c>
-      <c r="BA74" s="113">
-        <v>99.134220152796004</v>
-      </c>
-      <c r="BB74" s="113">
+      <c r="BA74" s="112">
+        <v>98.895388553903288</v>
+      </c>
+      <c r="BB74" s="112">
         <v>104.44583594239201</v>
       </c>
-      <c r="BC74" s="113">
+      <c r="BC74" s="112">
         <v>102.55721696673787</v>
       </c>
-      <c r="BD74" s="113">
+      <c r="BD74" s="112">
         <v>97.676332784601755</v>
       </c>
-      <c r="BE74" s="113">
-        <v>103.68057197391367</v>
-      </c>
-      <c r="BF74" s="113">
-        <v>103.53815233560204</v>
-      </c>
-      <c r="BG74" s="113">
+      <c r="BE74" s="112">
+        <v>103.60780625952025</v>
+      </c>
+      <c r="BF74" s="112">
+        <v>101.17335258156446</v>
+      </c>
+      <c r="BG74" s="112">
         <v>100.43997485857952</v>
       </c>
-      <c r="BH74" s="113">
+      <c r="BH74" s="112">
         <v>97.385938816997395</v>
       </c>
-      <c r="BI74" s="113">
-        <v>95.548532735200538</v>
-      </c>
-      <c r="BJ74" s="113">
+      <c r="BI74" s="112">
+        <v>95.806862290067741</v>
+      </c>
+      <c r="BJ74" s="112">
         <v>99.840121991922814</v>
       </c>
-      <c r="BK74" s="113">
+      <c r="BK74" s="112">
         <v>105.27830645711869</v>
       </c>
-      <c r="BL74" s="113">
-        <v>99.282082565123588</v>
-      </c>
-      <c r="BM74" s="113">
-        <v>101.55727807811596</v>
-      </c>
-      <c r="BN74" s="113">
-        <v>101.36282400156142</v>
-      </c>
-      <c r="BO74" s="113"/>
+      <c r="BL74" s="112">
+        <v>99.080583820593844</v>
+      </c>
+      <c r="BM74" s="112">
+        <v>101.55377050274291</v>
+      </c>
+      <c r="BN74" s="112">
+        <v>100.9050587439846</v>
+      </c>
+      <c r="BO74" s="112"/>
       <c r="BP74" s="65">
         <f t="shared" si="0"/>
-        <v>237.76783178605513</v>
-      </c>
-      <c r="BR74" s="113">
+        <v>236.7705063502886</v>
+      </c>
+      <c r="BR74" s="112">
         <v>107.48466257668711</v>
       </c>
-      <c r="BS74" s="113">
+      <c r="BS74" s="112">
         <v>102.86077558804831</v>
       </c>
-      <c r="BT74" s="113">
+      <c r="BT74" s="112">
         <v>106.20547543995431</v>
       </c>
-      <c r="BU74" s="113">
+      <c r="BU74" s="112">
         <v>105.61316704542017</v>
       </c>
-      <c r="BV74" s="113">
+      <c r="BV74" s="112">
         <v>107.97713130202003</v>
       </c>
-      <c r="BW74" s="113">
-        <v>110.47642818378316</v>
-      </c>
-      <c r="BX74" s="113">
+      <c r="BW74" s="112">
+        <v>111.38596213096088</v>
+      </c>
+      <c r="BX74" s="112">
         <v>102.51997541487401</v>
       </c>
-      <c r="BY74" s="113">
+      <c r="BY74" s="112">
         <v>104.52198793307208</v>
       </c>
-      <c r="BZ74" s="113">
+      <c r="BZ74" s="112">
         <v>99.062479933217773</v>
       </c>
-      <c r="CA74" s="113">
+      <c r="CA74" s="112">
         <v>109.61854684671385</v>
       </c>
-      <c r="CB74" s="113">
-        <v>110.58882804139631</v>
-      </c>
-      <c r="CC74" s="113">
+      <c r="CB74" s="112">
+        <v>105.89399967249116</v>
+      </c>
+      <c r="CC74" s="112">
         <v>102.89761751448809</v>
       </c>
-      <c r="CD74" s="113">
+      <c r="CD74" s="112">
         <v>103.37630248547728</v>
       </c>
-      <c r="CE74" s="113">
-        <v>98.100058156557182</v>
-      </c>
-      <c r="CF74" s="113">
+      <c r="CE74" s="112">
+        <v>97.945790896678375</v>
+      </c>
+      <c r="CF74" s="112">
         <v>112.93473033127688</v>
       </c>
-      <c r="CG74" s="113">
+      <c r="CG74" s="112">
         <v>115.27017981905261</v>
       </c>
-      <c r="CH74" s="113">
-        <v>104.92876706903002</v>
-      </c>
-      <c r="CI74" s="113">
+      <c r="CH74" s="112">
+        <v>104.50155402849582</v>
+      </c>
+      <c r="CI74" s="112">
         <v>104.86521675898889</v>
       </c>
-      <c r="CJ74" s="113">
-        <v>108.73446894494347</v>
-      </c>
-      <c r="CK74" s="114"/>
+      <c r="CJ74" s="112">
+        <v>108.15514072674141</v>
+      </c>
+      <c r="CK74" s="113"/>
+    </row>
+    <row r="75" spans="1:89" ht="13.5" thickBot="1">
+      <c r="A75" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="111">
+        <v>8576.0571699399097</v>
+      </c>
+      <c r="C75" s="111">
+        <v>7262.7860758707257</v>
+      </c>
+      <c r="D75" s="111">
+        <v>12568.146644030356</v>
+      </c>
+      <c r="E75" s="111">
+        <v>11090.724512668341</v>
+      </c>
+      <c r="F75" s="111">
+        <v>7353.3595154894811</v>
+      </c>
+      <c r="G75" s="111">
+        <v>6990.4876596767917</v>
+      </c>
+      <c r="H75" s="111">
+        <v>13026.173014711696</v>
+      </c>
+      <c r="I75" s="111">
+        <v>8694.0300000000007</v>
+      </c>
+      <c r="J75" s="111">
+        <v>7526.1820920532109</v>
+      </c>
+      <c r="K75" s="111">
+        <v>7772.9430000000002</v>
+      </c>
+      <c r="L75" s="111">
+        <v>7505.1845408342424</v>
+      </c>
+      <c r="M75" s="111">
+        <v>9956.262068588534</v>
+      </c>
+      <c r="N75" s="111">
+        <v>9083.2872926447599</v>
+      </c>
+      <c r="O75" s="111">
+        <v>8077.7420670522988</v>
+      </c>
+      <c r="P75" s="111">
+        <v>14315.644702064834</v>
+      </c>
+      <c r="Q75" s="111">
+        <v>11295.599926858897</v>
+      </c>
+      <c r="R75" s="111">
+        <v>7259.9524909455122</v>
+      </c>
+      <c r="S75" s="111">
+        <v>12013.410715270758</v>
+      </c>
+      <c r="T75" s="111">
+        <v>7937.8043361990585</v>
+      </c>
+      <c r="U75" s="111">
+        <v>10773.835120825772</v>
+      </c>
+      <c r="V75" s="111"/>
+      <c r="X75" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y75" s="111">
+        <v>7749.3583018804729</v>
+      </c>
+      <c r="Z75" s="111">
+        <v>6575.4602374948036</v>
+      </c>
+      <c r="AA75" s="111">
+        <v>10898.913450778335</v>
+      </c>
+      <c r="AB75" s="111">
+        <v>9888.7395306567068</v>
+      </c>
+      <c r="AC75" s="111">
+        <v>6482.1965064635233</v>
+      </c>
+      <c r="AD75" s="111">
+        <v>6475.3617084018933</v>
+      </c>
+      <c r="AE75" s="111">
+        <v>11017.583629308825</v>
+      </c>
+      <c r="AF75" s="111">
+        <v>8015.78</v>
+      </c>
+      <c r="AG75" s="111">
+        <v>6365.8865580359025</v>
+      </c>
+      <c r="AH75" s="111">
+        <v>7179.32</v>
+      </c>
+      <c r="AI75" s="111">
+        <v>7030.975571092451</v>
+      </c>
+      <c r="AJ75" s="111">
+        <v>8346.1831055201092</v>
+      </c>
+      <c r="AK75" s="111">
+        <v>8620.4366467065865</v>
+      </c>
+      <c r="AL75" s="111">
+        <v>7732.5241153822435</v>
+      </c>
+      <c r="AM75" s="111">
+        <v>12198.722386843443</v>
+      </c>
+      <c r="AN75" s="111">
+        <v>10234.133070775992</v>
+      </c>
+      <c r="AO75" s="111">
+        <v>6537.932521921417</v>
+      </c>
+      <c r="AP75" s="111">
+        <v>10347.657509549857</v>
+      </c>
+      <c r="AQ75" s="111">
+        <v>7281.4599087933084</v>
+      </c>
+      <c r="AR75" s="111">
+        <v>9300.2116545831868</v>
+      </c>
+      <c r="AS75" s="111"/>
+      <c r="AU75" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV75" s="112">
+        <v>100.11415525114155</v>
+      </c>
+      <c r="AW75" s="112">
+        <v>99.81458590852904</v>
+      </c>
+      <c r="AX75" s="112">
+        <v>102.33163194792184</v>
+      </c>
+      <c r="AY75" s="112">
+        <v>99.980021725140631</v>
+      </c>
+      <c r="AZ75" s="112">
+        <v>101.95090058896913</v>
+      </c>
+      <c r="BA75" s="112">
+        <v>101.18981946553882</v>
+      </c>
+      <c r="BB75" s="112">
+        <v>102.51798561151078</v>
+      </c>
+      <c r="BC75" s="112">
+        <v>95.762913592001894</v>
+      </c>
+      <c r="BD75" s="112">
+        <v>108.29714137551046</v>
+      </c>
+      <c r="BE75" s="112">
+        <v>103.20386532241778</v>
+      </c>
+      <c r="BF75" s="112">
+        <v>105.42210021783501</v>
+      </c>
+      <c r="BG75" s="112">
+        <v>106.94618272841051</v>
+      </c>
+      <c r="BH75" s="112">
+        <v>98.294947642608321</v>
+      </c>
+      <c r="BI75" s="112">
+        <v>106.12913506465571</v>
+      </c>
+      <c r="BJ75" s="112">
+        <v>103.31264052558772</v>
+      </c>
+      <c r="BK75" s="112">
+        <v>98.174929842359674</v>
+      </c>
+      <c r="BL75" s="112">
+        <v>103.01501867993694</v>
+      </c>
+      <c r="BM75" s="112">
+        <v>101.3610858559511</v>
+      </c>
+      <c r="BN75" s="112">
+        <v>101.27949316273558</v>
+      </c>
+      <c r="BO75" s="112"/>
+      <c r="BP75" s="65">
+        <f t="shared" si="0"/>
+        <v>243.90918134533109</v>
+      </c>
+      <c r="BR75" s="112">
+        <v>101.09510086455332</v>
+      </c>
+      <c r="BS75" s="112">
+        <v>99.019006744328635</v>
+      </c>
+      <c r="BT75" s="112">
+        <v>101.37500287167371</v>
+      </c>
+      <c r="BU75" s="112">
+        <v>102.91028117253131</v>
+      </c>
+      <c r="BV75" s="112">
+        <v>102.44100972413131</v>
+      </c>
+      <c r="BW75" s="112">
+        <v>104.7836265849228</v>
+      </c>
+      <c r="BX75" s="112">
+        <v>104.26829268292683</v>
+      </c>
+      <c r="BY75" s="112">
+        <v>93.178922987840181</v>
+      </c>
+      <c r="BZ75" s="112">
+        <v>104.95005967711541</v>
+      </c>
+      <c r="CA75" s="112">
+        <v>107.29111469114831</v>
+      </c>
+      <c r="CB75" s="112">
+        <v>109.05223809451836</v>
+      </c>
+      <c r="CC75" s="112">
+        <v>104.01704199634814</v>
+      </c>
+      <c r="CD75" s="112">
+        <v>96.657806926063216</v>
+      </c>
+      <c r="CE75" s="112">
+        <v>103.52378692338</v>
+      </c>
+      <c r="CF75" s="112">
+        <v>109.12645153760867</v>
+      </c>
+      <c r="CG75" s="112">
+        <v>105.88096963847262</v>
+      </c>
+      <c r="CH75" s="112">
+        <v>103.16977107666128</v>
+      </c>
+      <c r="CI75" s="112">
+        <v>101.92130345405941</v>
+      </c>
+      <c r="CJ75" s="112">
+        <v>102.97247481037884</v>
+      </c>
+      <c r="CK75" s="113"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
